--- a/dataPackages/dataPackagesInDryad.xlsx
+++ b/dataPackages/dataPackagesInDryad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17740" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SubmissionDates" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,10 +138,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SubmissionDates!$A$1:$A$4324</c:f>
+              <c:f>SubmissionDates!$A$1:$A$4524</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="4324"/>
+                <c:ptCount val="4524"/>
                 <c:pt idx="0">
                   <c:v>39422.0</c:v>
                 </c:pt>
@@ -13114,16 +13113,616 @@
                 </c:pt>
                 <c:pt idx="4323">
                   <c:v>41597.0</c:v>
+                </c:pt>
+                <c:pt idx="4324">
+                  <c:v>41597.0</c:v>
+                </c:pt>
+                <c:pt idx="4325">
+                  <c:v>41597.0</c:v>
+                </c:pt>
+                <c:pt idx="4326">
+                  <c:v>41598.0</c:v>
+                </c:pt>
+                <c:pt idx="4327">
+                  <c:v>41598.0</c:v>
+                </c:pt>
+                <c:pt idx="4328">
+                  <c:v>41598.0</c:v>
+                </c:pt>
+                <c:pt idx="4329">
+                  <c:v>41598.0</c:v>
+                </c:pt>
+                <c:pt idx="4330">
+                  <c:v>41598.0</c:v>
+                </c:pt>
+                <c:pt idx="4331">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4332">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4333">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4334">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4335">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4336">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4337">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4338">
+                  <c:v>41599.0</c:v>
+                </c:pt>
+                <c:pt idx="4339">
+                  <c:v>41603.0</c:v>
+                </c:pt>
+                <c:pt idx="4340">
+                  <c:v>41603.0</c:v>
+                </c:pt>
+                <c:pt idx="4341">
+                  <c:v>41603.0</c:v>
+                </c:pt>
+                <c:pt idx="4342">
+                  <c:v>41603.0</c:v>
+                </c:pt>
+                <c:pt idx="4343">
+                  <c:v>41603.0</c:v>
+                </c:pt>
+                <c:pt idx="4344">
+                  <c:v>41604.0</c:v>
+                </c:pt>
+                <c:pt idx="4345">
+                  <c:v>41604.0</c:v>
+                </c:pt>
+                <c:pt idx="4346">
+                  <c:v>41604.0</c:v>
+                </c:pt>
+                <c:pt idx="4347">
+                  <c:v>41604.0</c:v>
+                </c:pt>
+                <c:pt idx="4348">
+                  <c:v>41604.0</c:v>
+                </c:pt>
+                <c:pt idx="4349">
+                  <c:v>41604.0</c:v>
+                </c:pt>
+                <c:pt idx="4350">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4351">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4352">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4353">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4354">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4355">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4356">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4357">
+                  <c:v>41605.0</c:v>
+                </c:pt>
+                <c:pt idx="4358">
+                  <c:v>41607.0</c:v>
+                </c:pt>
+                <c:pt idx="4359">
+                  <c:v>41607.0</c:v>
+                </c:pt>
+                <c:pt idx="4360">
+                  <c:v>41607.0</c:v>
+                </c:pt>
+                <c:pt idx="4361">
+                  <c:v>41610.0</c:v>
+                </c:pt>
+                <c:pt idx="4362">
+                  <c:v>41610.0</c:v>
+                </c:pt>
+                <c:pt idx="4363">
+                  <c:v>41610.0</c:v>
+                </c:pt>
+                <c:pt idx="4364">
+                  <c:v>41610.0</c:v>
+                </c:pt>
+                <c:pt idx="4365">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4366">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4367">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4368">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4369">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4370">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4371">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4372">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4373">
+                  <c:v>41611.0</c:v>
+                </c:pt>
+                <c:pt idx="4374">
+                  <c:v>41612.0</c:v>
+                </c:pt>
+                <c:pt idx="4375">
+                  <c:v>41612.0</c:v>
+                </c:pt>
+                <c:pt idx="4376">
+                  <c:v>41612.0</c:v>
+                </c:pt>
+                <c:pt idx="4377">
+                  <c:v>41612.0</c:v>
+                </c:pt>
+                <c:pt idx="4378">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4379">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4380">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4381">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4382">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4383">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4384">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4385">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4386">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4387">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4388">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4389">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4390">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4391">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4392">
+                  <c:v>41613.0</c:v>
+                </c:pt>
+                <c:pt idx="4393">
+                  <c:v>41614.0</c:v>
+                </c:pt>
+                <c:pt idx="4394">
+                  <c:v>41614.0</c:v>
+                </c:pt>
+                <c:pt idx="4395">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4396">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4397">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4398">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4399">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4400">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4401">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4402">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4403">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4404">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4405">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4406">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4407">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4408">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4409">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4410">
+                  <c:v>41617.0</c:v>
+                </c:pt>
+                <c:pt idx="4411">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4412">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4413">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4414">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4415">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4416">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4417">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4418">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4419">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4420">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4421">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4422">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4423">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4424">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4425">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4426">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4427">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4428">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4429">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4430">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4431">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4432">
+                  <c:v>41618.0</c:v>
+                </c:pt>
+                <c:pt idx="4433">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4434">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4435">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4436">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4437">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4438">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4439">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4440">
+                  <c:v>41619.0</c:v>
+                </c:pt>
+                <c:pt idx="4441">
+                  <c:v>41620.0</c:v>
+                </c:pt>
+                <c:pt idx="4442">
+                  <c:v>41620.0</c:v>
+                </c:pt>
+                <c:pt idx="4443">
+                  <c:v>41620.0</c:v>
+                </c:pt>
+                <c:pt idx="4444">
+                  <c:v>41620.0</c:v>
+                </c:pt>
+                <c:pt idx="4445">
+                  <c:v>41620.0</c:v>
+                </c:pt>
+                <c:pt idx="4446">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4447">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4448">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4449">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4450">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4451">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4452">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4453">
+                  <c:v>41621.0</c:v>
+                </c:pt>
+                <c:pt idx="4454">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4455">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4456">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4457">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4458">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4459">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4460">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4461">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4462">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4463">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4464">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4465">
+                  <c:v>41625.0</c:v>
+                </c:pt>
+                <c:pt idx="4466">
+                  <c:v>41626.0</c:v>
+                </c:pt>
+                <c:pt idx="4467">
+                  <c:v>41626.0</c:v>
+                </c:pt>
+                <c:pt idx="4468">
+                  <c:v>41626.0</c:v>
+                </c:pt>
+                <c:pt idx="4469">
+                  <c:v>41626.0</c:v>
+                </c:pt>
+                <c:pt idx="4470">
+                  <c:v>41626.0</c:v>
+                </c:pt>
+                <c:pt idx="4471">
+                  <c:v>41626.0</c:v>
+                </c:pt>
+                <c:pt idx="4472">
+                  <c:v>41626.0</c:v>
+                </c:pt>
+                <c:pt idx="4473">
+                  <c:v>41627.0</c:v>
+                </c:pt>
+                <c:pt idx="4474">
+                  <c:v>41627.0</c:v>
+                </c:pt>
+                <c:pt idx="4475">
+                  <c:v>41627.0</c:v>
+                </c:pt>
+                <c:pt idx="4476">
+                  <c:v>41627.0</c:v>
+                </c:pt>
+                <c:pt idx="4477">
+                  <c:v>41628.0</c:v>
+                </c:pt>
+                <c:pt idx="4478">
+                  <c:v>41628.0</c:v>
+                </c:pt>
+                <c:pt idx="4479">
+                  <c:v>41628.0</c:v>
+                </c:pt>
+                <c:pt idx="4480">
+                  <c:v>41628.0</c:v>
+                </c:pt>
+                <c:pt idx="4481">
+                  <c:v>41628.0</c:v>
+                </c:pt>
+                <c:pt idx="4482">
+                  <c:v>41628.0</c:v>
+                </c:pt>
+                <c:pt idx="4483">
+                  <c:v>41628.0</c:v>
+                </c:pt>
+                <c:pt idx="4484">
+                  <c:v>41631.0</c:v>
+                </c:pt>
+                <c:pt idx="4485">
+                  <c:v>41631.0</c:v>
+                </c:pt>
+                <c:pt idx="4486">
+                  <c:v>41631.0</c:v>
+                </c:pt>
+                <c:pt idx="4487">
+                  <c:v>41635.0</c:v>
+                </c:pt>
+                <c:pt idx="4488">
+                  <c:v>41635.0</c:v>
+                </c:pt>
+                <c:pt idx="4489">
+                  <c:v>41635.0</c:v>
+                </c:pt>
+                <c:pt idx="4490">
+                  <c:v>41635.0</c:v>
+                </c:pt>
+                <c:pt idx="4491">
+                  <c:v>41635.0</c:v>
+                </c:pt>
+                <c:pt idx="4492">
+                  <c:v>41638.0</c:v>
+                </c:pt>
+                <c:pt idx="4493">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="4494">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4495">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4496">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4497">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4498">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4499">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4500">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4501">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4502">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4503">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4504">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4505">
+                  <c:v>41641.0</c:v>
+                </c:pt>
+                <c:pt idx="4506">
+                  <c:v>41642.0</c:v>
+                </c:pt>
+                <c:pt idx="4507">
+                  <c:v>41642.0</c:v>
+                </c:pt>
+                <c:pt idx="4508">
+                  <c:v>41642.0</c:v>
+                </c:pt>
+                <c:pt idx="4509">
+                  <c:v>41642.0</c:v>
+                </c:pt>
+                <c:pt idx="4510">
+                  <c:v>41642.0</c:v>
+                </c:pt>
+                <c:pt idx="4511">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4512">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4513">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4514">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4515">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4516">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4517">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4518">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4519">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4520">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4521">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4522">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4523">
+                  <c:v>41645.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SubmissionDates!$B$1:$B$4324</c:f>
+              <c:f>SubmissionDates!$B$1:$B$4524</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4324"/>
+                <c:ptCount val="4524"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -26095,6 +26694,606 @@
                 </c:pt>
                 <c:pt idx="4323">
                   <c:v>4324.0</c:v>
+                </c:pt>
+                <c:pt idx="4324">
+                  <c:v>4325.0</c:v>
+                </c:pt>
+                <c:pt idx="4325">
+                  <c:v>4326.0</c:v>
+                </c:pt>
+                <c:pt idx="4326">
+                  <c:v>4327.0</c:v>
+                </c:pt>
+                <c:pt idx="4327">
+                  <c:v>4328.0</c:v>
+                </c:pt>
+                <c:pt idx="4328">
+                  <c:v>4329.0</c:v>
+                </c:pt>
+                <c:pt idx="4329">
+                  <c:v>4330.0</c:v>
+                </c:pt>
+                <c:pt idx="4330">
+                  <c:v>4331.0</c:v>
+                </c:pt>
+                <c:pt idx="4331">
+                  <c:v>4332.0</c:v>
+                </c:pt>
+                <c:pt idx="4332">
+                  <c:v>4333.0</c:v>
+                </c:pt>
+                <c:pt idx="4333">
+                  <c:v>4334.0</c:v>
+                </c:pt>
+                <c:pt idx="4334">
+                  <c:v>4335.0</c:v>
+                </c:pt>
+                <c:pt idx="4335">
+                  <c:v>4336.0</c:v>
+                </c:pt>
+                <c:pt idx="4336">
+                  <c:v>4337.0</c:v>
+                </c:pt>
+                <c:pt idx="4337">
+                  <c:v>4338.0</c:v>
+                </c:pt>
+                <c:pt idx="4338">
+                  <c:v>4339.0</c:v>
+                </c:pt>
+                <c:pt idx="4339">
+                  <c:v>4340.0</c:v>
+                </c:pt>
+                <c:pt idx="4340">
+                  <c:v>4341.0</c:v>
+                </c:pt>
+                <c:pt idx="4341">
+                  <c:v>4342.0</c:v>
+                </c:pt>
+                <c:pt idx="4342">
+                  <c:v>4343.0</c:v>
+                </c:pt>
+                <c:pt idx="4343">
+                  <c:v>4344.0</c:v>
+                </c:pt>
+                <c:pt idx="4344">
+                  <c:v>4345.0</c:v>
+                </c:pt>
+                <c:pt idx="4345">
+                  <c:v>4346.0</c:v>
+                </c:pt>
+                <c:pt idx="4346">
+                  <c:v>4347.0</c:v>
+                </c:pt>
+                <c:pt idx="4347">
+                  <c:v>4348.0</c:v>
+                </c:pt>
+                <c:pt idx="4348">
+                  <c:v>4349.0</c:v>
+                </c:pt>
+                <c:pt idx="4349">
+                  <c:v>4350.0</c:v>
+                </c:pt>
+                <c:pt idx="4350">
+                  <c:v>4351.0</c:v>
+                </c:pt>
+                <c:pt idx="4351">
+                  <c:v>4352.0</c:v>
+                </c:pt>
+                <c:pt idx="4352">
+                  <c:v>4353.0</c:v>
+                </c:pt>
+                <c:pt idx="4353">
+                  <c:v>4354.0</c:v>
+                </c:pt>
+                <c:pt idx="4354">
+                  <c:v>4355.0</c:v>
+                </c:pt>
+                <c:pt idx="4355">
+                  <c:v>4356.0</c:v>
+                </c:pt>
+                <c:pt idx="4356">
+                  <c:v>4357.0</c:v>
+                </c:pt>
+                <c:pt idx="4357">
+                  <c:v>4358.0</c:v>
+                </c:pt>
+                <c:pt idx="4358">
+                  <c:v>4359.0</c:v>
+                </c:pt>
+                <c:pt idx="4359">
+                  <c:v>4360.0</c:v>
+                </c:pt>
+                <c:pt idx="4360">
+                  <c:v>4361.0</c:v>
+                </c:pt>
+                <c:pt idx="4361">
+                  <c:v>4362.0</c:v>
+                </c:pt>
+                <c:pt idx="4362">
+                  <c:v>4363.0</c:v>
+                </c:pt>
+                <c:pt idx="4363">
+                  <c:v>4364.0</c:v>
+                </c:pt>
+                <c:pt idx="4364">
+                  <c:v>4365.0</c:v>
+                </c:pt>
+                <c:pt idx="4365">
+                  <c:v>4366.0</c:v>
+                </c:pt>
+                <c:pt idx="4366">
+                  <c:v>4367.0</c:v>
+                </c:pt>
+                <c:pt idx="4367">
+                  <c:v>4368.0</c:v>
+                </c:pt>
+                <c:pt idx="4368">
+                  <c:v>4369.0</c:v>
+                </c:pt>
+                <c:pt idx="4369">
+                  <c:v>4370.0</c:v>
+                </c:pt>
+                <c:pt idx="4370">
+                  <c:v>4371.0</c:v>
+                </c:pt>
+                <c:pt idx="4371">
+                  <c:v>4372.0</c:v>
+                </c:pt>
+                <c:pt idx="4372">
+                  <c:v>4373.0</c:v>
+                </c:pt>
+                <c:pt idx="4373">
+                  <c:v>4374.0</c:v>
+                </c:pt>
+                <c:pt idx="4374">
+                  <c:v>4375.0</c:v>
+                </c:pt>
+                <c:pt idx="4375">
+                  <c:v>4376.0</c:v>
+                </c:pt>
+                <c:pt idx="4376">
+                  <c:v>4377.0</c:v>
+                </c:pt>
+                <c:pt idx="4377">
+                  <c:v>4378.0</c:v>
+                </c:pt>
+                <c:pt idx="4378">
+                  <c:v>4379.0</c:v>
+                </c:pt>
+                <c:pt idx="4379">
+                  <c:v>4380.0</c:v>
+                </c:pt>
+                <c:pt idx="4380">
+                  <c:v>4381.0</c:v>
+                </c:pt>
+                <c:pt idx="4381">
+                  <c:v>4382.0</c:v>
+                </c:pt>
+                <c:pt idx="4382">
+                  <c:v>4383.0</c:v>
+                </c:pt>
+                <c:pt idx="4383">
+                  <c:v>4384.0</c:v>
+                </c:pt>
+                <c:pt idx="4384">
+                  <c:v>4385.0</c:v>
+                </c:pt>
+                <c:pt idx="4385">
+                  <c:v>4386.0</c:v>
+                </c:pt>
+                <c:pt idx="4386">
+                  <c:v>4387.0</c:v>
+                </c:pt>
+                <c:pt idx="4387">
+                  <c:v>4388.0</c:v>
+                </c:pt>
+                <c:pt idx="4388">
+                  <c:v>4389.0</c:v>
+                </c:pt>
+                <c:pt idx="4389">
+                  <c:v>4390.0</c:v>
+                </c:pt>
+                <c:pt idx="4390">
+                  <c:v>4391.0</c:v>
+                </c:pt>
+                <c:pt idx="4391">
+                  <c:v>4392.0</c:v>
+                </c:pt>
+                <c:pt idx="4392">
+                  <c:v>4393.0</c:v>
+                </c:pt>
+                <c:pt idx="4393">
+                  <c:v>4394.0</c:v>
+                </c:pt>
+                <c:pt idx="4394">
+                  <c:v>4395.0</c:v>
+                </c:pt>
+                <c:pt idx="4395">
+                  <c:v>4396.0</c:v>
+                </c:pt>
+                <c:pt idx="4396">
+                  <c:v>4397.0</c:v>
+                </c:pt>
+                <c:pt idx="4397">
+                  <c:v>4398.0</c:v>
+                </c:pt>
+                <c:pt idx="4398">
+                  <c:v>4399.0</c:v>
+                </c:pt>
+                <c:pt idx="4399">
+                  <c:v>4400.0</c:v>
+                </c:pt>
+                <c:pt idx="4400">
+                  <c:v>4401.0</c:v>
+                </c:pt>
+                <c:pt idx="4401">
+                  <c:v>4402.0</c:v>
+                </c:pt>
+                <c:pt idx="4402">
+                  <c:v>4403.0</c:v>
+                </c:pt>
+                <c:pt idx="4403">
+                  <c:v>4404.0</c:v>
+                </c:pt>
+                <c:pt idx="4404">
+                  <c:v>4405.0</c:v>
+                </c:pt>
+                <c:pt idx="4405">
+                  <c:v>4406.0</c:v>
+                </c:pt>
+                <c:pt idx="4406">
+                  <c:v>4407.0</c:v>
+                </c:pt>
+                <c:pt idx="4407">
+                  <c:v>4408.0</c:v>
+                </c:pt>
+                <c:pt idx="4408">
+                  <c:v>4409.0</c:v>
+                </c:pt>
+                <c:pt idx="4409">
+                  <c:v>4410.0</c:v>
+                </c:pt>
+                <c:pt idx="4410">
+                  <c:v>4411.0</c:v>
+                </c:pt>
+                <c:pt idx="4411">
+                  <c:v>4412.0</c:v>
+                </c:pt>
+                <c:pt idx="4412">
+                  <c:v>4413.0</c:v>
+                </c:pt>
+                <c:pt idx="4413">
+                  <c:v>4414.0</c:v>
+                </c:pt>
+                <c:pt idx="4414">
+                  <c:v>4415.0</c:v>
+                </c:pt>
+                <c:pt idx="4415">
+                  <c:v>4416.0</c:v>
+                </c:pt>
+                <c:pt idx="4416">
+                  <c:v>4417.0</c:v>
+                </c:pt>
+                <c:pt idx="4417">
+                  <c:v>4418.0</c:v>
+                </c:pt>
+                <c:pt idx="4418">
+                  <c:v>4419.0</c:v>
+                </c:pt>
+                <c:pt idx="4419">
+                  <c:v>4420.0</c:v>
+                </c:pt>
+                <c:pt idx="4420">
+                  <c:v>4421.0</c:v>
+                </c:pt>
+                <c:pt idx="4421">
+                  <c:v>4422.0</c:v>
+                </c:pt>
+                <c:pt idx="4422">
+                  <c:v>4423.0</c:v>
+                </c:pt>
+                <c:pt idx="4423">
+                  <c:v>4424.0</c:v>
+                </c:pt>
+                <c:pt idx="4424">
+                  <c:v>4425.0</c:v>
+                </c:pt>
+                <c:pt idx="4425">
+                  <c:v>4426.0</c:v>
+                </c:pt>
+                <c:pt idx="4426">
+                  <c:v>4427.0</c:v>
+                </c:pt>
+                <c:pt idx="4427">
+                  <c:v>4428.0</c:v>
+                </c:pt>
+                <c:pt idx="4428">
+                  <c:v>4429.0</c:v>
+                </c:pt>
+                <c:pt idx="4429">
+                  <c:v>4430.0</c:v>
+                </c:pt>
+                <c:pt idx="4430">
+                  <c:v>4431.0</c:v>
+                </c:pt>
+                <c:pt idx="4431">
+                  <c:v>4432.0</c:v>
+                </c:pt>
+                <c:pt idx="4432">
+                  <c:v>4433.0</c:v>
+                </c:pt>
+                <c:pt idx="4433">
+                  <c:v>4434.0</c:v>
+                </c:pt>
+                <c:pt idx="4434">
+                  <c:v>4435.0</c:v>
+                </c:pt>
+                <c:pt idx="4435">
+                  <c:v>4436.0</c:v>
+                </c:pt>
+                <c:pt idx="4436">
+                  <c:v>4437.0</c:v>
+                </c:pt>
+                <c:pt idx="4437">
+                  <c:v>4438.0</c:v>
+                </c:pt>
+                <c:pt idx="4438">
+                  <c:v>4439.0</c:v>
+                </c:pt>
+                <c:pt idx="4439">
+                  <c:v>4440.0</c:v>
+                </c:pt>
+                <c:pt idx="4440">
+                  <c:v>4441.0</c:v>
+                </c:pt>
+                <c:pt idx="4441">
+                  <c:v>4442.0</c:v>
+                </c:pt>
+                <c:pt idx="4442">
+                  <c:v>4443.0</c:v>
+                </c:pt>
+                <c:pt idx="4443">
+                  <c:v>4444.0</c:v>
+                </c:pt>
+                <c:pt idx="4444">
+                  <c:v>4445.0</c:v>
+                </c:pt>
+                <c:pt idx="4445">
+                  <c:v>4446.0</c:v>
+                </c:pt>
+                <c:pt idx="4446">
+                  <c:v>4447.0</c:v>
+                </c:pt>
+                <c:pt idx="4447">
+                  <c:v>4448.0</c:v>
+                </c:pt>
+                <c:pt idx="4448">
+                  <c:v>4449.0</c:v>
+                </c:pt>
+                <c:pt idx="4449">
+                  <c:v>4450.0</c:v>
+                </c:pt>
+                <c:pt idx="4450">
+                  <c:v>4451.0</c:v>
+                </c:pt>
+                <c:pt idx="4451">
+                  <c:v>4452.0</c:v>
+                </c:pt>
+                <c:pt idx="4452">
+                  <c:v>4453.0</c:v>
+                </c:pt>
+                <c:pt idx="4453">
+                  <c:v>4454.0</c:v>
+                </c:pt>
+                <c:pt idx="4454">
+                  <c:v>4455.0</c:v>
+                </c:pt>
+                <c:pt idx="4455">
+                  <c:v>4456.0</c:v>
+                </c:pt>
+                <c:pt idx="4456">
+                  <c:v>4457.0</c:v>
+                </c:pt>
+                <c:pt idx="4457">
+                  <c:v>4458.0</c:v>
+                </c:pt>
+                <c:pt idx="4458">
+                  <c:v>4459.0</c:v>
+                </c:pt>
+                <c:pt idx="4459">
+                  <c:v>4460.0</c:v>
+                </c:pt>
+                <c:pt idx="4460">
+                  <c:v>4461.0</c:v>
+                </c:pt>
+                <c:pt idx="4461">
+                  <c:v>4462.0</c:v>
+                </c:pt>
+                <c:pt idx="4462">
+                  <c:v>4463.0</c:v>
+                </c:pt>
+                <c:pt idx="4463">
+                  <c:v>4464.0</c:v>
+                </c:pt>
+                <c:pt idx="4464">
+                  <c:v>4465.0</c:v>
+                </c:pt>
+                <c:pt idx="4465">
+                  <c:v>4466.0</c:v>
+                </c:pt>
+                <c:pt idx="4466">
+                  <c:v>4467.0</c:v>
+                </c:pt>
+                <c:pt idx="4467">
+                  <c:v>4468.0</c:v>
+                </c:pt>
+                <c:pt idx="4468">
+                  <c:v>4469.0</c:v>
+                </c:pt>
+                <c:pt idx="4469">
+                  <c:v>4470.0</c:v>
+                </c:pt>
+                <c:pt idx="4470">
+                  <c:v>4471.0</c:v>
+                </c:pt>
+                <c:pt idx="4471">
+                  <c:v>4472.0</c:v>
+                </c:pt>
+                <c:pt idx="4472">
+                  <c:v>4473.0</c:v>
+                </c:pt>
+                <c:pt idx="4473">
+                  <c:v>4474.0</c:v>
+                </c:pt>
+                <c:pt idx="4474">
+                  <c:v>4475.0</c:v>
+                </c:pt>
+                <c:pt idx="4475">
+                  <c:v>4476.0</c:v>
+                </c:pt>
+                <c:pt idx="4476">
+                  <c:v>4477.0</c:v>
+                </c:pt>
+                <c:pt idx="4477">
+                  <c:v>4478.0</c:v>
+                </c:pt>
+                <c:pt idx="4478">
+                  <c:v>4479.0</c:v>
+                </c:pt>
+                <c:pt idx="4479">
+                  <c:v>4480.0</c:v>
+                </c:pt>
+                <c:pt idx="4480">
+                  <c:v>4481.0</c:v>
+                </c:pt>
+                <c:pt idx="4481">
+                  <c:v>4482.0</c:v>
+                </c:pt>
+                <c:pt idx="4482">
+                  <c:v>4483.0</c:v>
+                </c:pt>
+                <c:pt idx="4483">
+                  <c:v>4484.0</c:v>
+                </c:pt>
+                <c:pt idx="4484">
+                  <c:v>4485.0</c:v>
+                </c:pt>
+                <c:pt idx="4485">
+                  <c:v>4486.0</c:v>
+                </c:pt>
+                <c:pt idx="4486">
+                  <c:v>4487.0</c:v>
+                </c:pt>
+                <c:pt idx="4487">
+                  <c:v>4488.0</c:v>
+                </c:pt>
+                <c:pt idx="4488">
+                  <c:v>4489.0</c:v>
+                </c:pt>
+                <c:pt idx="4489">
+                  <c:v>4490.0</c:v>
+                </c:pt>
+                <c:pt idx="4490">
+                  <c:v>4491.0</c:v>
+                </c:pt>
+                <c:pt idx="4491">
+                  <c:v>4492.0</c:v>
+                </c:pt>
+                <c:pt idx="4492">
+                  <c:v>4493.0</c:v>
+                </c:pt>
+                <c:pt idx="4493">
+                  <c:v>4494.0</c:v>
+                </c:pt>
+                <c:pt idx="4494">
+                  <c:v>4495.0</c:v>
+                </c:pt>
+                <c:pt idx="4495">
+                  <c:v>4496.0</c:v>
+                </c:pt>
+                <c:pt idx="4496">
+                  <c:v>4497.0</c:v>
+                </c:pt>
+                <c:pt idx="4497">
+                  <c:v>4498.0</c:v>
+                </c:pt>
+                <c:pt idx="4498">
+                  <c:v>4499.0</c:v>
+                </c:pt>
+                <c:pt idx="4499">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="4500">
+                  <c:v>4501.0</c:v>
+                </c:pt>
+                <c:pt idx="4501">
+                  <c:v>4502.0</c:v>
+                </c:pt>
+                <c:pt idx="4502">
+                  <c:v>4503.0</c:v>
+                </c:pt>
+                <c:pt idx="4503">
+                  <c:v>4504.0</c:v>
+                </c:pt>
+                <c:pt idx="4504">
+                  <c:v>4505.0</c:v>
+                </c:pt>
+                <c:pt idx="4505">
+                  <c:v>4506.0</c:v>
+                </c:pt>
+                <c:pt idx="4506">
+                  <c:v>4507.0</c:v>
+                </c:pt>
+                <c:pt idx="4507">
+                  <c:v>4508.0</c:v>
+                </c:pt>
+                <c:pt idx="4508">
+                  <c:v>4509.0</c:v>
+                </c:pt>
+                <c:pt idx="4509">
+                  <c:v>4510.0</c:v>
+                </c:pt>
+                <c:pt idx="4510">
+                  <c:v>4511.0</c:v>
+                </c:pt>
+                <c:pt idx="4511">
+                  <c:v>4512.0</c:v>
+                </c:pt>
+                <c:pt idx="4512">
+                  <c:v>4513.0</c:v>
+                </c:pt>
+                <c:pt idx="4513">
+                  <c:v>4514.0</c:v>
+                </c:pt>
+                <c:pt idx="4514">
+                  <c:v>4515.0</c:v>
+                </c:pt>
+                <c:pt idx="4515">
+                  <c:v>4516.0</c:v>
+                </c:pt>
+                <c:pt idx="4516">
+                  <c:v>4517.0</c:v>
+                </c:pt>
+                <c:pt idx="4517">
+                  <c:v>4518.0</c:v>
+                </c:pt>
+                <c:pt idx="4518">
+                  <c:v>4519.0</c:v>
+                </c:pt>
+                <c:pt idx="4519">
+                  <c:v>4520.0</c:v>
+                </c:pt>
+                <c:pt idx="4520">
+                  <c:v>4521.0</c:v>
+                </c:pt>
+                <c:pt idx="4521">
+                  <c:v>4522.0</c:v>
+                </c:pt>
+                <c:pt idx="4522">
+                  <c:v>4523.0</c:v>
+                </c:pt>
+                <c:pt idx="4523">
+                  <c:v>4524.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26111,11 +27310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118566456"/>
-        <c:axId val="2118569496"/>
+        <c:axId val="2032232296"/>
+        <c:axId val="2032226696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2118566456"/>
+        <c:axId val="2032232296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41640.0"/>
@@ -26127,7 +27326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118569496"/>
+        <c:crossAx val="2032226696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -26138,7 +27337,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2118569496"/>
+        <c:axId val="2032226696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26149,7 +27348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118566456"/>
+        <c:crossAx val="2032232296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26639,6 +27838,9 @@
                 <c:pt idx="71">
                   <c:v>154.0</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>132.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26652,11 +27854,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118893736"/>
-        <c:axId val="2118896744"/>
+        <c:axId val="2106462648"/>
+        <c:axId val="2106465688"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="2118893736"/>
+        <c:axId val="2106462648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26666,14 +27868,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118896744"/>
+        <c:crossAx val="2106465688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2118896744"/>
+        <c:axId val="2106465688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26684,7 +27886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118893736"/>
+        <c:crossAx val="2106462648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26700,7 +27902,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26712,7 +27914,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26724,7 +27926,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8568151" cy="5828082"/>
+    <xdr:ext cx="8565745" cy="5818582"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" title="Data Packages in Dryad"/>
@@ -26751,7 +27953,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8568028" cy="5822324"/>
+    <xdr:ext cx="8565745" cy="5818582"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -27100,10 +28302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4374"/>
+  <dimension ref="A1:B4524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4331" workbookViewId="0">
-      <selection activeCell="D4374" sqref="D4374"/>
+    <sheetView topLeftCell="A4465" workbookViewId="0">
+      <selection activeCell="A4493" sqref="A4493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -62101,6 +63303,1206 @@
       </c>
       <c r="B4374">
         <v>4374</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2">
+      <c r="A4375" s="1">
+        <v>41612</v>
+      </c>
+      <c r="B4375">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2">
+      <c r="A4376" s="1">
+        <v>41612</v>
+      </c>
+      <c r="B4376">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2">
+      <c r="A4377" s="1">
+        <v>41612</v>
+      </c>
+      <c r="B4377">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2">
+      <c r="A4378" s="1">
+        <v>41612</v>
+      </c>
+      <c r="B4378">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2">
+      <c r="A4379" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4379">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2">
+      <c r="A4380" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4380">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2">
+      <c r="A4381" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4381">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2">
+      <c r="A4382" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4382">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2">
+      <c r="A4383" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4383">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2">
+      <c r="A4384" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4384">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2">
+      <c r="A4385" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4385">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2">
+      <c r="A4386" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4386">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2">
+      <c r="A4387" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4387">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2">
+      <c r="A4388" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4388">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2">
+      <c r="A4389" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4389">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2">
+      <c r="A4390" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4390">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2">
+      <c r="A4391" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4391">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2">
+      <c r="A4392" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4392">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2">
+      <c r="A4393" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B4393">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2">
+      <c r="A4394" s="1">
+        <v>41614</v>
+      </c>
+      <c r="B4394">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2">
+      <c r="A4395" s="1">
+        <v>41614</v>
+      </c>
+      <c r="B4395">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2">
+      <c r="A4396" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4396">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2">
+      <c r="A4397" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4397">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2">
+      <c r="A4398" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4398">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2">
+      <c r="A4399" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4399">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2">
+      <c r="A4400" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4400">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2">
+      <c r="A4401" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4401">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2">
+      <c r="A4402" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4402">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2">
+      <c r="A4403" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4403">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2">
+      <c r="A4404" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4404">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2">
+      <c r="A4405" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4405">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2">
+      <c r="A4406" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4406">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2">
+      <c r="A4407" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4407">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2">
+      <c r="A4408" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4408">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2">
+      <c r="A4409" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4409">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:2">
+      <c r="A4410" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4410">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:2">
+      <c r="A4411" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B4411">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:2">
+      <c r="A4412" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4412">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:2">
+      <c r="A4413" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4413">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2">
+      <c r="A4414" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4414">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2">
+      <c r="A4415" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4415">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2">
+      <c r="A4416" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4416">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2">
+      <c r="A4417" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4417">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2">
+      <c r="A4418" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4418">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2">
+      <c r="A4419" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4419">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2">
+      <c r="A4420" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4420">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2">
+      <c r="A4421" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4421">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2">
+      <c r="A4422" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4422">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2">
+      <c r="A4423" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4423">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2">
+      <c r="A4424" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4424">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2">
+      <c r="A4425" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4425">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2">
+      <c r="A4426" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4426">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2">
+      <c r="A4427" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4427">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2">
+      <c r="A4428" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4428">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2">
+      <c r="A4429" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4429">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2">
+      <c r="A4430" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4430">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2">
+      <c r="A4431" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4431">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2">
+      <c r="A4432" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4432">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2">
+      <c r="A4433" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B4433">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2">
+      <c r="A4434" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4434">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:2">
+      <c r="A4435" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4435">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:2">
+      <c r="A4436" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4436">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:2">
+      <c r="A4437" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4437">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:2">
+      <c r="A4438" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4438">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:2">
+      <c r="A4439" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4439">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:2">
+      <c r="A4440" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4440">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:2">
+      <c r="A4441" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B4441">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:2">
+      <c r="A4442" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B4442">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:2">
+      <c r="A4443" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B4443">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:2">
+      <c r="A4444" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B4444">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:2">
+      <c r="A4445" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B4445">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:2">
+      <c r="A4446" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B4446">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:2">
+      <c r="A4447" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4447">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:2">
+      <c r="A4448" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4448">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:2">
+      <c r="A4449" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4449">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:2">
+      <c r="A4450" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4450">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:2">
+      <c r="A4451" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4451">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:2">
+      <c r="A4452" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4452">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:2">
+      <c r="A4453" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4453">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:2">
+      <c r="A4454" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B4454">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:2">
+      <c r="A4455" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4455">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:2">
+      <c r="A4456" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4456">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:2">
+      <c r="A4457" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4457">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:2">
+      <c r="A4458" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4458">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:2">
+      <c r="A4459" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4459">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:2">
+      <c r="A4460" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4460">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:2">
+      <c r="A4461" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4461">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:2">
+      <c r="A4462" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4462">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:2">
+      <c r="A4463" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4463">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:2">
+      <c r="A4464" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4464">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:2">
+      <c r="A4465" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4465">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:2">
+      <c r="A4466" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B4466">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:2">
+      <c r="A4467" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B4467">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:2">
+      <c r="A4468" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B4468">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:2">
+      <c r="A4469" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B4469">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:2">
+      <c r="A4470" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B4470">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:2">
+      <c r="A4471" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B4471">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:2">
+      <c r="A4472" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B4472">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:2">
+      <c r="A4473" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B4473">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:2">
+      <c r="A4474" s="1">
+        <v>41627</v>
+      </c>
+      <c r="B4474">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:2">
+      <c r="A4475" s="1">
+        <v>41627</v>
+      </c>
+      <c r="B4475">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:2">
+      <c r="A4476" s="1">
+        <v>41627</v>
+      </c>
+      <c r="B4476">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:2">
+      <c r="A4477" s="1">
+        <v>41627</v>
+      </c>
+      <c r="B4477">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:2">
+      <c r="A4478" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B4478">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:2">
+      <c r="A4479" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B4479">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:2">
+      <c r="A4480" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B4480">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:2">
+      <c r="A4481" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B4481">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:2">
+      <c r="A4482" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B4482">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:2">
+      <c r="A4483" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B4483">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:2">
+      <c r="A4484" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B4484">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:2">
+      <c r="A4485" s="1">
+        <v>41631</v>
+      </c>
+      <c r="B4485">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:2">
+      <c r="A4486" s="1">
+        <v>41631</v>
+      </c>
+      <c r="B4486">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:2">
+      <c r="A4487" s="1">
+        <v>41631</v>
+      </c>
+      <c r="B4487">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:2">
+      <c r="A4488" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B4488">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:2">
+      <c r="A4489" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B4489">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:2">
+      <c r="A4490" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B4490">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:2">
+      <c r="A4491" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B4491">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:2">
+      <c r="A4492" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B4492">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:2">
+      <c r="A4493" s="1">
+        <v>41638</v>
+      </c>
+      <c r="B4493">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:2">
+      <c r="A4494" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B4494">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:2">
+      <c r="A4495" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4495">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:2">
+      <c r="A4496" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4496">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:2">
+      <c r="A4497" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4497">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:2">
+      <c r="A4498" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4498">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:2">
+      <c r="A4499" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4499">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:2">
+      <c r="A4500" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4500">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:2">
+      <c r="A4501" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4501">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:2">
+      <c r="A4502" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4502">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:2">
+      <c r="A4503" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4503">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:2">
+      <c r="A4504" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4504">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:2">
+      <c r="A4505" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4505">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:2">
+      <c r="A4506" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4506">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:2">
+      <c r="A4507" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B4507">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:2">
+      <c r="A4508" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B4508">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:2">
+      <c r="A4509" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B4509">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:2">
+      <c r="A4510" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B4510">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:2">
+      <c r="A4511" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B4511">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:2">
+      <c r="A4512" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4512">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:2">
+      <c r="A4513" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4513">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:2">
+      <c r="A4514" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4514">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:2">
+      <c r="A4515" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4515">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:2">
+      <c r="A4516" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4516">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:2">
+      <c r="A4517" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4517">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:2">
+      <c r="A4518" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4518">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:2">
+      <c r="A4519" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4519">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:2">
+      <c r="A4520" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4520">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:2">
+      <c r="A4521" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4521">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:2">
+      <c r="A4522" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4522">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:2">
+      <c r="A4523" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4523">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:2">
+      <c r="A4524" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4524">
+        <v>4524</v>
       </c>
     </row>
   </sheetData>
@@ -62120,7 +64522,7 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -62704,6 +65106,9 @@
     <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>41609</v>
+      </c>
+      <c r="B73">
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2">

--- a/dataPackages/dataPackagesInDryad.xlsx
+++ b/dataPackages/dataPackagesInDryad.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SubmissionDates" sheetId="2" r:id="rId1"/>
-    <sheet name="CumulativeChart" sheetId="3" r:id="rId2"/>
+    <sheet name="CumulativeChart" sheetId="6" r:id="rId2"/>
     <sheet name="SubmissionsPerMonth" sheetId="4" r:id="rId3"/>
     <sheet name="PerMonthChart" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="dryadSubmitDates" localSheetId="0">SubmissionDates!$A$1:$A$4247</definedName>
+    <definedName name="x" localSheetId="0">SubmissionDates!$A$4512:$A$4701</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,6 +29,13 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="dryadSubmitDates.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ryan:temp:dryadSubmitDates.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="x.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:ryan:lib:dryad-data:dataPackages:x.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -88,8 +96,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -97,9 +107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -138,10 +150,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SubmissionDates!$A$1:$A$4524</c:f>
+              <c:f>SubmissionDates!$A$1:$A$4701</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="4524"/>
+                <c:ptCount val="4701"/>
                 <c:pt idx="0">
                   <c:v>39422.0</c:v>
                 </c:pt>
@@ -13713,16 +13725,547 @@
                 </c:pt>
                 <c:pt idx="4523">
                   <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4524">
+                  <c:v>41645.0</c:v>
+                </c:pt>
+                <c:pt idx="4525">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4526">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4527">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4528">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4529">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4530">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4531">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4532">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4533">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4534">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4535">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4536">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4537">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4538">
+                  <c:v>41646.0</c:v>
+                </c:pt>
+                <c:pt idx="4539">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4540">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4541">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4542">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4543">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4544">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4545">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4546">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4547">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4548">
+                  <c:v>41647.0</c:v>
+                </c:pt>
+                <c:pt idx="4549">
+                  <c:v>41648.0</c:v>
+                </c:pt>
+                <c:pt idx="4550">
+                  <c:v>41648.0</c:v>
+                </c:pt>
+                <c:pt idx="4551">
+                  <c:v>41648.0</c:v>
+                </c:pt>
+                <c:pt idx="4552">
+                  <c:v>41648.0</c:v>
+                </c:pt>
+                <c:pt idx="4553">
+                  <c:v>41648.0</c:v>
+                </c:pt>
+                <c:pt idx="4554">
+                  <c:v>41648.0</c:v>
+                </c:pt>
+                <c:pt idx="4555">
+                  <c:v>41648.0</c:v>
+                </c:pt>
+                <c:pt idx="4556">
+                  <c:v>41649.0</c:v>
+                </c:pt>
+                <c:pt idx="4557">
+                  <c:v>41649.0</c:v>
+                </c:pt>
+                <c:pt idx="4558">
+                  <c:v>41649.0</c:v>
+                </c:pt>
+                <c:pt idx="4559">
+                  <c:v>41649.0</c:v>
+                </c:pt>
+                <c:pt idx="4560">
+                  <c:v>41649.0</c:v>
+                </c:pt>
+                <c:pt idx="4561">
+                  <c:v>41649.0</c:v>
+                </c:pt>
+                <c:pt idx="4562">
+                  <c:v>41649.0</c:v>
+                </c:pt>
+                <c:pt idx="4563">
+                  <c:v>41652.0</c:v>
+                </c:pt>
+                <c:pt idx="4564">
+                  <c:v>41652.0</c:v>
+                </c:pt>
+                <c:pt idx="4565">
+                  <c:v>41652.0</c:v>
+                </c:pt>
+                <c:pt idx="4566">
+                  <c:v>41652.0</c:v>
+                </c:pt>
+                <c:pt idx="4567">
+                  <c:v>41652.0</c:v>
+                </c:pt>
+                <c:pt idx="4568">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4569">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4570">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4571">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4572">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4573">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4574">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4575">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4576">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4577">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4578">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4579">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4580">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4581">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4582">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4583">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4584">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4585">
+                  <c:v>41653.0</c:v>
+                </c:pt>
+                <c:pt idx="4586">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4587">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4588">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4589">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4590">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4591">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4592">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4593">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4594">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4595">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4596">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4597">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4598">
+                  <c:v>41654.0</c:v>
+                </c:pt>
+                <c:pt idx="4599">
+                  <c:v>41655.0</c:v>
+                </c:pt>
+                <c:pt idx="4600">
+                  <c:v>41655.0</c:v>
+                </c:pt>
+                <c:pt idx="4601">
+                  <c:v>41655.0</c:v>
+                </c:pt>
+                <c:pt idx="4602">
+                  <c:v>41655.0</c:v>
+                </c:pt>
+                <c:pt idx="4603">
+                  <c:v>41656.0</c:v>
+                </c:pt>
+                <c:pt idx="4604">
+                  <c:v>41656.0</c:v>
+                </c:pt>
+                <c:pt idx="4605">
+                  <c:v>41656.0</c:v>
+                </c:pt>
+                <c:pt idx="4606">
+                  <c:v>41656.0</c:v>
+                </c:pt>
+                <c:pt idx="4607">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4608">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4609">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4610">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4611">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4612">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4613">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4614">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4615">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4616">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4617">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4618">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4619">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4620">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4621">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4622">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4623">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4624">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4625">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4626">
+                  <c:v>41660.0</c:v>
+                </c:pt>
+                <c:pt idx="4627">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4628">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4629">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4630">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4631">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4632">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4633">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4634">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4635">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4636">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4637">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4638">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4639">
+                  <c:v>41661.0</c:v>
+                </c:pt>
+                <c:pt idx="4640">
+                  <c:v>41662.0</c:v>
+                </c:pt>
+                <c:pt idx="4641">
+                  <c:v>41662.0</c:v>
+                </c:pt>
+                <c:pt idx="4642">
+                  <c:v>41662.0</c:v>
+                </c:pt>
+                <c:pt idx="4643">
+                  <c:v>41662.0</c:v>
+                </c:pt>
+                <c:pt idx="4644">
+                  <c:v>41662.0</c:v>
+                </c:pt>
+                <c:pt idx="4645">
+                  <c:v>41662.0</c:v>
+                </c:pt>
+                <c:pt idx="4646">
+                  <c:v>41663.0</c:v>
+                </c:pt>
+                <c:pt idx="4647">
+                  <c:v>41663.0</c:v>
+                </c:pt>
+                <c:pt idx="4648">
+                  <c:v>41663.0</c:v>
+                </c:pt>
+                <c:pt idx="4649">
+                  <c:v>41663.0</c:v>
+                </c:pt>
+                <c:pt idx="4650">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4651">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4652">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4653">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4654">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4655">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4656">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4657">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4658">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4659">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4660">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4661">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4662">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4663">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4664">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4665">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4666">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4667">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4668">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4669">
+                  <c:v>41666.0</c:v>
+                </c:pt>
+                <c:pt idx="4670">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4671">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4672">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4673">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4674">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4675">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4676">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4677">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4678">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4679">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4680">
+                  <c:v>41667.0</c:v>
+                </c:pt>
+                <c:pt idx="4681">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4682">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4683">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4684">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4685">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4686">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4687">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4688">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4689">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4690">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4691">
+                  <c:v>41668.0</c:v>
+                </c:pt>
+                <c:pt idx="4692">
+                  <c:v>41669.0</c:v>
+                </c:pt>
+                <c:pt idx="4693">
+                  <c:v>41669.0</c:v>
+                </c:pt>
+                <c:pt idx="4694">
+                  <c:v>41669.0</c:v>
+                </c:pt>
+                <c:pt idx="4695">
+                  <c:v>41669.0</c:v>
+                </c:pt>
+                <c:pt idx="4696">
+                  <c:v>41669.0</c:v>
+                </c:pt>
+                <c:pt idx="4697">
+                  <c:v>41670.0</c:v>
+                </c:pt>
+                <c:pt idx="4698">
+                  <c:v>41670.0</c:v>
+                </c:pt>
+                <c:pt idx="4699">
+                  <c:v>41670.0</c:v>
+                </c:pt>
+                <c:pt idx="4700">
+                  <c:v>41670.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SubmissionDates!$B$1:$B$4524</c:f>
+              <c:f>SubmissionDates!$B$1:$B$4701</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4524"/>
+                <c:ptCount val="4701"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -27294,6 +27837,537 @@
                 </c:pt>
                 <c:pt idx="4523">
                   <c:v>4524.0</c:v>
+                </c:pt>
+                <c:pt idx="4524">
+                  <c:v>4525.0</c:v>
+                </c:pt>
+                <c:pt idx="4525">
+                  <c:v>4526.0</c:v>
+                </c:pt>
+                <c:pt idx="4526">
+                  <c:v>4527.0</c:v>
+                </c:pt>
+                <c:pt idx="4527">
+                  <c:v>4528.0</c:v>
+                </c:pt>
+                <c:pt idx="4528">
+                  <c:v>4529.0</c:v>
+                </c:pt>
+                <c:pt idx="4529">
+                  <c:v>4530.0</c:v>
+                </c:pt>
+                <c:pt idx="4530">
+                  <c:v>4531.0</c:v>
+                </c:pt>
+                <c:pt idx="4531">
+                  <c:v>4532.0</c:v>
+                </c:pt>
+                <c:pt idx="4532">
+                  <c:v>4533.0</c:v>
+                </c:pt>
+                <c:pt idx="4533">
+                  <c:v>4534.0</c:v>
+                </c:pt>
+                <c:pt idx="4534">
+                  <c:v>4535.0</c:v>
+                </c:pt>
+                <c:pt idx="4535">
+                  <c:v>4536.0</c:v>
+                </c:pt>
+                <c:pt idx="4536">
+                  <c:v>4537.0</c:v>
+                </c:pt>
+                <c:pt idx="4537">
+                  <c:v>4538.0</c:v>
+                </c:pt>
+                <c:pt idx="4538">
+                  <c:v>4539.0</c:v>
+                </c:pt>
+                <c:pt idx="4539">
+                  <c:v>4540.0</c:v>
+                </c:pt>
+                <c:pt idx="4540">
+                  <c:v>4541.0</c:v>
+                </c:pt>
+                <c:pt idx="4541">
+                  <c:v>4542.0</c:v>
+                </c:pt>
+                <c:pt idx="4542">
+                  <c:v>4543.0</c:v>
+                </c:pt>
+                <c:pt idx="4543">
+                  <c:v>4544.0</c:v>
+                </c:pt>
+                <c:pt idx="4544">
+                  <c:v>4545.0</c:v>
+                </c:pt>
+                <c:pt idx="4545">
+                  <c:v>4546.0</c:v>
+                </c:pt>
+                <c:pt idx="4546">
+                  <c:v>4547.0</c:v>
+                </c:pt>
+                <c:pt idx="4547">
+                  <c:v>4548.0</c:v>
+                </c:pt>
+                <c:pt idx="4548">
+                  <c:v>4549.0</c:v>
+                </c:pt>
+                <c:pt idx="4549">
+                  <c:v>4550.0</c:v>
+                </c:pt>
+                <c:pt idx="4550">
+                  <c:v>4551.0</c:v>
+                </c:pt>
+                <c:pt idx="4551">
+                  <c:v>4552.0</c:v>
+                </c:pt>
+                <c:pt idx="4552">
+                  <c:v>4553.0</c:v>
+                </c:pt>
+                <c:pt idx="4553">
+                  <c:v>4554.0</c:v>
+                </c:pt>
+                <c:pt idx="4554">
+                  <c:v>4555.0</c:v>
+                </c:pt>
+                <c:pt idx="4555">
+                  <c:v>4556.0</c:v>
+                </c:pt>
+                <c:pt idx="4556">
+                  <c:v>4557.0</c:v>
+                </c:pt>
+                <c:pt idx="4557">
+                  <c:v>4558.0</c:v>
+                </c:pt>
+                <c:pt idx="4558">
+                  <c:v>4559.0</c:v>
+                </c:pt>
+                <c:pt idx="4559">
+                  <c:v>4560.0</c:v>
+                </c:pt>
+                <c:pt idx="4560">
+                  <c:v>4561.0</c:v>
+                </c:pt>
+                <c:pt idx="4561">
+                  <c:v>4562.0</c:v>
+                </c:pt>
+                <c:pt idx="4562">
+                  <c:v>4563.0</c:v>
+                </c:pt>
+                <c:pt idx="4563">
+                  <c:v>4564.0</c:v>
+                </c:pt>
+                <c:pt idx="4564">
+                  <c:v>4565.0</c:v>
+                </c:pt>
+                <c:pt idx="4565">
+                  <c:v>4566.0</c:v>
+                </c:pt>
+                <c:pt idx="4566">
+                  <c:v>4567.0</c:v>
+                </c:pt>
+                <c:pt idx="4567">
+                  <c:v>4568.0</c:v>
+                </c:pt>
+                <c:pt idx="4568">
+                  <c:v>4569.0</c:v>
+                </c:pt>
+                <c:pt idx="4569">
+                  <c:v>4570.0</c:v>
+                </c:pt>
+                <c:pt idx="4570">
+                  <c:v>4571.0</c:v>
+                </c:pt>
+                <c:pt idx="4571">
+                  <c:v>4572.0</c:v>
+                </c:pt>
+                <c:pt idx="4572">
+                  <c:v>4573.0</c:v>
+                </c:pt>
+                <c:pt idx="4573">
+                  <c:v>4574.0</c:v>
+                </c:pt>
+                <c:pt idx="4574">
+                  <c:v>4575.0</c:v>
+                </c:pt>
+                <c:pt idx="4575">
+                  <c:v>4576.0</c:v>
+                </c:pt>
+                <c:pt idx="4576">
+                  <c:v>4577.0</c:v>
+                </c:pt>
+                <c:pt idx="4577">
+                  <c:v>4578.0</c:v>
+                </c:pt>
+                <c:pt idx="4578">
+                  <c:v>4579.0</c:v>
+                </c:pt>
+                <c:pt idx="4579">
+                  <c:v>4580.0</c:v>
+                </c:pt>
+                <c:pt idx="4580">
+                  <c:v>4581.0</c:v>
+                </c:pt>
+                <c:pt idx="4581">
+                  <c:v>4582.0</c:v>
+                </c:pt>
+                <c:pt idx="4582">
+                  <c:v>4583.0</c:v>
+                </c:pt>
+                <c:pt idx="4583">
+                  <c:v>4584.0</c:v>
+                </c:pt>
+                <c:pt idx="4584">
+                  <c:v>4585.0</c:v>
+                </c:pt>
+                <c:pt idx="4585">
+                  <c:v>4586.0</c:v>
+                </c:pt>
+                <c:pt idx="4586">
+                  <c:v>4587.0</c:v>
+                </c:pt>
+                <c:pt idx="4587">
+                  <c:v>4588.0</c:v>
+                </c:pt>
+                <c:pt idx="4588">
+                  <c:v>4589.0</c:v>
+                </c:pt>
+                <c:pt idx="4589">
+                  <c:v>4590.0</c:v>
+                </c:pt>
+                <c:pt idx="4590">
+                  <c:v>4591.0</c:v>
+                </c:pt>
+                <c:pt idx="4591">
+                  <c:v>4592.0</c:v>
+                </c:pt>
+                <c:pt idx="4592">
+                  <c:v>4593.0</c:v>
+                </c:pt>
+                <c:pt idx="4593">
+                  <c:v>4594.0</c:v>
+                </c:pt>
+                <c:pt idx="4594">
+                  <c:v>4595.0</c:v>
+                </c:pt>
+                <c:pt idx="4595">
+                  <c:v>4596.0</c:v>
+                </c:pt>
+                <c:pt idx="4596">
+                  <c:v>4597.0</c:v>
+                </c:pt>
+                <c:pt idx="4597">
+                  <c:v>4598.0</c:v>
+                </c:pt>
+                <c:pt idx="4598">
+                  <c:v>4599.0</c:v>
+                </c:pt>
+                <c:pt idx="4599">
+                  <c:v>4600.0</c:v>
+                </c:pt>
+                <c:pt idx="4600">
+                  <c:v>4601.0</c:v>
+                </c:pt>
+                <c:pt idx="4601">
+                  <c:v>4602.0</c:v>
+                </c:pt>
+                <c:pt idx="4602">
+                  <c:v>4603.0</c:v>
+                </c:pt>
+                <c:pt idx="4603">
+                  <c:v>4604.0</c:v>
+                </c:pt>
+                <c:pt idx="4604">
+                  <c:v>4605.0</c:v>
+                </c:pt>
+                <c:pt idx="4605">
+                  <c:v>4606.0</c:v>
+                </c:pt>
+                <c:pt idx="4606">
+                  <c:v>4607.0</c:v>
+                </c:pt>
+                <c:pt idx="4607">
+                  <c:v>4608.0</c:v>
+                </c:pt>
+                <c:pt idx="4608">
+                  <c:v>4609.0</c:v>
+                </c:pt>
+                <c:pt idx="4609">
+                  <c:v>4610.0</c:v>
+                </c:pt>
+                <c:pt idx="4610">
+                  <c:v>4611.0</c:v>
+                </c:pt>
+                <c:pt idx="4611">
+                  <c:v>4612.0</c:v>
+                </c:pt>
+                <c:pt idx="4612">
+                  <c:v>4613.0</c:v>
+                </c:pt>
+                <c:pt idx="4613">
+                  <c:v>4614.0</c:v>
+                </c:pt>
+                <c:pt idx="4614">
+                  <c:v>4615.0</c:v>
+                </c:pt>
+                <c:pt idx="4615">
+                  <c:v>4616.0</c:v>
+                </c:pt>
+                <c:pt idx="4616">
+                  <c:v>4617.0</c:v>
+                </c:pt>
+                <c:pt idx="4617">
+                  <c:v>4618.0</c:v>
+                </c:pt>
+                <c:pt idx="4618">
+                  <c:v>4619.0</c:v>
+                </c:pt>
+                <c:pt idx="4619">
+                  <c:v>4620.0</c:v>
+                </c:pt>
+                <c:pt idx="4620">
+                  <c:v>4621.0</c:v>
+                </c:pt>
+                <c:pt idx="4621">
+                  <c:v>4622.0</c:v>
+                </c:pt>
+                <c:pt idx="4622">
+                  <c:v>4623.0</c:v>
+                </c:pt>
+                <c:pt idx="4623">
+                  <c:v>4624.0</c:v>
+                </c:pt>
+                <c:pt idx="4624">
+                  <c:v>4625.0</c:v>
+                </c:pt>
+                <c:pt idx="4625">
+                  <c:v>4626.0</c:v>
+                </c:pt>
+                <c:pt idx="4626">
+                  <c:v>4627.0</c:v>
+                </c:pt>
+                <c:pt idx="4627">
+                  <c:v>4628.0</c:v>
+                </c:pt>
+                <c:pt idx="4628">
+                  <c:v>4629.0</c:v>
+                </c:pt>
+                <c:pt idx="4629">
+                  <c:v>4630.0</c:v>
+                </c:pt>
+                <c:pt idx="4630">
+                  <c:v>4631.0</c:v>
+                </c:pt>
+                <c:pt idx="4631">
+                  <c:v>4632.0</c:v>
+                </c:pt>
+                <c:pt idx="4632">
+                  <c:v>4633.0</c:v>
+                </c:pt>
+                <c:pt idx="4633">
+                  <c:v>4634.0</c:v>
+                </c:pt>
+                <c:pt idx="4634">
+                  <c:v>4635.0</c:v>
+                </c:pt>
+                <c:pt idx="4635">
+                  <c:v>4636.0</c:v>
+                </c:pt>
+                <c:pt idx="4636">
+                  <c:v>4637.0</c:v>
+                </c:pt>
+                <c:pt idx="4637">
+                  <c:v>4638.0</c:v>
+                </c:pt>
+                <c:pt idx="4638">
+                  <c:v>4639.0</c:v>
+                </c:pt>
+                <c:pt idx="4639">
+                  <c:v>4640.0</c:v>
+                </c:pt>
+                <c:pt idx="4640">
+                  <c:v>4641.0</c:v>
+                </c:pt>
+                <c:pt idx="4641">
+                  <c:v>4642.0</c:v>
+                </c:pt>
+                <c:pt idx="4642">
+                  <c:v>4643.0</c:v>
+                </c:pt>
+                <c:pt idx="4643">
+                  <c:v>4644.0</c:v>
+                </c:pt>
+                <c:pt idx="4644">
+                  <c:v>4645.0</c:v>
+                </c:pt>
+                <c:pt idx="4645">
+                  <c:v>4646.0</c:v>
+                </c:pt>
+                <c:pt idx="4646">
+                  <c:v>4647.0</c:v>
+                </c:pt>
+                <c:pt idx="4647">
+                  <c:v>4648.0</c:v>
+                </c:pt>
+                <c:pt idx="4648">
+                  <c:v>4649.0</c:v>
+                </c:pt>
+                <c:pt idx="4649">
+                  <c:v>4650.0</c:v>
+                </c:pt>
+                <c:pt idx="4650">
+                  <c:v>4651.0</c:v>
+                </c:pt>
+                <c:pt idx="4651">
+                  <c:v>4652.0</c:v>
+                </c:pt>
+                <c:pt idx="4652">
+                  <c:v>4653.0</c:v>
+                </c:pt>
+                <c:pt idx="4653">
+                  <c:v>4654.0</c:v>
+                </c:pt>
+                <c:pt idx="4654">
+                  <c:v>4655.0</c:v>
+                </c:pt>
+                <c:pt idx="4655">
+                  <c:v>4656.0</c:v>
+                </c:pt>
+                <c:pt idx="4656">
+                  <c:v>4657.0</c:v>
+                </c:pt>
+                <c:pt idx="4657">
+                  <c:v>4658.0</c:v>
+                </c:pt>
+                <c:pt idx="4658">
+                  <c:v>4659.0</c:v>
+                </c:pt>
+                <c:pt idx="4659">
+                  <c:v>4660.0</c:v>
+                </c:pt>
+                <c:pt idx="4660">
+                  <c:v>4661.0</c:v>
+                </c:pt>
+                <c:pt idx="4661">
+                  <c:v>4662.0</c:v>
+                </c:pt>
+                <c:pt idx="4662">
+                  <c:v>4663.0</c:v>
+                </c:pt>
+                <c:pt idx="4663">
+                  <c:v>4664.0</c:v>
+                </c:pt>
+                <c:pt idx="4664">
+                  <c:v>4665.0</c:v>
+                </c:pt>
+                <c:pt idx="4665">
+                  <c:v>4666.0</c:v>
+                </c:pt>
+                <c:pt idx="4666">
+                  <c:v>4667.0</c:v>
+                </c:pt>
+                <c:pt idx="4667">
+                  <c:v>4668.0</c:v>
+                </c:pt>
+                <c:pt idx="4668">
+                  <c:v>4669.0</c:v>
+                </c:pt>
+                <c:pt idx="4669">
+                  <c:v>4670.0</c:v>
+                </c:pt>
+                <c:pt idx="4670">
+                  <c:v>4671.0</c:v>
+                </c:pt>
+                <c:pt idx="4671">
+                  <c:v>4672.0</c:v>
+                </c:pt>
+                <c:pt idx="4672">
+                  <c:v>4673.0</c:v>
+                </c:pt>
+                <c:pt idx="4673">
+                  <c:v>4674.0</c:v>
+                </c:pt>
+                <c:pt idx="4674">
+                  <c:v>4675.0</c:v>
+                </c:pt>
+                <c:pt idx="4675">
+                  <c:v>4676.0</c:v>
+                </c:pt>
+                <c:pt idx="4676">
+                  <c:v>4677.0</c:v>
+                </c:pt>
+                <c:pt idx="4677">
+                  <c:v>4678.0</c:v>
+                </c:pt>
+                <c:pt idx="4678">
+                  <c:v>4679.0</c:v>
+                </c:pt>
+                <c:pt idx="4679">
+                  <c:v>4680.0</c:v>
+                </c:pt>
+                <c:pt idx="4680">
+                  <c:v>4681.0</c:v>
+                </c:pt>
+                <c:pt idx="4681">
+                  <c:v>4682.0</c:v>
+                </c:pt>
+                <c:pt idx="4682">
+                  <c:v>4683.0</c:v>
+                </c:pt>
+                <c:pt idx="4683">
+                  <c:v>4684.0</c:v>
+                </c:pt>
+                <c:pt idx="4684">
+                  <c:v>4685.0</c:v>
+                </c:pt>
+                <c:pt idx="4685">
+                  <c:v>4686.0</c:v>
+                </c:pt>
+                <c:pt idx="4686">
+                  <c:v>4687.0</c:v>
+                </c:pt>
+                <c:pt idx="4687">
+                  <c:v>4688.0</c:v>
+                </c:pt>
+                <c:pt idx="4688">
+                  <c:v>4689.0</c:v>
+                </c:pt>
+                <c:pt idx="4689">
+                  <c:v>4690.0</c:v>
+                </c:pt>
+                <c:pt idx="4690">
+                  <c:v>4691.0</c:v>
+                </c:pt>
+                <c:pt idx="4691">
+                  <c:v>4692.0</c:v>
+                </c:pt>
+                <c:pt idx="4692">
+                  <c:v>4693.0</c:v>
+                </c:pt>
+                <c:pt idx="4693">
+                  <c:v>4694.0</c:v>
+                </c:pt>
+                <c:pt idx="4694">
+                  <c:v>4695.0</c:v>
+                </c:pt>
+                <c:pt idx="4695">
+                  <c:v>4696.0</c:v>
+                </c:pt>
+                <c:pt idx="4696">
+                  <c:v>4697.0</c:v>
+                </c:pt>
+                <c:pt idx="4697">
+                  <c:v>4698.0</c:v>
+                </c:pt>
+                <c:pt idx="4698">
+                  <c:v>4699.0</c:v>
+                </c:pt>
+                <c:pt idx="4699">
+                  <c:v>4700.0</c:v>
+                </c:pt>
+                <c:pt idx="4700">
+                  <c:v>4701.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27310,34 +28384,33 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2032232296"/>
-        <c:axId val="2032226696"/>
+        <c:axId val="-2108100600"/>
+        <c:axId val="-2108097592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2032232296"/>
+        <c:axId val="-2108100600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="41640.0"/>
-          <c:min val="39083.0"/>
+          <c:min val="39417.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]mmmm\-yy;@" sourceLinked="0"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2032226696"/>
+        <c:crossAx val="-2108097592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="6.0"/>
+        <c:majorUnit val="2.0"/>
         <c:majorTimeUnit val="months"/>
         <c:minorUnit val="1.0"/>
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2032226696"/>
+        <c:axId val="-2108097592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27348,7 +28421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2032232296"/>
+        <c:crossAx val="-2108100600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27841,6 +28914,9 @@
                 <c:pt idx="72">
                   <c:v>132.0</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>208.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -27854,11 +28930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2106462648"/>
-        <c:axId val="2106465688"/>
+        <c:axId val="2122162024"/>
+        <c:axId val="2122165064"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="2106462648"/>
+        <c:axId val="2122162024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27868,14 +28944,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106465688"/>
+        <c:crossAx val="2122165064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2106465688"/>
+        <c:axId val="2122165064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27886,7 +28962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106462648"/>
+        <c:crossAx val="2122162024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27902,10 +28978,9 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -27914,7 +28989,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27926,10 +29001,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8565745" cy="5818582"/>
+    <xdr:ext cx="8574887" cy="5834361"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Data Packages in Dryad"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -27953,7 +29028,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8565745" cy="5818582"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -27977,6 +29052,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="x" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dryadSubmitDates" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -28302,10 +29381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4524"/>
+  <dimension ref="A1:B4701"/>
   <sheetViews>
-    <sheetView topLeftCell="A4465" workbookViewId="0">
-      <selection activeCell="A4493" sqref="A4493"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -64503,6 +65582,1422 @@
       </c>
       <c r="B4524">
         <v>4524</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:2">
+      <c r="A4525" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B4525">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:2">
+      <c r="A4526" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4526">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:2">
+      <c r="A4527" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4527">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:2">
+      <c r="A4528" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4528">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:2">
+      <c r="A4529" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4529">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:2">
+      <c r="A4530" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4530">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:2">
+      <c r="A4531" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4531">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:2">
+      <c r="A4532" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4532">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:2">
+      <c r="A4533" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4533">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:2">
+      <c r="A4534" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4534">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:2">
+      <c r="A4535" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4535">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:2">
+      <c r="A4536" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4536">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:2">
+      <c r="A4537" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4537">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:2">
+      <c r="A4538" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4538">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:2">
+      <c r="A4539" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B4539">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:2">
+      <c r="A4540" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4540">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:2">
+      <c r="A4541" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4541">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:2">
+      <c r="A4542" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4542">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:2">
+      <c r="A4543" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4543">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:2">
+      <c r="A4544" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4544">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:2">
+      <c r="A4545" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4545">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:2">
+      <c r="A4546" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4546">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:2">
+      <c r="A4547" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4547">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:2">
+      <c r="A4548" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4548">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:2">
+      <c r="A4549" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B4549">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:2">
+      <c r="A4550" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B4550">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:2">
+      <c r="A4551" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B4551">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:2">
+      <c r="A4552" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B4552">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:2">
+      <c r="A4553" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B4553">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:2">
+      <c r="A4554" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B4554">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:2">
+      <c r="A4555" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B4555">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:2">
+      <c r="A4556" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B4556">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:2">
+      <c r="A4557" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4557">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:2">
+      <c r="A4558" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4558">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:2">
+      <c r="A4559" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4559">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:2">
+      <c r="A4560" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4560">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:2">
+      <c r="A4561" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4561">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:2">
+      <c r="A4562" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4562">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="4563" spans="1:2">
+      <c r="A4563" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4563">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="4564" spans="1:2">
+      <c r="A4564" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B4564">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:2">
+      <c r="A4565" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B4565">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:2">
+      <c r="A4566" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B4566">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:2">
+      <c r="A4567" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B4567">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:2">
+      <c r="A4568" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B4568">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:2">
+      <c r="A4569" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4569">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:2">
+      <c r="A4570" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4570">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:2">
+      <c r="A4571" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4571">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:2">
+      <c r="A4572" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4572">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:2">
+      <c r="A4573" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4573">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:2">
+      <c r="A4574" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4574">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:2">
+      <c r="A4575" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4575">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:2">
+      <c r="A4576" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4576">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:2">
+      <c r="A4577" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4577">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:2">
+      <c r="A4578" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4578">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:2">
+      <c r="A4579" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4579">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:2">
+      <c r="A4580" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4580">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:2">
+      <c r="A4581" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4581">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:2">
+      <c r="A4582" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4582">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:2">
+      <c r="A4583" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4583">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:2">
+      <c r="A4584" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4584">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:2">
+      <c r="A4585" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4585">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:2">
+      <c r="A4586" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B4586">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="4587" spans="1:2">
+      <c r="A4587" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4587">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="4588" spans="1:2">
+      <c r="A4588" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4588">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:2">
+      <c r="A4589" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4589">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:2">
+      <c r="A4590" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4590">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:2">
+      <c r="A4591" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4591">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:2">
+      <c r="A4592" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4592">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:2">
+      <c r="A4593" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4593">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:2">
+      <c r="A4594" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4594">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:2">
+      <c r="A4595" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4595">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:2">
+      <c r="A4596" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4596">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:2">
+      <c r="A4597" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4597">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:2">
+      <c r="A4598" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4598">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:2">
+      <c r="A4599" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B4599">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:2">
+      <c r="A4600" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B4600">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:2">
+      <c r="A4601" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B4601">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:2">
+      <c r="A4602" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B4602">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:2">
+      <c r="A4603" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B4603">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:2">
+      <c r="A4604" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B4604">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:2">
+      <c r="A4605" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B4605">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:2">
+      <c r="A4606" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B4606">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:2">
+      <c r="A4607" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B4607">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:2">
+      <c r="A4608" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4608">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:2">
+      <c r="A4609" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4609">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:2">
+      <c r="A4610" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4610">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:2">
+      <c r="A4611" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4611">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:2">
+      <c r="A4612" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4612">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:2">
+      <c r="A4613" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4613">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:2">
+      <c r="A4614" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4614">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:2">
+      <c r="A4615" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4615">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:2">
+      <c r="A4616" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4616">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:2">
+      <c r="A4617" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4617">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="4618" spans="1:2">
+      <c r="A4618" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4618">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="4619" spans="1:2">
+      <c r="A4619" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4619">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="4620" spans="1:2">
+      <c r="A4620" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4620">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:2">
+      <c r="A4621" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4621">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="4622" spans="1:2">
+      <c r="A4622" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4622">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="4623" spans="1:2">
+      <c r="A4623" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4623">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4624" spans="1:2">
+      <c r="A4624" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4624">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="4625" spans="1:2">
+      <c r="A4625" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4625">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="4626" spans="1:2">
+      <c r="A4626" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4626">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:2">
+      <c r="A4627" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B4627">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:2">
+      <c r="A4628" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4628">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:2">
+      <c r="A4629" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4629">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:2">
+      <c r="A4630" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4630">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:2">
+      <c r="A4631" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4631">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="4632" spans="1:2">
+      <c r="A4632" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4632">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="4633" spans="1:2">
+      <c r="A4633" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4633">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="4634" spans="1:2">
+      <c r="A4634" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4634">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="4635" spans="1:2">
+      <c r="A4635" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4635">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:2">
+      <c r="A4636" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4636">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:2">
+      <c r="A4637" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4637">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:2">
+      <c r="A4638" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4638">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:2">
+      <c r="A4639" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4639">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:2">
+      <c r="A4640" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B4640">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:2">
+      <c r="A4641" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B4641">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:2">
+      <c r="A4642" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B4642">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:2">
+      <c r="A4643" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B4643">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:2">
+      <c r="A4644" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B4644">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:2">
+      <c r="A4645" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B4645">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:2">
+      <c r="A4646" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B4646">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="4647" spans="1:2">
+      <c r="A4647" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B4647">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="4648" spans="1:2">
+      <c r="A4648" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B4648">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="4649" spans="1:2">
+      <c r="A4649" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B4649">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="4650" spans="1:2">
+      <c r="A4650" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B4650">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4651" spans="1:2">
+      <c r="A4651" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4651">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="4652" spans="1:2">
+      <c r="A4652" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4652">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="4653" spans="1:2">
+      <c r="A4653" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4653">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="4654" spans="1:2">
+      <c r="A4654" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4654">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4655" spans="1:2">
+      <c r="A4655" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4655">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="4656" spans="1:2">
+      <c r="A4656" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4656">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="4657" spans="1:2">
+      <c r="A4657" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4657">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="4658" spans="1:2">
+      <c r="A4658" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4658">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="4659" spans="1:2">
+      <c r="A4659" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4659">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="4660" spans="1:2">
+      <c r="A4660" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4660">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="4661" spans="1:2">
+      <c r="A4661" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4661">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="4662" spans="1:2">
+      <c r="A4662" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4662">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="4663" spans="1:2">
+      <c r="A4663" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4663">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="4664" spans="1:2">
+      <c r="A4664" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4664">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="4665" spans="1:2">
+      <c r="A4665" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4665">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4666" spans="1:2">
+      <c r="A4666" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4666">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="4667" spans="1:2">
+      <c r="A4667" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4667">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="4668" spans="1:2">
+      <c r="A4668" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4668">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="4669" spans="1:2">
+      <c r="A4669" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4669">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="4670" spans="1:2">
+      <c r="A4670" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B4670">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="4671" spans="1:2">
+      <c r="A4671" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4671">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="4672" spans="1:2">
+      <c r="A4672" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4672">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="4673" spans="1:2">
+      <c r="A4673" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4673">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="4674" spans="1:2">
+      <c r="A4674" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4674">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="4675" spans="1:2">
+      <c r="A4675" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4675">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="4676" spans="1:2">
+      <c r="A4676" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4676">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="4677" spans="1:2">
+      <c r="A4677" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4677">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="4678" spans="1:2">
+      <c r="A4678" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4678">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="4679" spans="1:2">
+      <c r="A4679" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4679">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="4680" spans="1:2">
+      <c r="A4680" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4680">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="4681" spans="1:2">
+      <c r="A4681" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B4681">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="4682" spans="1:2">
+      <c r="A4682" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4682">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="4683" spans="1:2">
+      <c r="A4683" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4683">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="4684" spans="1:2">
+      <c r="A4684" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4684">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="4685" spans="1:2">
+      <c r="A4685" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4685">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="4686" spans="1:2">
+      <c r="A4686" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4686">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="4687" spans="1:2">
+      <c r="A4687" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4687">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="4688" spans="1:2">
+      <c r="A4688" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4688">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="4689" spans="1:2">
+      <c r="A4689" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4689">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="4690" spans="1:2">
+      <c r="A4690" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4690">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="4691" spans="1:2">
+      <c r="A4691" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4691">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="4692" spans="1:2">
+      <c r="A4692" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B4692">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="4693" spans="1:2">
+      <c r="A4693" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B4693">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="4694" spans="1:2">
+      <c r="A4694" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B4694">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="4695" spans="1:2">
+      <c r="A4695" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B4695">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="4696" spans="1:2">
+      <c r="A4696" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B4696">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="4697" spans="1:2">
+      <c r="A4697" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B4697">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="4698" spans="1:2">
+      <c r="A4698" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B4698">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="4699" spans="1:2">
+      <c r="A4699" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B4699">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="4700" spans="1:2">
+      <c r="A4700" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B4700">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="4701" spans="1:2">
+      <c r="A4701" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B4701">
+        <v>4701</v>
       </c>
     </row>
   </sheetData>
@@ -64521,9 +67016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -65114,6 +67607,9 @@
     <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>41640</v>
+      </c>
+      <c r="B74">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/dataPackages/dataPackagesInDryad.xlsx
+++ b/dataPackages/dataPackagesInDryad.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SubmissionDates" sheetId="2" r:id="rId1"/>
-    <sheet name="CumulativeChart" sheetId="6" r:id="rId2"/>
+    <sheet name="CumulativeChart" sheetId="7" r:id="rId2"/>
     <sheet name="SubmissionsPerMonth" sheetId="4" r:id="rId3"/>
     <sheet name="PerMonthChart" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="dryadSubmitDates" localSheetId="0">SubmissionDates!$A$1:$A$4247</definedName>
-    <definedName name="x" localSheetId="0">SubmissionDates!$A$4512:$A$4701</definedName>
+    <definedName name="dryadSubmitDates" localSheetId="0">SubmissionDates!#REF!</definedName>
+    <definedName name="dryadSubmitDates_1" localSheetId="0">SubmissionDates!$A$1:$A$5075</definedName>
+    <definedName name="x" localSheetId="0">SubmissionDates!$A$5340:$A$5529</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="x.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="dryadSubmitDates.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:ryan:lib:dryad-data:dataPackages:dryadSubmitDates.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="x.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ryan:lib:dryad-data:dataPackages:x.txt">
       <textFields>
         <textField/>
@@ -47,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -55,6 +63,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,7 +118,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -154,10 +163,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SubmissionDates!$A$1:$A$4894</c:f>
+              <c:f>SubmissionDates!$A$1:$A$5075</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="4894"/>
+                <c:ptCount val="5075"/>
                 <c:pt idx="0">
                   <c:v>39422.0</c:v>
                 </c:pt>
@@ -13164,7 +13173,7 @@
                   <c:v>41599.0</c:v>
                 </c:pt>
                 <c:pt idx="4335">
-                  <c:v>41599.0</c:v>
+                  <c:v>41603.0</c:v>
                 </c:pt>
                 <c:pt idx="4336">
                   <c:v>41603.0</c:v>
@@ -13179,7 +13188,7 @@
                   <c:v>41603.0</c:v>
                 </c:pt>
                 <c:pt idx="4340">
-                  <c:v>41603.0</c:v>
+                  <c:v>41604.0</c:v>
                 </c:pt>
                 <c:pt idx="4341">
                   <c:v>41604.0</c:v>
@@ -13197,7 +13206,7 @@
                   <c:v>41604.0</c:v>
                 </c:pt>
                 <c:pt idx="4346">
-                  <c:v>41604.0</c:v>
+                  <c:v>41605.0</c:v>
                 </c:pt>
                 <c:pt idx="4347">
                   <c:v>41605.0</c:v>
@@ -13221,7 +13230,7 @@
                   <c:v>41605.0</c:v>
                 </c:pt>
                 <c:pt idx="4354">
-                  <c:v>41605.0</c:v>
+                  <c:v>41607.0</c:v>
                 </c:pt>
                 <c:pt idx="4355">
                   <c:v>41607.0</c:v>
@@ -13230,7 +13239,7 @@
                   <c:v>41607.0</c:v>
                 </c:pt>
                 <c:pt idx="4357">
-                  <c:v>41607.0</c:v>
+                  <c:v>41610.0</c:v>
                 </c:pt>
                 <c:pt idx="4358">
                   <c:v>41610.0</c:v>
@@ -13242,7 +13251,7 @@
                   <c:v>41610.0</c:v>
                 </c:pt>
                 <c:pt idx="4361">
-                  <c:v>41610.0</c:v>
+                  <c:v>41611.0</c:v>
                 </c:pt>
                 <c:pt idx="4362">
                   <c:v>41611.0</c:v>
@@ -13269,7 +13278,7 @@
                   <c:v>41611.0</c:v>
                 </c:pt>
                 <c:pt idx="4370">
-                  <c:v>41611.0</c:v>
+                  <c:v>41612.0</c:v>
                 </c:pt>
                 <c:pt idx="4371">
                   <c:v>41612.0</c:v>
@@ -13281,7 +13290,7 @@
                   <c:v>41612.0</c:v>
                 </c:pt>
                 <c:pt idx="4374">
-                  <c:v>41612.0</c:v>
+                  <c:v>41613.0</c:v>
                 </c:pt>
                 <c:pt idx="4375">
                   <c:v>41613.0</c:v>
@@ -13326,13 +13335,13 @@
                   <c:v>41613.0</c:v>
                 </c:pt>
                 <c:pt idx="4389">
-                  <c:v>41613.0</c:v>
+                  <c:v>41614.0</c:v>
                 </c:pt>
                 <c:pt idx="4390">
                   <c:v>41614.0</c:v>
                 </c:pt>
                 <c:pt idx="4391">
-                  <c:v>41614.0</c:v>
+                  <c:v>41617.0</c:v>
                 </c:pt>
                 <c:pt idx="4392">
                   <c:v>41617.0</c:v>
@@ -13380,7 +13389,7 @@
                   <c:v>41617.0</c:v>
                 </c:pt>
                 <c:pt idx="4407">
-                  <c:v>41617.0</c:v>
+                  <c:v>41618.0</c:v>
                 </c:pt>
                 <c:pt idx="4408">
                   <c:v>41618.0</c:v>
@@ -13446,7 +13455,7 @@
                   <c:v>41618.0</c:v>
                 </c:pt>
                 <c:pt idx="4429">
-                  <c:v>41618.0</c:v>
+                  <c:v>41619.0</c:v>
                 </c:pt>
                 <c:pt idx="4430">
                   <c:v>41619.0</c:v>
@@ -13470,7 +13479,7 @@
                   <c:v>41619.0</c:v>
                 </c:pt>
                 <c:pt idx="4437">
-                  <c:v>41619.0</c:v>
+                  <c:v>41620.0</c:v>
                 </c:pt>
                 <c:pt idx="4438">
                   <c:v>41620.0</c:v>
@@ -13485,7 +13494,7 @@
                   <c:v>41620.0</c:v>
                 </c:pt>
                 <c:pt idx="4442">
-                  <c:v>41620.0</c:v>
+                  <c:v>41621.0</c:v>
                 </c:pt>
                 <c:pt idx="4443">
                   <c:v>41621.0</c:v>
@@ -13509,7 +13518,7 @@
                   <c:v>41621.0</c:v>
                 </c:pt>
                 <c:pt idx="4450">
-                  <c:v>41621.0</c:v>
+                  <c:v>41625.0</c:v>
                 </c:pt>
                 <c:pt idx="4451">
                   <c:v>41625.0</c:v>
@@ -13545,7 +13554,7 @@
                   <c:v>41625.0</c:v>
                 </c:pt>
                 <c:pt idx="4462">
-                  <c:v>41625.0</c:v>
+                  <c:v>41626.0</c:v>
                 </c:pt>
                 <c:pt idx="4463">
                   <c:v>41626.0</c:v>
@@ -13566,7 +13575,7 @@
                   <c:v>41626.0</c:v>
                 </c:pt>
                 <c:pt idx="4469">
-                  <c:v>41626.0</c:v>
+                  <c:v>41627.0</c:v>
                 </c:pt>
                 <c:pt idx="4470">
                   <c:v>41627.0</c:v>
@@ -13578,7 +13587,7 @@
                   <c:v>41627.0</c:v>
                 </c:pt>
                 <c:pt idx="4473">
-                  <c:v>41627.0</c:v>
+                  <c:v>41628.0</c:v>
                 </c:pt>
                 <c:pt idx="4474">
                   <c:v>41628.0</c:v>
@@ -13599,13 +13608,13 @@
                   <c:v>41628.0</c:v>
                 </c:pt>
                 <c:pt idx="4480">
-                  <c:v>41628.0</c:v>
+                  <c:v>41631.0</c:v>
                 </c:pt>
                 <c:pt idx="4481">
                   <c:v>41631.0</c:v>
                 </c:pt>
                 <c:pt idx="4482">
-                  <c:v>41631.0</c:v>
+                  <c:v>41635.0</c:v>
                 </c:pt>
                 <c:pt idx="4483">
                   <c:v>41635.0</c:v>
@@ -13620,13 +13629,13 @@
                   <c:v>41635.0</c:v>
                 </c:pt>
                 <c:pt idx="4487">
-                  <c:v>41635.0</c:v>
+                  <c:v>41638.0</c:v>
                 </c:pt>
                 <c:pt idx="4488">
-                  <c:v>41638.0</c:v>
+                  <c:v>41640.0</c:v>
                 </c:pt>
                 <c:pt idx="4489">
-                  <c:v>41640.0</c:v>
+                  <c:v>41641.0</c:v>
                 </c:pt>
                 <c:pt idx="4490">
                   <c:v>41641.0</c:v>
@@ -13659,7 +13668,7 @@
                   <c:v>41641.0</c:v>
                 </c:pt>
                 <c:pt idx="4500">
-                  <c:v>41641.0</c:v>
+                  <c:v>41642.0</c:v>
                 </c:pt>
                 <c:pt idx="4501">
                   <c:v>41642.0</c:v>
@@ -13674,7 +13683,7 @@
                   <c:v>41642.0</c:v>
                 </c:pt>
                 <c:pt idx="4505">
-                  <c:v>41642.0</c:v>
+                  <c:v>41645.0</c:v>
                 </c:pt>
                 <c:pt idx="4506">
                   <c:v>41645.0</c:v>
@@ -13716,7 +13725,7 @@
                   <c:v>41645.0</c:v>
                 </c:pt>
                 <c:pt idx="4519">
-                  <c:v>41645.0</c:v>
+                  <c:v>41646.0</c:v>
                 </c:pt>
                 <c:pt idx="4520">
                   <c:v>41646.0</c:v>
@@ -13758,7 +13767,7 @@
                   <c:v>41646.0</c:v>
                 </c:pt>
                 <c:pt idx="4533">
-                  <c:v>41646.0</c:v>
+                  <c:v>41647.0</c:v>
                 </c:pt>
                 <c:pt idx="4534">
                   <c:v>41647.0</c:v>
@@ -13788,7 +13797,7 @@
                   <c:v>41647.0</c:v>
                 </c:pt>
                 <c:pt idx="4543">
-                  <c:v>41647.0</c:v>
+                  <c:v>41648.0</c:v>
                 </c:pt>
                 <c:pt idx="4544">
                   <c:v>41648.0</c:v>
@@ -13809,7 +13818,7 @@
                   <c:v>41648.0</c:v>
                 </c:pt>
                 <c:pt idx="4550">
-                  <c:v>41648.0</c:v>
+                  <c:v>41649.0</c:v>
                 </c:pt>
                 <c:pt idx="4551">
                   <c:v>41649.0</c:v>
@@ -13830,7 +13839,7 @@
                   <c:v>41649.0</c:v>
                 </c:pt>
                 <c:pt idx="4557">
-                  <c:v>41649.0</c:v>
+                  <c:v>41652.0</c:v>
                 </c:pt>
                 <c:pt idx="4558">
                   <c:v>41652.0</c:v>
@@ -13845,7 +13854,7 @@
                   <c:v>41652.0</c:v>
                 </c:pt>
                 <c:pt idx="4562">
-                  <c:v>41652.0</c:v>
+                  <c:v>41653.0</c:v>
                 </c:pt>
                 <c:pt idx="4563">
                   <c:v>41653.0</c:v>
@@ -13899,7 +13908,7 @@
                   <c:v>41653.0</c:v>
                 </c:pt>
                 <c:pt idx="4580">
-                  <c:v>41653.0</c:v>
+                  <c:v>41654.0</c:v>
                 </c:pt>
                 <c:pt idx="4581">
                   <c:v>41654.0</c:v>
@@ -13938,7 +13947,7 @@
                   <c:v>41654.0</c:v>
                 </c:pt>
                 <c:pt idx="4593">
-                  <c:v>41654.0</c:v>
+                  <c:v>41655.0</c:v>
                 </c:pt>
                 <c:pt idx="4594">
                   <c:v>41655.0</c:v>
@@ -13950,7 +13959,7 @@
                   <c:v>41655.0</c:v>
                 </c:pt>
                 <c:pt idx="4597">
-                  <c:v>41655.0</c:v>
+                  <c:v>41656.0</c:v>
                 </c:pt>
                 <c:pt idx="4598">
                   <c:v>41656.0</c:v>
@@ -13962,7 +13971,7 @@
                   <c:v>41656.0</c:v>
                 </c:pt>
                 <c:pt idx="4601">
-                  <c:v>41656.0</c:v>
+                  <c:v>41660.0</c:v>
                 </c:pt>
                 <c:pt idx="4602">
                   <c:v>41660.0</c:v>
@@ -14022,7 +14031,7 @@
                   <c:v>41660.0</c:v>
                 </c:pt>
                 <c:pt idx="4621">
-                  <c:v>41660.0</c:v>
+                  <c:v>41661.0</c:v>
                 </c:pt>
                 <c:pt idx="4622">
                   <c:v>41661.0</c:v>
@@ -14061,7 +14070,7 @@
                   <c:v>41661.0</c:v>
                 </c:pt>
                 <c:pt idx="4634">
-                  <c:v>41661.0</c:v>
+                  <c:v>41662.0</c:v>
                 </c:pt>
                 <c:pt idx="4635">
                   <c:v>41662.0</c:v>
@@ -14079,7 +14088,7 @@
                   <c:v>41662.0</c:v>
                 </c:pt>
                 <c:pt idx="4640">
-                  <c:v>41662.0</c:v>
+                  <c:v>41663.0</c:v>
                 </c:pt>
                 <c:pt idx="4641">
                   <c:v>41663.0</c:v>
@@ -14091,7 +14100,7 @@
                   <c:v>41663.0</c:v>
                 </c:pt>
                 <c:pt idx="4644">
-                  <c:v>41663.0</c:v>
+                  <c:v>41666.0</c:v>
                 </c:pt>
                 <c:pt idx="4645">
                   <c:v>41666.0</c:v>
@@ -14151,7 +14160,7 @@
                   <c:v>41666.0</c:v>
                 </c:pt>
                 <c:pt idx="4664">
-                  <c:v>41666.0</c:v>
+                  <c:v>41667.0</c:v>
                 </c:pt>
                 <c:pt idx="4665">
                   <c:v>41667.0</c:v>
@@ -14184,7 +14193,7 @@
                   <c:v>41667.0</c:v>
                 </c:pt>
                 <c:pt idx="4675">
-                  <c:v>41667.0</c:v>
+                  <c:v>41668.0</c:v>
                 </c:pt>
                 <c:pt idx="4676">
                   <c:v>41668.0</c:v>
@@ -14214,7 +14223,7 @@
                   <c:v>41668.0</c:v>
                 </c:pt>
                 <c:pt idx="4685">
-                  <c:v>41668.0</c:v>
+                  <c:v>41669.0</c:v>
                 </c:pt>
                 <c:pt idx="4686">
                   <c:v>41669.0</c:v>
@@ -14229,7 +14238,7 @@
                   <c:v>41669.0</c:v>
                 </c:pt>
                 <c:pt idx="4690">
-                  <c:v>41669.0</c:v>
+                  <c:v>41670.0</c:v>
                 </c:pt>
                 <c:pt idx="4691">
                   <c:v>41670.0</c:v>
@@ -14241,7 +14250,7 @@
                   <c:v>41670.0</c:v>
                 </c:pt>
                 <c:pt idx="4694">
-                  <c:v>41670.0</c:v>
+                  <c:v>41673.0</c:v>
                 </c:pt>
                 <c:pt idx="4695">
                   <c:v>41673.0</c:v>
@@ -14289,7 +14298,7 @@
                   <c:v>41673.0</c:v>
                 </c:pt>
                 <c:pt idx="4710">
-                  <c:v>41673.0</c:v>
+                  <c:v>41674.0</c:v>
                 </c:pt>
                 <c:pt idx="4711">
                   <c:v>41674.0</c:v>
@@ -14310,7 +14319,7 @@
                   <c:v>41674.0</c:v>
                 </c:pt>
                 <c:pt idx="4717">
-                  <c:v>41674.0</c:v>
+                  <c:v>41675.0</c:v>
                 </c:pt>
                 <c:pt idx="4718">
                   <c:v>41675.0</c:v>
@@ -14364,7 +14373,7 @@
                   <c:v>41675.0</c:v>
                 </c:pt>
                 <c:pt idx="4735">
-                  <c:v>41675.0</c:v>
+                  <c:v>41676.0</c:v>
                 </c:pt>
                 <c:pt idx="4736">
                   <c:v>41676.0</c:v>
@@ -14412,7 +14421,7 @@
                   <c:v>41676.0</c:v>
                 </c:pt>
                 <c:pt idx="4751">
-                  <c:v>41676.0</c:v>
+                  <c:v>41677.0</c:v>
                 </c:pt>
                 <c:pt idx="4752">
                   <c:v>41677.0</c:v>
@@ -14430,7 +14439,7 @@
                   <c:v>41677.0</c:v>
                 </c:pt>
                 <c:pt idx="4757">
-                  <c:v>41677.0</c:v>
+                  <c:v>41680.0</c:v>
                 </c:pt>
                 <c:pt idx="4758">
                   <c:v>41680.0</c:v>
@@ -14472,7 +14481,7 @@
                   <c:v>41680.0</c:v>
                 </c:pt>
                 <c:pt idx="4771">
-                  <c:v>41680.0</c:v>
+                  <c:v>41681.0</c:v>
                 </c:pt>
                 <c:pt idx="4772">
                   <c:v>41681.0</c:v>
@@ -14508,13 +14517,13 @@
                   <c:v>41681.0</c:v>
                 </c:pt>
                 <c:pt idx="4783">
-                  <c:v>41681.0</c:v>
+                  <c:v>41682.0</c:v>
                 </c:pt>
                 <c:pt idx="4784">
                   <c:v>41682.0</c:v>
                 </c:pt>
                 <c:pt idx="4785">
-                  <c:v>41682.0</c:v>
+                  <c:v>41683.0</c:v>
                 </c:pt>
                 <c:pt idx="4786">
                   <c:v>41683.0</c:v>
@@ -14535,7 +14544,7 @@
                   <c:v>41683.0</c:v>
                 </c:pt>
                 <c:pt idx="4792">
-                  <c:v>41683.0</c:v>
+                  <c:v>41684.0</c:v>
                 </c:pt>
                 <c:pt idx="4793">
                   <c:v>41684.0</c:v>
@@ -14544,7 +14553,7 @@
                   <c:v>41684.0</c:v>
                 </c:pt>
                 <c:pt idx="4795">
-                  <c:v>41684.0</c:v>
+                  <c:v>41687.0</c:v>
                 </c:pt>
                 <c:pt idx="4796">
                   <c:v>41687.0</c:v>
@@ -14574,7 +14583,7 @@
                   <c:v>41687.0</c:v>
                 </c:pt>
                 <c:pt idx="4805">
-                  <c:v>41687.0</c:v>
+                  <c:v>41688.0</c:v>
                 </c:pt>
                 <c:pt idx="4806">
                   <c:v>41688.0</c:v>
@@ -14607,7 +14616,7 @@
                   <c:v>41688.0</c:v>
                 </c:pt>
                 <c:pt idx="4816">
-                  <c:v>41688.0</c:v>
+                  <c:v>41689.0</c:v>
                 </c:pt>
                 <c:pt idx="4817">
                   <c:v>41689.0</c:v>
@@ -14655,7 +14664,7 @@
                   <c:v>41689.0</c:v>
                 </c:pt>
                 <c:pt idx="4832">
-                  <c:v>41689.0</c:v>
+                  <c:v>41690.0</c:v>
                 </c:pt>
                 <c:pt idx="4833">
                   <c:v>41690.0</c:v>
@@ -14673,7 +14682,7 @@
                   <c:v>41690.0</c:v>
                 </c:pt>
                 <c:pt idx="4838">
-                  <c:v>41690.0</c:v>
+                  <c:v>41691.0</c:v>
                 </c:pt>
                 <c:pt idx="4839">
                   <c:v>41691.0</c:v>
@@ -14688,7 +14697,7 @@
                   <c:v>41691.0</c:v>
                 </c:pt>
                 <c:pt idx="4843">
-                  <c:v>41691.0</c:v>
+                  <c:v>41694.0</c:v>
                 </c:pt>
                 <c:pt idx="4844">
                   <c:v>41694.0</c:v>
@@ -14742,7 +14751,7 @@
                   <c:v>41694.0</c:v>
                 </c:pt>
                 <c:pt idx="4861">
-                  <c:v>41694.0</c:v>
+                  <c:v>41695.0</c:v>
                 </c:pt>
                 <c:pt idx="4862">
                   <c:v>41695.0</c:v>
@@ -14766,7 +14775,7 @@
                   <c:v>41695.0</c:v>
                 </c:pt>
                 <c:pt idx="4869">
-                  <c:v>41695.0</c:v>
+                  <c:v>41696.0</c:v>
                 </c:pt>
                 <c:pt idx="4870">
                   <c:v>41696.0</c:v>
@@ -14796,7 +14805,7 @@
                   <c:v>41696.0</c:v>
                 </c:pt>
                 <c:pt idx="4879">
-                  <c:v>41696.0</c:v>
+                  <c:v>41697.0</c:v>
                 </c:pt>
                 <c:pt idx="4880">
                   <c:v>41697.0</c:v>
@@ -14805,7 +14814,7 @@
                   <c:v>41697.0</c:v>
                 </c:pt>
                 <c:pt idx="4882">
-                  <c:v>41697.0</c:v>
+                  <c:v>41698.0</c:v>
                 </c:pt>
                 <c:pt idx="4883">
                   <c:v>41698.0</c:v>
@@ -14820,7 +14829,7 @@
                   <c:v>41698.0</c:v>
                 </c:pt>
                 <c:pt idx="4887">
-                  <c:v>41698.0</c:v>
+                  <c:v>41701.0</c:v>
                 </c:pt>
                 <c:pt idx="4888">
                   <c:v>41701.0</c:v>
@@ -14835,20 +14844,563 @@
                   <c:v>41701.0</c:v>
                 </c:pt>
                 <c:pt idx="4892">
-                  <c:v>41701.0</c:v>
+                  <c:v>41702.0</c:v>
                 </c:pt>
                 <c:pt idx="4893">
-                  <c:v>41701.0</c:v>
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4894">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4895">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4896">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4897">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4898">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4899">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4900">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4901">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4902">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4903">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4904">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4905">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4906">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4907">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4908">
+                  <c:v>41702.0</c:v>
+                </c:pt>
+                <c:pt idx="4909">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4910">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4911">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4912">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4913">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4914">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4915">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4916">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4917">
+                  <c:v>41703.0</c:v>
+                </c:pt>
+                <c:pt idx="4918">
+                  <c:v>41704.0</c:v>
+                </c:pt>
+                <c:pt idx="4919">
+                  <c:v>41704.0</c:v>
+                </c:pt>
+                <c:pt idx="4920">
+                  <c:v>41704.0</c:v>
+                </c:pt>
+                <c:pt idx="4921">
+                  <c:v>41704.0</c:v>
+                </c:pt>
+                <c:pt idx="4922">
+                  <c:v>41704.0</c:v>
+                </c:pt>
+                <c:pt idx="4923">
+                  <c:v>41704.0</c:v>
+                </c:pt>
+                <c:pt idx="4924">
+                  <c:v>41704.0</c:v>
+                </c:pt>
+                <c:pt idx="4925">
+                  <c:v>41705.0</c:v>
+                </c:pt>
+                <c:pt idx="4926">
+                  <c:v>41705.0</c:v>
+                </c:pt>
+                <c:pt idx="4927">
+                  <c:v>41705.0</c:v>
+                </c:pt>
+                <c:pt idx="4928">
+                  <c:v>41705.0</c:v>
+                </c:pt>
+                <c:pt idx="4929">
+                  <c:v>41705.0</c:v>
+                </c:pt>
+                <c:pt idx="4930">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4931">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4932">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4933">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4934">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4935">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4936">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4937">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4938">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4939">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4940">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4941">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4942">
+                  <c:v>41708.0</c:v>
+                </c:pt>
+                <c:pt idx="4943">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4944">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4945">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4946">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4947">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4948">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4949">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4950">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4951">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4952">
+                  <c:v>41709.0</c:v>
+                </c:pt>
+                <c:pt idx="4953">
+                  <c:v>41710.0</c:v>
+                </c:pt>
+                <c:pt idx="4954">
+                  <c:v>41710.0</c:v>
+                </c:pt>
+                <c:pt idx="4955">
+                  <c:v>41710.0</c:v>
+                </c:pt>
+                <c:pt idx="4956">
+                  <c:v>41711.0</c:v>
+                </c:pt>
+                <c:pt idx="4957">
+                  <c:v>41711.0</c:v>
+                </c:pt>
+                <c:pt idx="4958">
+                  <c:v>41711.0</c:v>
+                </c:pt>
+                <c:pt idx="4959">
+                  <c:v>41711.0</c:v>
+                </c:pt>
+                <c:pt idx="4960">
+                  <c:v>41711.0</c:v>
+                </c:pt>
+                <c:pt idx="4961">
+                  <c:v>41711.0</c:v>
+                </c:pt>
+                <c:pt idx="4962">
+                  <c:v>41712.0</c:v>
+                </c:pt>
+                <c:pt idx="4963">
+                  <c:v>41712.0</c:v>
+                </c:pt>
+                <c:pt idx="4964">
+                  <c:v>41712.0</c:v>
+                </c:pt>
+                <c:pt idx="4965">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4966">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4967">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4968">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4969">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4970">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4971">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4972">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4973">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4974">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4975">
+                  <c:v>41715.0</c:v>
+                </c:pt>
+                <c:pt idx="4976">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="4977">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="4978">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="4979">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="4980">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="4981">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="4982">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4983">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4984">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4985">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4986">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4987">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4988">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4989">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4990">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4991">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4992">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4993">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4994">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4995">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4996">
+                  <c:v>41717.0</c:v>
+                </c:pt>
+                <c:pt idx="4997">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="4998">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="4999">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5000">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5001">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5002">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5003">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5004">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5005">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5006">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5007">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5008">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5009">
+                  <c:v>41718.0</c:v>
+                </c:pt>
+                <c:pt idx="5010">
+                  <c:v>41719.0</c:v>
+                </c:pt>
+                <c:pt idx="5011">
+                  <c:v>41719.0</c:v>
+                </c:pt>
+                <c:pt idx="5012">
+                  <c:v>41719.0</c:v>
+                </c:pt>
+                <c:pt idx="5013">
+                  <c:v>41719.0</c:v>
+                </c:pt>
+                <c:pt idx="5014">
+                  <c:v>41719.0</c:v>
+                </c:pt>
+                <c:pt idx="5015">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5016">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5017">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5018">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5019">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5020">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5021">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5022">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5023">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5024">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5025">
+                  <c:v>41722.0</c:v>
+                </c:pt>
+                <c:pt idx="5026">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5027">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5028">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5029">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5030">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5031">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5032">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5033">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5034">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5035">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5036">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5037">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5038">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="5039">
+                  <c:v>41724.0</c:v>
+                </c:pt>
+                <c:pt idx="5040">
+                  <c:v>41724.0</c:v>
+                </c:pt>
+                <c:pt idx="5041">
+                  <c:v>41724.0</c:v>
+                </c:pt>
+                <c:pt idx="5042">
+                  <c:v>41724.0</c:v>
+                </c:pt>
+                <c:pt idx="5043">
+                  <c:v>41724.0</c:v>
+                </c:pt>
+                <c:pt idx="5044">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5045">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5046">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5047">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5048">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5049">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5050">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5051">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5052">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5053">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5054">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5055">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5056">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5057">
+                  <c:v>41725.0</c:v>
+                </c:pt>
+                <c:pt idx="5058">
+                  <c:v>41726.0</c:v>
+                </c:pt>
+                <c:pt idx="5059">
+                  <c:v>41726.0</c:v>
+                </c:pt>
+                <c:pt idx="5060">
+                  <c:v>41726.0</c:v>
+                </c:pt>
+                <c:pt idx="5061">
+                  <c:v>41726.0</c:v>
+                </c:pt>
+                <c:pt idx="5062">
+                  <c:v>41726.0</c:v>
+                </c:pt>
+                <c:pt idx="5063">
+                  <c:v>41726.0</c:v>
+                </c:pt>
+                <c:pt idx="5064">
+                  <c:v>41726.0</c:v>
+                </c:pt>
+                <c:pt idx="5065">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5066">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5067">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5068">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5069">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5070">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5071">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5072">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5073">
+                  <c:v>41729.0</c:v>
+                </c:pt>
+                <c:pt idx="5074">
+                  <c:v>41729.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SubmissionDates!$B$1:$B$4894</c:f>
+              <c:f>SubmissionDates!$B$1:$B$5075</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4894"/>
+                <c:ptCount val="5075"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -29530,6 +30082,549 @@
                 </c:pt>
                 <c:pt idx="4893">
                   <c:v>4894.0</c:v>
+                </c:pt>
+                <c:pt idx="4894">
+                  <c:v>4895.0</c:v>
+                </c:pt>
+                <c:pt idx="4895">
+                  <c:v>4896.0</c:v>
+                </c:pt>
+                <c:pt idx="4896">
+                  <c:v>4897.0</c:v>
+                </c:pt>
+                <c:pt idx="4897">
+                  <c:v>4898.0</c:v>
+                </c:pt>
+                <c:pt idx="4898">
+                  <c:v>4899.0</c:v>
+                </c:pt>
+                <c:pt idx="4899">
+                  <c:v>4900.0</c:v>
+                </c:pt>
+                <c:pt idx="4900">
+                  <c:v>4901.0</c:v>
+                </c:pt>
+                <c:pt idx="4901">
+                  <c:v>4902.0</c:v>
+                </c:pt>
+                <c:pt idx="4902">
+                  <c:v>4903.0</c:v>
+                </c:pt>
+                <c:pt idx="4903">
+                  <c:v>4904.0</c:v>
+                </c:pt>
+                <c:pt idx="4904">
+                  <c:v>4905.0</c:v>
+                </c:pt>
+                <c:pt idx="4905">
+                  <c:v>4906.0</c:v>
+                </c:pt>
+                <c:pt idx="4906">
+                  <c:v>4907.0</c:v>
+                </c:pt>
+                <c:pt idx="4907">
+                  <c:v>4908.0</c:v>
+                </c:pt>
+                <c:pt idx="4908">
+                  <c:v>4909.0</c:v>
+                </c:pt>
+                <c:pt idx="4909">
+                  <c:v>4910.0</c:v>
+                </c:pt>
+                <c:pt idx="4910">
+                  <c:v>4911.0</c:v>
+                </c:pt>
+                <c:pt idx="4911">
+                  <c:v>4912.0</c:v>
+                </c:pt>
+                <c:pt idx="4912">
+                  <c:v>4913.0</c:v>
+                </c:pt>
+                <c:pt idx="4913">
+                  <c:v>4914.0</c:v>
+                </c:pt>
+                <c:pt idx="4914">
+                  <c:v>4915.0</c:v>
+                </c:pt>
+                <c:pt idx="4915">
+                  <c:v>4916.0</c:v>
+                </c:pt>
+                <c:pt idx="4916">
+                  <c:v>4917.0</c:v>
+                </c:pt>
+                <c:pt idx="4917">
+                  <c:v>4918.0</c:v>
+                </c:pt>
+                <c:pt idx="4918">
+                  <c:v>4919.0</c:v>
+                </c:pt>
+                <c:pt idx="4919">
+                  <c:v>4920.0</c:v>
+                </c:pt>
+                <c:pt idx="4920">
+                  <c:v>4921.0</c:v>
+                </c:pt>
+                <c:pt idx="4921">
+                  <c:v>4922.0</c:v>
+                </c:pt>
+                <c:pt idx="4922">
+                  <c:v>4923.0</c:v>
+                </c:pt>
+                <c:pt idx="4923">
+                  <c:v>4924.0</c:v>
+                </c:pt>
+                <c:pt idx="4924">
+                  <c:v>4925.0</c:v>
+                </c:pt>
+                <c:pt idx="4925">
+                  <c:v>4926.0</c:v>
+                </c:pt>
+                <c:pt idx="4926">
+                  <c:v>4927.0</c:v>
+                </c:pt>
+                <c:pt idx="4927">
+                  <c:v>4928.0</c:v>
+                </c:pt>
+                <c:pt idx="4928">
+                  <c:v>4929.0</c:v>
+                </c:pt>
+                <c:pt idx="4929">
+                  <c:v>4930.0</c:v>
+                </c:pt>
+                <c:pt idx="4930">
+                  <c:v>4931.0</c:v>
+                </c:pt>
+                <c:pt idx="4931">
+                  <c:v>4932.0</c:v>
+                </c:pt>
+                <c:pt idx="4932">
+                  <c:v>4933.0</c:v>
+                </c:pt>
+                <c:pt idx="4933">
+                  <c:v>4934.0</c:v>
+                </c:pt>
+                <c:pt idx="4934">
+                  <c:v>4935.0</c:v>
+                </c:pt>
+                <c:pt idx="4935">
+                  <c:v>4936.0</c:v>
+                </c:pt>
+                <c:pt idx="4936">
+                  <c:v>4937.0</c:v>
+                </c:pt>
+                <c:pt idx="4937">
+                  <c:v>4938.0</c:v>
+                </c:pt>
+                <c:pt idx="4938">
+                  <c:v>4939.0</c:v>
+                </c:pt>
+                <c:pt idx="4939">
+                  <c:v>4940.0</c:v>
+                </c:pt>
+                <c:pt idx="4940">
+                  <c:v>4941.0</c:v>
+                </c:pt>
+                <c:pt idx="4941">
+                  <c:v>4942.0</c:v>
+                </c:pt>
+                <c:pt idx="4942">
+                  <c:v>4943.0</c:v>
+                </c:pt>
+                <c:pt idx="4943">
+                  <c:v>4944.0</c:v>
+                </c:pt>
+                <c:pt idx="4944">
+                  <c:v>4945.0</c:v>
+                </c:pt>
+                <c:pt idx="4945">
+                  <c:v>4946.0</c:v>
+                </c:pt>
+                <c:pt idx="4946">
+                  <c:v>4947.0</c:v>
+                </c:pt>
+                <c:pt idx="4947">
+                  <c:v>4948.0</c:v>
+                </c:pt>
+                <c:pt idx="4948">
+                  <c:v>4949.0</c:v>
+                </c:pt>
+                <c:pt idx="4949">
+                  <c:v>4950.0</c:v>
+                </c:pt>
+                <c:pt idx="4950">
+                  <c:v>4951.0</c:v>
+                </c:pt>
+                <c:pt idx="4951">
+                  <c:v>4952.0</c:v>
+                </c:pt>
+                <c:pt idx="4952">
+                  <c:v>4953.0</c:v>
+                </c:pt>
+                <c:pt idx="4953">
+                  <c:v>4954.0</c:v>
+                </c:pt>
+                <c:pt idx="4954">
+                  <c:v>4955.0</c:v>
+                </c:pt>
+                <c:pt idx="4955">
+                  <c:v>4956.0</c:v>
+                </c:pt>
+                <c:pt idx="4956">
+                  <c:v>4957.0</c:v>
+                </c:pt>
+                <c:pt idx="4957">
+                  <c:v>4958.0</c:v>
+                </c:pt>
+                <c:pt idx="4958">
+                  <c:v>4959.0</c:v>
+                </c:pt>
+                <c:pt idx="4959">
+                  <c:v>4960.0</c:v>
+                </c:pt>
+                <c:pt idx="4960">
+                  <c:v>4961.0</c:v>
+                </c:pt>
+                <c:pt idx="4961">
+                  <c:v>4962.0</c:v>
+                </c:pt>
+                <c:pt idx="4962">
+                  <c:v>4963.0</c:v>
+                </c:pt>
+                <c:pt idx="4963">
+                  <c:v>4964.0</c:v>
+                </c:pt>
+                <c:pt idx="4964">
+                  <c:v>4965.0</c:v>
+                </c:pt>
+                <c:pt idx="4965">
+                  <c:v>4966.0</c:v>
+                </c:pt>
+                <c:pt idx="4966">
+                  <c:v>4967.0</c:v>
+                </c:pt>
+                <c:pt idx="4967">
+                  <c:v>4968.0</c:v>
+                </c:pt>
+                <c:pt idx="4968">
+                  <c:v>4969.0</c:v>
+                </c:pt>
+                <c:pt idx="4969">
+                  <c:v>4970.0</c:v>
+                </c:pt>
+                <c:pt idx="4970">
+                  <c:v>4971.0</c:v>
+                </c:pt>
+                <c:pt idx="4971">
+                  <c:v>4972.0</c:v>
+                </c:pt>
+                <c:pt idx="4972">
+                  <c:v>4973.0</c:v>
+                </c:pt>
+                <c:pt idx="4973">
+                  <c:v>4974.0</c:v>
+                </c:pt>
+                <c:pt idx="4974">
+                  <c:v>4975.0</c:v>
+                </c:pt>
+                <c:pt idx="4975">
+                  <c:v>4976.0</c:v>
+                </c:pt>
+                <c:pt idx="4976">
+                  <c:v>4977.0</c:v>
+                </c:pt>
+                <c:pt idx="4977">
+                  <c:v>4978.0</c:v>
+                </c:pt>
+                <c:pt idx="4978">
+                  <c:v>4979.0</c:v>
+                </c:pt>
+                <c:pt idx="4979">
+                  <c:v>4980.0</c:v>
+                </c:pt>
+                <c:pt idx="4980">
+                  <c:v>4981.0</c:v>
+                </c:pt>
+                <c:pt idx="4981">
+                  <c:v>4982.0</c:v>
+                </c:pt>
+                <c:pt idx="4982">
+                  <c:v>4983.0</c:v>
+                </c:pt>
+                <c:pt idx="4983">
+                  <c:v>4984.0</c:v>
+                </c:pt>
+                <c:pt idx="4984">
+                  <c:v>4985.0</c:v>
+                </c:pt>
+                <c:pt idx="4985">
+                  <c:v>4986.0</c:v>
+                </c:pt>
+                <c:pt idx="4986">
+                  <c:v>4987.0</c:v>
+                </c:pt>
+                <c:pt idx="4987">
+                  <c:v>4988.0</c:v>
+                </c:pt>
+                <c:pt idx="4988">
+                  <c:v>4989.0</c:v>
+                </c:pt>
+                <c:pt idx="4989">
+                  <c:v>4990.0</c:v>
+                </c:pt>
+                <c:pt idx="4990">
+                  <c:v>4991.0</c:v>
+                </c:pt>
+                <c:pt idx="4991">
+                  <c:v>4992.0</c:v>
+                </c:pt>
+                <c:pt idx="4992">
+                  <c:v>4993.0</c:v>
+                </c:pt>
+                <c:pt idx="4993">
+                  <c:v>4994.0</c:v>
+                </c:pt>
+                <c:pt idx="4994">
+                  <c:v>4995.0</c:v>
+                </c:pt>
+                <c:pt idx="4995">
+                  <c:v>4996.0</c:v>
+                </c:pt>
+                <c:pt idx="4996">
+                  <c:v>4997.0</c:v>
+                </c:pt>
+                <c:pt idx="4997">
+                  <c:v>4998.0</c:v>
+                </c:pt>
+                <c:pt idx="4998">
+                  <c:v>4999.0</c:v>
+                </c:pt>
+                <c:pt idx="4999">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="5000">
+                  <c:v>5001.0</c:v>
+                </c:pt>
+                <c:pt idx="5001">
+                  <c:v>5002.0</c:v>
+                </c:pt>
+                <c:pt idx="5002">
+                  <c:v>5003.0</c:v>
+                </c:pt>
+                <c:pt idx="5003">
+                  <c:v>5004.0</c:v>
+                </c:pt>
+                <c:pt idx="5004">
+                  <c:v>5005.0</c:v>
+                </c:pt>
+                <c:pt idx="5005">
+                  <c:v>5006.0</c:v>
+                </c:pt>
+                <c:pt idx="5006">
+                  <c:v>5007.0</c:v>
+                </c:pt>
+                <c:pt idx="5007">
+                  <c:v>5008.0</c:v>
+                </c:pt>
+                <c:pt idx="5008">
+                  <c:v>5009.0</c:v>
+                </c:pt>
+                <c:pt idx="5009">
+                  <c:v>5010.0</c:v>
+                </c:pt>
+                <c:pt idx="5010">
+                  <c:v>5011.0</c:v>
+                </c:pt>
+                <c:pt idx="5011">
+                  <c:v>5012.0</c:v>
+                </c:pt>
+                <c:pt idx="5012">
+                  <c:v>5013.0</c:v>
+                </c:pt>
+                <c:pt idx="5013">
+                  <c:v>5014.0</c:v>
+                </c:pt>
+                <c:pt idx="5014">
+                  <c:v>5015.0</c:v>
+                </c:pt>
+                <c:pt idx="5015">
+                  <c:v>5016.0</c:v>
+                </c:pt>
+                <c:pt idx="5016">
+                  <c:v>5017.0</c:v>
+                </c:pt>
+                <c:pt idx="5017">
+                  <c:v>5018.0</c:v>
+                </c:pt>
+                <c:pt idx="5018">
+                  <c:v>5019.0</c:v>
+                </c:pt>
+                <c:pt idx="5019">
+                  <c:v>5020.0</c:v>
+                </c:pt>
+                <c:pt idx="5020">
+                  <c:v>5021.0</c:v>
+                </c:pt>
+                <c:pt idx="5021">
+                  <c:v>5022.0</c:v>
+                </c:pt>
+                <c:pt idx="5022">
+                  <c:v>5023.0</c:v>
+                </c:pt>
+                <c:pt idx="5023">
+                  <c:v>5024.0</c:v>
+                </c:pt>
+                <c:pt idx="5024">
+                  <c:v>5025.0</c:v>
+                </c:pt>
+                <c:pt idx="5025">
+                  <c:v>5026.0</c:v>
+                </c:pt>
+                <c:pt idx="5026">
+                  <c:v>5027.0</c:v>
+                </c:pt>
+                <c:pt idx="5027">
+                  <c:v>5028.0</c:v>
+                </c:pt>
+                <c:pt idx="5028">
+                  <c:v>5029.0</c:v>
+                </c:pt>
+                <c:pt idx="5029">
+                  <c:v>5030.0</c:v>
+                </c:pt>
+                <c:pt idx="5030">
+                  <c:v>5031.0</c:v>
+                </c:pt>
+                <c:pt idx="5031">
+                  <c:v>5032.0</c:v>
+                </c:pt>
+                <c:pt idx="5032">
+                  <c:v>5033.0</c:v>
+                </c:pt>
+                <c:pt idx="5033">
+                  <c:v>5034.0</c:v>
+                </c:pt>
+                <c:pt idx="5034">
+                  <c:v>5035.0</c:v>
+                </c:pt>
+                <c:pt idx="5035">
+                  <c:v>5036.0</c:v>
+                </c:pt>
+                <c:pt idx="5036">
+                  <c:v>5037.0</c:v>
+                </c:pt>
+                <c:pt idx="5037">
+                  <c:v>5038.0</c:v>
+                </c:pt>
+                <c:pt idx="5038">
+                  <c:v>5039.0</c:v>
+                </c:pt>
+                <c:pt idx="5039">
+                  <c:v>5040.0</c:v>
+                </c:pt>
+                <c:pt idx="5040">
+                  <c:v>5041.0</c:v>
+                </c:pt>
+                <c:pt idx="5041">
+                  <c:v>5042.0</c:v>
+                </c:pt>
+                <c:pt idx="5042">
+                  <c:v>5043.0</c:v>
+                </c:pt>
+                <c:pt idx="5043">
+                  <c:v>5044.0</c:v>
+                </c:pt>
+                <c:pt idx="5044">
+                  <c:v>5045.0</c:v>
+                </c:pt>
+                <c:pt idx="5045">
+                  <c:v>5046.0</c:v>
+                </c:pt>
+                <c:pt idx="5046">
+                  <c:v>5047.0</c:v>
+                </c:pt>
+                <c:pt idx="5047">
+                  <c:v>5048.0</c:v>
+                </c:pt>
+                <c:pt idx="5048">
+                  <c:v>5049.0</c:v>
+                </c:pt>
+                <c:pt idx="5049">
+                  <c:v>5050.0</c:v>
+                </c:pt>
+                <c:pt idx="5050">
+                  <c:v>5051.0</c:v>
+                </c:pt>
+                <c:pt idx="5051">
+                  <c:v>5052.0</c:v>
+                </c:pt>
+                <c:pt idx="5052">
+                  <c:v>5053.0</c:v>
+                </c:pt>
+                <c:pt idx="5053">
+                  <c:v>5054.0</c:v>
+                </c:pt>
+                <c:pt idx="5054">
+                  <c:v>5055.0</c:v>
+                </c:pt>
+                <c:pt idx="5055">
+                  <c:v>5056.0</c:v>
+                </c:pt>
+                <c:pt idx="5056">
+                  <c:v>5057.0</c:v>
+                </c:pt>
+                <c:pt idx="5057">
+                  <c:v>5058.0</c:v>
+                </c:pt>
+                <c:pt idx="5058">
+                  <c:v>5059.0</c:v>
+                </c:pt>
+                <c:pt idx="5059">
+                  <c:v>5060.0</c:v>
+                </c:pt>
+                <c:pt idx="5060">
+                  <c:v>5061.0</c:v>
+                </c:pt>
+                <c:pt idx="5061">
+                  <c:v>5062.0</c:v>
+                </c:pt>
+                <c:pt idx="5062">
+                  <c:v>5063.0</c:v>
+                </c:pt>
+                <c:pt idx="5063">
+                  <c:v>5064.0</c:v>
+                </c:pt>
+                <c:pt idx="5064">
+                  <c:v>5065.0</c:v>
+                </c:pt>
+                <c:pt idx="5065">
+                  <c:v>5066.0</c:v>
+                </c:pt>
+                <c:pt idx="5066">
+                  <c:v>5067.0</c:v>
+                </c:pt>
+                <c:pt idx="5067">
+                  <c:v>5068.0</c:v>
+                </c:pt>
+                <c:pt idx="5068">
+                  <c:v>5069.0</c:v>
+                </c:pt>
+                <c:pt idx="5069">
+                  <c:v>5070.0</c:v>
+                </c:pt>
+                <c:pt idx="5070">
+                  <c:v>5071.0</c:v>
+                </c:pt>
+                <c:pt idx="5071">
+                  <c:v>5072.0</c:v>
+                </c:pt>
+                <c:pt idx="5072">
+                  <c:v>5073.0</c:v>
+                </c:pt>
+                <c:pt idx="5073">
+                  <c:v>5074.0</c:v>
+                </c:pt>
+                <c:pt idx="5074">
+                  <c:v>5075.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29546,33 +30641,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128716248"/>
-        <c:axId val="2128713176"/>
+        <c:axId val="-2068787016"/>
+        <c:axId val="-2068784008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128716248"/>
+        <c:axId val="-2068787016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="39417.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128713176"/>
+        <c:crossAx val="-2068784008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2.0"/>
+        <c:majorUnit val="3.0"/>
         <c:majorTimeUnit val="months"/>
-        <c:minorUnit val="1.0"/>
-        <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128713176"/>
+        <c:axId val="-2068784008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29583,8 +30675,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128716248"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-2068787016"/>
+        <c:crossesAt val="39448.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -29622,10 +30714,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>SubmissionsPerMonth!$A$1:$A$75</c:f>
+              <c:f>SubmissionsPerMonth!$A$1:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>39417.0</c:v>
                 </c:pt>
@@ -29850,16 +30942,19 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>41671.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41699.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SubmissionsPerMonth!$B$1:$B$75</c:f>
+              <c:f>SubmissionsPerMonth!$B$1:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -30084,6 +31179,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>188.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30098,11 +31196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2128323192"/>
-        <c:axId val="2128326232"/>
+        <c:axId val="-2130006872"/>
+        <c:axId val="-2130003832"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="2128323192"/>
+        <c:axId val="-2130006872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30112,14 +31210,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128326232"/>
+        <c:crossAx val="-2130003832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128326232"/>
+        <c:axId val="-2130003832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30130,7 +31228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128323192"/>
+        <c:crossAx val="-2130006872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30146,7 +31244,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -30157,7 +31255,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -30169,7 +31267,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8574887" cy="5834361"/>
+    <xdr:ext cx="8584088" cy="5840146"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -30220,11 +31318,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dryadSubmitDates" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dryadSubmitDates_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="x" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="x" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30549,10 +31647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4894"/>
+  <dimension ref="A1:B5722"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4895" sqref="A4895"/>
+    <sheetView topLeftCell="A5047" workbookViewId="0">
+      <selection activeCell="A5073" sqref="A5073"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -65242,7 +66340,7 @@
     </row>
     <row r="4336" spans="1:2">
       <c r="A4336" s="1">
-        <v>41599</v>
+        <v>41603</v>
       </c>
       <c r="B4336">
         <v>4336</v>
@@ -65282,7 +66380,7 @@
     </row>
     <row r="4341" spans="1:2">
       <c r="A4341" s="1">
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="B4341">
         <v>4341</v>
@@ -65330,7 +66428,7 @@
     </row>
     <row r="4347" spans="1:2">
       <c r="A4347" s="1">
-        <v>41604</v>
+        <v>41605</v>
       </c>
       <c r="B4347">
         <v>4347</v>
@@ -65394,7 +66492,7 @@
     </row>
     <row r="4355" spans="1:2">
       <c r="A4355" s="1">
-        <v>41605</v>
+        <v>41607</v>
       </c>
       <c r="B4355">
         <v>4355</v>
@@ -65418,7 +66516,7 @@
     </row>
     <row r="4358" spans="1:2">
       <c r="A4358" s="1">
-        <v>41607</v>
+        <v>41610</v>
       </c>
       <c r="B4358">
         <v>4358</v>
@@ -65450,7 +66548,7 @@
     </row>
     <row r="4362" spans="1:2">
       <c r="A4362" s="1">
-        <v>41610</v>
+        <v>41611</v>
       </c>
       <c r="B4362">
         <v>4362</v>
@@ -65522,7 +66620,7 @@
     </row>
     <row r="4371" spans="1:2">
       <c r="A4371" s="1">
-        <v>41611</v>
+        <v>41612</v>
       </c>
       <c r="B4371">
         <v>4371</v>
@@ -65554,7 +66652,7 @@
     </row>
     <row r="4375" spans="1:2">
       <c r="A4375" s="1">
-        <v>41612</v>
+        <v>41613</v>
       </c>
       <c r="B4375">
         <v>4375</v>
@@ -65674,7 +66772,7 @@
     </row>
     <row r="4390" spans="1:2">
       <c r="A4390" s="1">
-        <v>41613</v>
+        <v>41614</v>
       </c>
       <c r="B4390">
         <v>4390</v>
@@ -65690,7 +66788,7 @@
     </row>
     <row r="4392" spans="1:2">
       <c r="A4392" s="1">
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="B4392">
         <v>4392</v>
@@ -65818,7 +66916,7 @@
     </row>
     <row r="4408" spans="1:2">
       <c r="A4408" s="1">
-        <v>41617</v>
+        <v>41618</v>
       </c>
       <c r="B4408">
         <v>4408</v>
@@ -65994,7 +67092,7 @@
     </row>
     <row r="4430" spans="1:2">
       <c r="A4430" s="1">
-        <v>41618</v>
+        <v>41619</v>
       </c>
       <c r="B4430">
         <v>4430</v>
@@ -66058,7 +67156,7 @@
     </row>
     <row r="4438" spans="1:2">
       <c r="A4438" s="1">
-        <v>41619</v>
+        <v>41620</v>
       </c>
       <c r="B4438">
         <v>4438</v>
@@ -66098,7 +67196,7 @@
     </row>
     <row r="4443" spans="1:2">
       <c r="A4443" s="1">
-        <v>41620</v>
+        <v>41621</v>
       </c>
       <c r="B4443">
         <v>4443</v>
@@ -66162,7 +67260,7 @@
     </row>
     <row r="4451" spans="1:2">
       <c r="A4451" s="1">
-        <v>41621</v>
+        <v>41625</v>
       </c>
       <c r="B4451">
         <v>4451</v>
@@ -66258,7 +67356,7 @@
     </row>
     <row r="4463" spans="1:2">
       <c r="A4463" s="1">
-        <v>41625</v>
+        <v>41626</v>
       </c>
       <c r="B4463">
         <v>4463</v>
@@ -66314,7 +67412,7 @@
     </row>
     <row r="4470" spans="1:2">
       <c r="A4470" s="1">
-        <v>41626</v>
+        <v>41627</v>
       </c>
       <c r="B4470">
         <v>4470</v>
@@ -66346,7 +67444,7 @@
     </row>
     <row r="4474" spans="1:2">
       <c r="A4474" s="1">
-        <v>41627</v>
+        <v>41628</v>
       </c>
       <c r="B4474">
         <v>4474</v>
@@ -66402,7 +67500,7 @@
     </row>
     <row r="4481" spans="1:2">
       <c r="A4481" s="1">
-        <v>41628</v>
+        <v>41631</v>
       </c>
       <c r="B4481">
         <v>4481</v>
@@ -66418,7 +67516,7 @@
     </row>
     <row r="4483" spans="1:2">
       <c r="A4483" s="1">
-        <v>41631</v>
+        <v>41635</v>
       </c>
       <c r="B4483">
         <v>4483</v>
@@ -66458,7 +67556,7 @@
     </row>
     <row r="4488" spans="1:2">
       <c r="A4488" s="1">
-        <v>41635</v>
+        <v>41638</v>
       </c>
       <c r="B4488">
         <v>4488</v>
@@ -66466,7 +67564,7 @@
     </row>
     <row r="4489" spans="1:2">
       <c r="A4489" s="1">
-        <v>41638</v>
+        <v>41640</v>
       </c>
       <c r="B4489">
         <v>4489</v>
@@ -66474,7 +67572,7 @@
     </row>
     <row r="4490" spans="1:2">
       <c r="A4490" s="1">
-        <v>41640</v>
+        <v>41641</v>
       </c>
       <c r="B4490">
         <v>4490</v>
@@ -66562,7 +67660,7 @@
     </row>
     <row r="4501" spans="1:2">
       <c r="A4501" s="1">
-        <v>41641</v>
+        <v>41642</v>
       </c>
       <c r="B4501">
         <v>4501</v>
@@ -66602,7 +67700,7 @@
     </row>
     <row r="4506" spans="1:2">
       <c r="A4506" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B4506">
         <v>4506</v>
@@ -66714,7 +67812,7 @@
     </row>
     <row r="4520" spans="1:2">
       <c r="A4520" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B4520">
         <v>4520</v>
@@ -66826,7 +67924,7 @@
     </row>
     <row r="4534" spans="1:2">
       <c r="A4534" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B4534">
         <v>4534</v>
@@ -66906,7 +68004,7 @@
     </row>
     <row r="4544" spans="1:2">
       <c r="A4544" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B4544">
         <v>4544</v>
@@ -66962,7 +68060,7 @@
     </row>
     <row r="4551" spans="1:2">
       <c r="A4551" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B4551">
         <v>4551</v>
@@ -67018,7 +68116,7 @@
     </row>
     <row r="4558" spans="1:2">
       <c r="A4558" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B4558">
         <v>4558</v>
@@ -67058,7 +68156,7 @@
     </row>
     <row r="4563" spans="1:2">
       <c r="A4563" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B4563">
         <v>4563</v>
@@ -67202,7 +68300,7 @@
     </row>
     <row r="4581" spans="1:2">
       <c r="A4581" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B4581">
         <v>4581</v>
@@ -67306,7 +68404,7 @@
     </row>
     <row r="4594" spans="1:2">
       <c r="A4594" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B4594">
         <v>4594</v>
@@ -67338,7 +68436,7 @@
     </row>
     <row r="4598" spans="1:2">
       <c r="A4598" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B4598">
         <v>4598</v>
@@ -67370,7 +68468,7 @@
     </row>
     <row r="4602" spans="1:2">
       <c r="A4602" s="1">
-        <v>41656</v>
+        <v>41660</v>
       </c>
       <c r="B4602">
         <v>4602</v>
@@ -67530,7 +68628,7 @@
     </row>
     <row r="4622" spans="1:2">
       <c r="A4622" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B4622">
         <v>4622</v>
@@ -67634,7 +68732,7 @@
     </row>
     <row r="4635" spans="1:2">
       <c r="A4635" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B4635">
         <v>4635</v>
@@ -67682,7 +68780,7 @@
     </row>
     <row r="4641" spans="1:2">
       <c r="A4641" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B4641">
         <v>4641</v>
@@ -67714,7 +68812,7 @@
     </row>
     <row r="4645" spans="1:2">
       <c r="A4645" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B4645">
         <v>4645</v>
@@ -67874,7 +68972,7 @@
     </row>
     <row r="4665" spans="1:2">
       <c r="A4665" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B4665">
         <v>4665</v>
@@ -67962,7 +69060,7 @@
     </row>
     <row r="4676" spans="1:2">
       <c r="A4676" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B4676">
         <v>4676</v>
@@ -68042,7 +69140,7 @@
     </row>
     <row r="4686" spans="1:2">
       <c r="A4686" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B4686">
         <v>4686</v>
@@ -68082,7 +69180,7 @@
     </row>
     <row r="4691" spans="1:2">
       <c r="A4691" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B4691">
         <v>4691</v>
@@ -68114,7 +69212,7 @@
     </row>
     <row r="4695" spans="1:2">
       <c r="A4695" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B4695">
         <v>4695</v>
@@ -68242,7 +69340,7 @@
     </row>
     <row r="4711" spans="1:2">
       <c r="A4711" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B4711">
         <v>4711</v>
@@ -68298,7 +69396,7 @@
     </row>
     <row r="4718" spans="1:2">
       <c r="A4718" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B4718">
         <v>4718</v>
@@ -68442,7 +69540,7 @@
     </row>
     <row r="4736" spans="1:2">
       <c r="A4736" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B4736">
         <v>4736</v>
@@ -68570,7 +69668,7 @@
     </row>
     <row r="4752" spans="1:2">
       <c r="A4752" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B4752">
         <v>4752</v>
@@ -68618,7 +69716,7 @@
     </row>
     <row r="4758" spans="1:2">
       <c r="A4758" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B4758">
         <v>4758</v>
@@ -68730,7 +69828,7 @@
     </row>
     <row r="4772" spans="1:2">
       <c r="A4772" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B4772">
         <v>4772</v>
@@ -68826,7 +69924,7 @@
     </row>
     <row r="4784" spans="1:2">
       <c r="A4784" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B4784">
         <v>4784</v>
@@ -68842,7 +69940,7 @@
     </row>
     <row r="4786" spans="1:2">
       <c r="A4786" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B4786">
         <v>4786</v>
@@ -68898,7 +69996,7 @@
     </row>
     <row r="4793" spans="1:2">
       <c r="A4793" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B4793">
         <v>4793</v>
@@ -68922,7 +70020,7 @@
     </row>
     <row r="4796" spans="1:2">
       <c r="A4796" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B4796">
         <v>4796</v>
@@ -69002,7 +70100,7 @@
     </row>
     <row r="4806" spans="1:2">
       <c r="A4806" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B4806">
         <v>4806</v>
@@ -69090,7 +70188,7 @@
     </row>
     <row r="4817" spans="1:2">
       <c r="A4817" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B4817">
         <v>4817</v>
@@ -69218,7 +70316,7 @@
     </row>
     <row r="4833" spans="1:2">
       <c r="A4833" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B4833">
         <v>4833</v>
@@ -69266,7 +70364,7 @@
     </row>
     <row r="4839" spans="1:2">
       <c r="A4839" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B4839">
         <v>4839</v>
@@ -69306,7 +70404,7 @@
     </row>
     <row r="4844" spans="1:2">
       <c r="A4844" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B4844">
         <v>4844</v>
@@ -69450,7 +70548,7 @@
     </row>
     <row r="4862" spans="1:2">
       <c r="A4862" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B4862">
         <v>4862</v>
@@ -69514,7 +70612,7 @@
     </row>
     <row r="4870" spans="1:2">
       <c r="A4870" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B4870">
         <v>4870</v>
@@ -69594,7 +70692,7 @@
     </row>
     <row r="4880" spans="1:2">
       <c r="A4880" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B4880">
         <v>4880</v>
@@ -69618,7 +70716,7 @@
     </row>
     <row r="4883" spans="1:2">
       <c r="A4883" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B4883">
         <v>4883</v>
@@ -69658,7 +70756,7 @@
     </row>
     <row r="4888" spans="1:2">
       <c r="A4888" s="1">
-        <v>41698</v>
+        <v>41701</v>
       </c>
       <c r="B4888">
         <v>4888</v>
@@ -69698,7 +70796,7 @@
     </row>
     <row r="4893" spans="1:2">
       <c r="A4893" s="1">
-        <v>41701</v>
+        <v>41702</v>
       </c>
       <c r="B4893">
         <v>4893</v>
@@ -69706,11 +70804,3400 @@
     </row>
     <row r="4894" spans="1:2">
       <c r="A4894" s="1">
-        <v>41701</v>
+        <v>41702</v>
       </c>
       <c r="B4894">
         <v>4894</v>
       </c>
+    </row>
+    <row r="4895" spans="1:2">
+      <c r="A4895" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4895">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="4896" spans="1:2">
+      <c r="A4896" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4896">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="4897" spans="1:2">
+      <c r="A4897" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4897">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="4898" spans="1:2">
+      <c r="A4898" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4898">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="4899" spans="1:2">
+      <c r="A4899" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4899">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="4900" spans="1:2">
+      <c r="A4900" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4900">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:2">
+      <c r="A4901" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4901">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="4902" spans="1:2">
+      <c r="A4902" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4902">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="4903" spans="1:2">
+      <c r="A4903" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4903">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="4904" spans="1:2">
+      <c r="A4904" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4904">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="4905" spans="1:2">
+      <c r="A4905" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4905">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="4906" spans="1:2">
+      <c r="A4906" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4906">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="4907" spans="1:2">
+      <c r="A4907" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4907">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="4908" spans="1:2">
+      <c r="A4908" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4908">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="4909" spans="1:2">
+      <c r="A4909" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B4909">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="4910" spans="1:2">
+      <c r="A4910" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4910">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="4911" spans="1:2">
+      <c r="A4911" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4911">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="4912" spans="1:2">
+      <c r="A4912" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4912">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="4913" spans="1:2">
+      <c r="A4913" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4913">
+        <v>4913</v>
+      </c>
+    </row>
+    <row r="4914" spans="1:2">
+      <c r="A4914" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4914">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="4915" spans="1:2">
+      <c r="A4915" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4915">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="4916" spans="1:2">
+      <c r="A4916" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4916">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="4917" spans="1:2">
+      <c r="A4917" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4917">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="4918" spans="1:2">
+      <c r="A4918" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B4918">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="4919" spans="1:2">
+      <c r="A4919" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B4919">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="4920" spans="1:2">
+      <c r="A4920" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B4920">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="4921" spans="1:2">
+      <c r="A4921" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B4921">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="4922" spans="1:2">
+      <c r="A4922" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B4922">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="4923" spans="1:2">
+      <c r="A4923" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B4923">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="4924" spans="1:2">
+      <c r="A4924" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B4924">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="4925" spans="1:2">
+      <c r="A4925" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B4925">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="4926" spans="1:2">
+      <c r="A4926" s="1">
+        <v>41705</v>
+      </c>
+      <c r="B4926">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="4927" spans="1:2">
+      <c r="A4927" s="1">
+        <v>41705</v>
+      </c>
+      <c r="B4927">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="4928" spans="1:2">
+      <c r="A4928" s="1">
+        <v>41705</v>
+      </c>
+      <c r="B4928">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="4929" spans="1:2">
+      <c r="A4929" s="1">
+        <v>41705</v>
+      </c>
+      <c r="B4929">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="4930" spans="1:2">
+      <c r="A4930" s="1">
+        <v>41705</v>
+      </c>
+      <c r="B4930">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="4931" spans="1:2">
+      <c r="A4931" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4931">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="4932" spans="1:2">
+      <c r="A4932" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4932">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="4933" spans="1:2">
+      <c r="A4933" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4933">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="4934" spans="1:2">
+      <c r="A4934" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4934">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="4935" spans="1:2">
+      <c r="A4935" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4935">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="4936" spans="1:2">
+      <c r="A4936" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4936">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="4937" spans="1:2">
+      <c r="A4937" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4937">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="4938" spans="1:2">
+      <c r="A4938" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4938">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="4939" spans="1:2">
+      <c r="A4939" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4939">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="4940" spans="1:2">
+      <c r="A4940" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4940">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="4941" spans="1:2">
+      <c r="A4941" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4941">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="4942" spans="1:2">
+      <c r="A4942" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4942">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="4943" spans="1:2">
+      <c r="A4943" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B4943">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="4944" spans="1:2">
+      <c r="A4944" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4944">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="4945" spans="1:2">
+      <c r="A4945" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4945">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="4946" spans="1:2">
+      <c r="A4946" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4946">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="4947" spans="1:2">
+      <c r="A4947" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4947">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="4948" spans="1:2">
+      <c r="A4948" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4948">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="4949" spans="1:2">
+      <c r="A4949" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4949">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="4950" spans="1:2">
+      <c r="A4950" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4950">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="4951" spans="1:2">
+      <c r="A4951" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4951">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="4952" spans="1:2">
+      <c r="A4952" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4952">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="4953" spans="1:2">
+      <c r="A4953" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B4953">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="4954" spans="1:2">
+      <c r="A4954" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B4954">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="4955" spans="1:2">
+      <c r="A4955" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B4955">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="4956" spans="1:2">
+      <c r="A4956" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B4956">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="4957" spans="1:2">
+      <c r="A4957" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B4957">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="4958" spans="1:2">
+      <c r="A4958" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B4958">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="4959" spans="1:2">
+      <c r="A4959" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B4959">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="4960" spans="1:2">
+      <c r="A4960" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B4960">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="4961" spans="1:2">
+      <c r="A4961" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B4961">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="4962" spans="1:2">
+      <c r="A4962" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B4962">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="4963" spans="1:2">
+      <c r="A4963" s="1">
+        <v>41712</v>
+      </c>
+      <c r="B4963">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="4964" spans="1:2">
+      <c r="A4964" s="1">
+        <v>41712</v>
+      </c>
+      <c r="B4964">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="4965" spans="1:2">
+      <c r="A4965" s="1">
+        <v>41712</v>
+      </c>
+      <c r="B4965">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="4966" spans="1:2">
+      <c r="A4966" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4966">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="4967" spans="1:2">
+      <c r="A4967" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4967">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="4968" spans="1:2">
+      <c r="A4968" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4968">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="4969" spans="1:2">
+      <c r="A4969" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4969">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="4970" spans="1:2">
+      <c r="A4970" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4970">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="4971" spans="1:2">
+      <c r="A4971" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4971">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="4972" spans="1:2">
+      <c r="A4972" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4972">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="4973" spans="1:2">
+      <c r="A4973" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4973">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="4974" spans="1:2">
+      <c r="A4974" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4974">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="4975" spans="1:2">
+      <c r="A4975" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4975">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="4976" spans="1:2">
+      <c r="A4976" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B4976">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="4977" spans="1:2">
+      <c r="A4977" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B4977">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="4978" spans="1:2">
+      <c r="A4978" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B4978">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="4979" spans="1:2">
+      <c r="A4979" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B4979">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="4980" spans="1:2">
+      <c r="A4980" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B4980">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="4981" spans="1:2">
+      <c r="A4981" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B4981">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="4982" spans="1:2">
+      <c r="A4982" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B4982">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="4983" spans="1:2">
+      <c r="A4983" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4983">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="4984" spans="1:2">
+      <c r="A4984" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4984">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="4985" spans="1:2">
+      <c r="A4985" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4985">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="4986" spans="1:2">
+      <c r="A4986" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4986">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="4987" spans="1:2">
+      <c r="A4987" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4987">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="4988" spans="1:2">
+      <c r="A4988" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4988">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="4989" spans="1:2">
+      <c r="A4989" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4989">
+        <v>4989</v>
+      </c>
+    </row>
+    <row r="4990" spans="1:2">
+      <c r="A4990" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4990">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="4991" spans="1:2">
+      <c r="A4991" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4991">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="4992" spans="1:2">
+      <c r="A4992" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4992">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="4993" spans="1:2">
+      <c r="A4993" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4993">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="4994" spans="1:2">
+      <c r="A4994" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4994">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="4995" spans="1:2">
+      <c r="A4995" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4995">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="4996" spans="1:2">
+      <c r="A4996" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4996">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="4997" spans="1:2">
+      <c r="A4997" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B4997">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="4998" spans="1:2">
+      <c r="A4998" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B4998">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="4999" spans="1:2">
+      <c r="A4999" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B4999">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:2">
+      <c r="A5000" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5000">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:2">
+      <c r="A5001" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5001">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="5002" spans="1:2">
+      <c r="A5002" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5002">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:2">
+      <c r="A5003" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5003">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="5004" spans="1:2">
+      <c r="A5004" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5004">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="5005" spans="1:2">
+      <c r="A5005" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5005">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:2">
+      <c r="A5006" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5006">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="5007" spans="1:2">
+      <c r="A5007" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5007">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="5008" spans="1:2">
+      <c r="A5008" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5008">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="5009" spans="1:2">
+      <c r="A5009" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5009">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="5010" spans="1:2">
+      <c r="A5010" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B5010">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="5011" spans="1:2">
+      <c r="A5011" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B5011">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="5012" spans="1:2">
+      <c r="A5012" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B5012">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="5013" spans="1:2">
+      <c r="A5013" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B5013">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="5014" spans="1:2">
+      <c r="A5014" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B5014">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:2">
+      <c r="A5015" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B5015">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="5016" spans="1:2">
+      <c r="A5016" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5016">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="5017" spans="1:2">
+      <c r="A5017" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5017">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="5018" spans="1:2">
+      <c r="A5018" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5018">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="5019" spans="1:2">
+      <c r="A5019" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5019">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="5020" spans="1:2">
+      <c r="A5020" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5020">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="5021" spans="1:2">
+      <c r="A5021" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5021">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="5022" spans="1:2">
+      <c r="A5022" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5022">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:2">
+      <c r="A5023" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5023">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="5024" spans="1:2">
+      <c r="A5024" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5024">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="5025" spans="1:2">
+      <c r="A5025" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5025">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="5026" spans="1:2">
+      <c r="A5026" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B5026">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="5027" spans="1:2">
+      <c r="A5027" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5027">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="5028" spans="1:2">
+      <c r="A5028" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5028">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="5029" spans="1:2">
+      <c r="A5029" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5029">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="5030" spans="1:2">
+      <c r="A5030" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5030">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="5031" spans="1:2">
+      <c r="A5031" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5031">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="5032" spans="1:2">
+      <c r="A5032" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5032">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="5033" spans="1:2">
+      <c r="A5033" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5033">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="5034" spans="1:2">
+      <c r="A5034" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5034">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="5035" spans="1:2">
+      <c r="A5035" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5035">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="5036" spans="1:2">
+      <c r="A5036" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5036">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="5037" spans="1:2">
+      <c r="A5037" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5037">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="5038" spans="1:2">
+      <c r="A5038" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5038">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="5039" spans="1:2">
+      <c r="A5039" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B5039">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="5040" spans="1:2">
+      <c r="A5040" s="1">
+        <v>41724</v>
+      </c>
+      <c r="B5040">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:2">
+      <c r="A5041" s="1">
+        <v>41724</v>
+      </c>
+      <c r="B5041">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="5042" spans="1:2">
+      <c r="A5042" s="1">
+        <v>41724</v>
+      </c>
+      <c r="B5042">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="5043" spans="1:2">
+      <c r="A5043" s="1">
+        <v>41724</v>
+      </c>
+      <c r="B5043">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="5044" spans="1:2">
+      <c r="A5044" s="1">
+        <v>41724</v>
+      </c>
+      <c r="B5044">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="5045" spans="1:2">
+      <c r="A5045" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5045">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="5046" spans="1:2">
+      <c r="A5046" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5046">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="5047" spans="1:2">
+      <c r="A5047" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5047">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="5048" spans="1:2">
+      <c r="A5048" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5048">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="5049" spans="1:2">
+      <c r="A5049" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5049">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="5050" spans="1:2">
+      <c r="A5050" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5050">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="5051" spans="1:2">
+      <c r="A5051" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5051">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="5052" spans="1:2">
+      <c r="A5052" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5052">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="5053" spans="1:2">
+      <c r="A5053" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5053">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="5054" spans="1:2">
+      <c r="A5054" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5054">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="5055" spans="1:2">
+      <c r="A5055" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5055">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="5056" spans="1:2">
+      <c r="A5056" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5056">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="5057" spans="1:2">
+      <c r="A5057" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5057">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="5058" spans="1:2">
+      <c r="A5058" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B5058">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="5059" spans="1:2">
+      <c r="A5059" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B5059">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="5060" spans="1:2">
+      <c r="A5060" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B5060">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="5061" spans="1:2">
+      <c r="A5061" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B5061">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="5062" spans="1:2">
+      <c r="A5062" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B5062">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="5063" spans="1:2">
+      <c r="A5063" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B5063">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="5064" spans="1:2">
+      <c r="A5064" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B5064">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="5065" spans="1:2">
+      <c r="A5065" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B5065">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="5066" spans="1:2">
+      <c r="A5066" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5066">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="5067" spans="1:2">
+      <c r="A5067" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5067">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="5068" spans="1:2">
+      <c r="A5068" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5068">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="5069" spans="1:2">
+      <c r="A5069" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5069">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="5070" spans="1:2">
+      <c r="A5070" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5070">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="5071" spans="1:2">
+      <c r="A5071" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5071">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="5072" spans="1:2">
+      <c r="A5072" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5072">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="5073" spans="1:2">
+      <c r="A5073" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5073">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="5074" spans="1:2">
+      <c r="A5074" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5074">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="5075" spans="1:2">
+      <c r="A5075" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B5075">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:2">
+      <c r="A5076" s="1"/>
+    </row>
+    <row r="5077" spans="1:2">
+      <c r="A5077" s="1"/>
+    </row>
+    <row r="5078" spans="1:2">
+      <c r="A5078" s="1"/>
+    </row>
+    <row r="5079" spans="1:2">
+      <c r="A5079" s="1"/>
+    </row>
+    <row r="5080" spans="1:2">
+      <c r="A5080" s="1"/>
+    </row>
+    <row r="5081" spans="1:2">
+      <c r="A5081" s="1"/>
+    </row>
+    <row r="5082" spans="1:2">
+      <c r="A5082" s="1"/>
+    </row>
+    <row r="5083" spans="1:2">
+      <c r="A5083" s="1"/>
+    </row>
+    <row r="5084" spans="1:2">
+      <c r="A5084" s="1"/>
+    </row>
+    <row r="5085" spans="1:2">
+      <c r="A5085" s="1"/>
+    </row>
+    <row r="5086" spans="1:2">
+      <c r="A5086" s="1"/>
+    </row>
+    <row r="5087" spans="1:2">
+      <c r="A5087" s="1"/>
+    </row>
+    <row r="5088" spans="1:2">
+      <c r="A5088" s="1"/>
+    </row>
+    <row r="5089" spans="1:1">
+      <c r="A5089" s="1"/>
+    </row>
+    <row r="5090" spans="1:1">
+      <c r="A5090" s="1"/>
+    </row>
+    <row r="5091" spans="1:1">
+      <c r="A5091" s="1"/>
+    </row>
+    <row r="5092" spans="1:1">
+      <c r="A5092" s="1"/>
+    </row>
+    <row r="5093" spans="1:1">
+      <c r="A5093" s="1"/>
+    </row>
+    <row r="5094" spans="1:1">
+      <c r="A5094" s="1"/>
+    </row>
+    <row r="5095" spans="1:1">
+      <c r="A5095" s="1"/>
+    </row>
+    <row r="5096" spans="1:1">
+      <c r="A5096" s="1"/>
+    </row>
+    <row r="5097" spans="1:1">
+      <c r="A5097" s="1"/>
+    </row>
+    <row r="5098" spans="1:1">
+      <c r="A5098" s="1"/>
+    </row>
+    <row r="5099" spans="1:1">
+      <c r="A5099" s="1"/>
+    </row>
+    <row r="5100" spans="1:1">
+      <c r="A5100" s="1"/>
+    </row>
+    <row r="5101" spans="1:1">
+      <c r="A5101" s="1"/>
+    </row>
+    <row r="5102" spans="1:1">
+      <c r="A5102" s="1"/>
+    </row>
+    <row r="5103" spans="1:1">
+      <c r="A5103" s="1"/>
+    </row>
+    <row r="5104" spans="1:1">
+      <c r="A5104" s="1"/>
+    </row>
+    <row r="5105" spans="1:1">
+      <c r="A5105" s="1"/>
+    </row>
+    <row r="5106" spans="1:1">
+      <c r="A5106" s="1"/>
+    </row>
+    <row r="5107" spans="1:1">
+      <c r="A5107" s="1"/>
+    </row>
+    <row r="5108" spans="1:1">
+      <c r="A5108" s="1"/>
+    </row>
+    <row r="5109" spans="1:1">
+      <c r="A5109" s="1"/>
+    </row>
+    <row r="5110" spans="1:1">
+      <c r="A5110" s="1"/>
+    </row>
+    <row r="5111" spans="1:1">
+      <c r="A5111" s="1"/>
+    </row>
+    <row r="5112" spans="1:1">
+      <c r="A5112" s="1"/>
+    </row>
+    <row r="5113" spans="1:1">
+      <c r="A5113" s="1"/>
+    </row>
+    <row r="5114" spans="1:1">
+      <c r="A5114" s="1"/>
+    </row>
+    <row r="5115" spans="1:1">
+      <c r="A5115" s="1"/>
+    </row>
+    <row r="5116" spans="1:1">
+      <c r="A5116" s="1"/>
+    </row>
+    <row r="5117" spans="1:1">
+      <c r="A5117" s="1"/>
+    </row>
+    <row r="5118" spans="1:1">
+      <c r="A5118" s="1"/>
+    </row>
+    <row r="5119" spans="1:1">
+      <c r="A5119" s="1"/>
+    </row>
+    <row r="5120" spans="1:1">
+      <c r="A5120" s="1"/>
+    </row>
+    <row r="5121" spans="1:1">
+      <c r="A5121" s="1"/>
+    </row>
+    <row r="5122" spans="1:1">
+      <c r="A5122" s="1"/>
+    </row>
+    <row r="5123" spans="1:1">
+      <c r="A5123" s="1"/>
+    </row>
+    <row r="5124" spans="1:1">
+      <c r="A5124" s="1"/>
+    </row>
+    <row r="5125" spans="1:1">
+      <c r="A5125" s="1"/>
+    </row>
+    <row r="5126" spans="1:1">
+      <c r="A5126" s="1"/>
+    </row>
+    <row r="5127" spans="1:1">
+      <c r="A5127" s="1"/>
+    </row>
+    <row r="5128" spans="1:1">
+      <c r="A5128" s="1"/>
+    </row>
+    <row r="5129" spans="1:1">
+      <c r="A5129" s="1"/>
+    </row>
+    <row r="5130" spans="1:1">
+      <c r="A5130" s="1"/>
+    </row>
+    <row r="5131" spans="1:1">
+      <c r="A5131" s="1"/>
+    </row>
+    <row r="5132" spans="1:1">
+      <c r="A5132" s="1"/>
+    </row>
+    <row r="5133" spans="1:1">
+      <c r="A5133" s="1"/>
+    </row>
+    <row r="5134" spans="1:1">
+      <c r="A5134" s="1"/>
+    </row>
+    <row r="5135" spans="1:1">
+      <c r="A5135" s="1"/>
+    </row>
+    <row r="5136" spans="1:1">
+      <c r="A5136" s="1"/>
+    </row>
+    <row r="5137" spans="1:1">
+      <c r="A5137" s="1"/>
+    </row>
+    <row r="5138" spans="1:1">
+      <c r="A5138" s="1"/>
+    </row>
+    <row r="5139" spans="1:1">
+      <c r="A5139" s="1"/>
+    </row>
+    <row r="5140" spans="1:1">
+      <c r="A5140" s="1"/>
+    </row>
+    <row r="5141" spans="1:1">
+      <c r="A5141" s="1"/>
+    </row>
+    <row r="5142" spans="1:1">
+      <c r="A5142" s="1"/>
+    </row>
+    <row r="5143" spans="1:1">
+      <c r="A5143" s="1"/>
+    </row>
+    <row r="5144" spans="1:1">
+      <c r="A5144" s="1"/>
+    </row>
+    <row r="5145" spans="1:1">
+      <c r="A5145" s="1"/>
+    </row>
+    <row r="5146" spans="1:1">
+      <c r="A5146" s="1"/>
+    </row>
+    <row r="5147" spans="1:1">
+      <c r="A5147" s="1"/>
+    </row>
+    <row r="5148" spans="1:1">
+      <c r="A5148" s="1"/>
+    </row>
+    <row r="5149" spans="1:1">
+      <c r="A5149" s="1"/>
+    </row>
+    <row r="5150" spans="1:1">
+      <c r="A5150" s="1"/>
+    </row>
+    <row r="5151" spans="1:1">
+      <c r="A5151" s="1"/>
+    </row>
+    <row r="5152" spans="1:1">
+      <c r="A5152" s="1"/>
+    </row>
+    <row r="5153" spans="1:1">
+      <c r="A5153" s="1"/>
+    </row>
+    <row r="5154" spans="1:1">
+      <c r="A5154" s="1"/>
+    </row>
+    <row r="5155" spans="1:1">
+      <c r="A5155" s="1"/>
+    </row>
+    <row r="5156" spans="1:1">
+      <c r="A5156" s="1"/>
+    </row>
+    <row r="5157" spans="1:1">
+      <c r="A5157" s="1"/>
+    </row>
+    <row r="5158" spans="1:1">
+      <c r="A5158" s="1"/>
+    </row>
+    <row r="5159" spans="1:1">
+      <c r="A5159" s="1"/>
+    </row>
+    <row r="5160" spans="1:1">
+      <c r="A5160" s="1"/>
+    </row>
+    <row r="5161" spans="1:1">
+      <c r="A5161" s="1"/>
+    </row>
+    <row r="5162" spans="1:1">
+      <c r="A5162" s="1"/>
+    </row>
+    <row r="5163" spans="1:1">
+      <c r="A5163" s="1"/>
+    </row>
+    <row r="5164" spans="1:1">
+      <c r="A5164" s="1"/>
+    </row>
+    <row r="5165" spans="1:1">
+      <c r="A5165" s="1"/>
+    </row>
+    <row r="5166" spans="1:1">
+      <c r="A5166" s="1"/>
+    </row>
+    <row r="5167" spans="1:1">
+      <c r="A5167" s="1"/>
+    </row>
+    <row r="5168" spans="1:1">
+      <c r="A5168" s="1"/>
+    </row>
+    <row r="5169" spans="1:1">
+      <c r="A5169" s="1"/>
+    </row>
+    <row r="5170" spans="1:1">
+      <c r="A5170" s="1"/>
+    </row>
+    <row r="5171" spans="1:1">
+      <c r="A5171" s="1"/>
+    </row>
+    <row r="5172" spans="1:1">
+      <c r="A5172" s="1"/>
+    </row>
+    <row r="5173" spans="1:1">
+      <c r="A5173" s="1"/>
+    </row>
+    <row r="5174" spans="1:1">
+      <c r="A5174" s="1"/>
+    </row>
+    <row r="5175" spans="1:1">
+      <c r="A5175" s="1"/>
+    </row>
+    <row r="5176" spans="1:1">
+      <c r="A5176" s="1"/>
+    </row>
+    <row r="5177" spans="1:1">
+      <c r="A5177" s="1"/>
+    </row>
+    <row r="5178" spans="1:1">
+      <c r="A5178" s="1"/>
+    </row>
+    <row r="5179" spans="1:1">
+      <c r="A5179" s="1"/>
+    </row>
+    <row r="5180" spans="1:1">
+      <c r="A5180" s="1"/>
+    </row>
+    <row r="5181" spans="1:1">
+      <c r="A5181" s="1"/>
+    </row>
+    <row r="5182" spans="1:1">
+      <c r="A5182" s="1"/>
+    </row>
+    <row r="5183" spans="1:1">
+      <c r="A5183" s="1"/>
+    </row>
+    <row r="5184" spans="1:1">
+      <c r="A5184" s="1"/>
+    </row>
+    <row r="5185" spans="1:1">
+      <c r="A5185" s="1"/>
+    </row>
+    <row r="5186" spans="1:1">
+      <c r="A5186" s="1"/>
+    </row>
+    <row r="5187" spans="1:1">
+      <c r="A5187" s="1"/>
+    </row>
+    <row r="5188" spans="1:1">
+      <c r="A5188" s="1"/>
+    </row>
+    <row r="5189" spans="1:1">
+      <c r="A5189" s="1"/>
+    </row>
+    <row r="5190" spans="1:1">
+      <c r="A5190" s="1"/>
+    </row>
+    <row r="5191" spans="1:1">
+      <c r="A5191" s="1"/>
+    </row>
+    <row r="5192" spans="1:1">
+      <c r="A5192" s="1"/>
+    </row>
+    <row r="5193" spans="1:1">
+      <c r="A5193" s="1"/>
+    </row>
+    <row r="5194" spans="1:1">
+      <c r="A5194" s="1"/>
+    </row>
+    <row r="5195" spans="1:1">
+      <c r="A5195" s="1"/>
+    </row>
+    <row r="5196" spans="1:1">
+      <c r="A5196" s="1"/>
+    </row>
+    <row r="5197" spans="1:1">
+      <c r="A5197" s="1"/>
+    </row>
+    <row r="5198" spans="1:1">
+      <c r="A5198" s="1"/>
+    </row>
+    <row r="5199" spans="1:1">
+      <c r="A5199" s="1"/>
+    </row>
+    <row r="5200" spans="1:1">
+      <c r="A5200" s="1"/>
+    </row>
+    <row r="5201" spans="1:1">
+      <c r="A5201" s="1"/>
+    </row>
+    <row r="5202" spans="1:1">
+      <c r="A5202" s="1"/>
+    </row>
+    <row r="5203" spans="1:1">
+      <c r="A5203" s="1"/>
+    </row>
+    <row r="5204" spans="1:1">
+      <c r="A5204" s="1"/>
+    </row>
+    <row r="5205" spans="1:1">
+      <c r="A5205" s="1"/>
+    </row>
+    <row r="5206" spans="1:1">
+      <c r="A5206" s="1"/>
+    </row>
+    <row r="5207" spans="1:1">
+      <c r="A5207" s="1"/>
+    </row>
+    <row r="5208" spans="1:1">
+      <c r="A5208" s="1"/>
+    </row>
+    <row r="5209" spans="1:1">
+      <c r="A5209" s="1"/>
+    </row>
+    <row r="5210" spans="1:1">
+      <c r="A5210" s="1"/>
+    </row>
+    <row r="5211" spans="1:1">
+      <c r="A5211" s="1"/>
+    </row>
+    <row r="5212" spans="1:1">
+      <c r="A5212" s="1"/>
+    </row>
+    <row r="5213" spans="1:1">
+      <c r="A5213" s="1"/>
+    </row>
+    <row r="5214" spans="1:1">
+      <c r="A5214" s="1"/>
+    </row>
+    <row r="5215" spans="1:1">
+      <c r="A5215" s="1"/>
+    </row>
+    <row r="5216" spans="1:1">
+      <c r="A5216" s="1"/>
+    </row>
+    <row r="5217" spans="1:1">
+      <c r="A5217" s="1"/>
+    </row>
+    <row r="5218" spans="1:1">
+      <c r="A5218" s="1"/>
+    </row>
+    <row r="5219" spans="1:1">
+      <c r="A5219" s="1"/>
+    </row>
+    <row r="5220" spans="1:1">
+      <c r="A5220" s="1"/>
+    </row>
+    <row r="5221" spans="1:1">
+      <c r="A5221" s="1"/>
+    </row>
+    <row r="5222" spans="1:1">
+      <c r="A5222" s="1"/>
+    </row>
+    <row r="5223" spans="1:1">
+      <c r="A5223" s="1"/>
+    </row>
+    <row r="5224" spans="1:1">
+      <c r="A5224" s="1"/>
+    </row>
+    <row r="5225" spans="1:1">
+      <c r="A5225" s="1"/>
+    </row>
+    <row r="5226" spans="1:1">
+      <c r="A5226" s="1"/>
+    </row>
+    <row r="5227" spans="1:1">
+      <c r="A5227" s="1"/>
+    </row>
+    <row r="5228" spans="1:1">
+      <c r="A5228" s="1"/>
+    </row>
+    <row r="5229" spans="1:1">
+      <c r="A5229" s="1"/>
+    </row>
+    <row r="5230" spans="1:1">
+      <c r="A5230" s="1"/>
+    </row>
+    <row r="5231" spans="1:1">
+      <c r="A5231" s="1"/>
+    </row>
+    <row r="5232" spans="1:1">
+      <c r="A5232" s="1"/>
+    </row>
+    <row r="5233" spans="1:1">
+      <c r="A5233" s="1"/>
+    </row>
+    <row r="5234" spans="1:1">
+      <c r="A5234" s="1"/>
+    </row>
+    <row r="5235" spans="1:1">
+      <c r="A5235" s="1"/>
+    </row>
+    <row r="5236" spans="1:1">
+      <c r="A5236" s="1"/>
+    </row>
+    <row r="5237" spans="1:1">
+      <c r="A5237" s="1"/>
+    </row>
+    <row r="5238" spans="1:1">
+      <c r="A5238" s="1"/>
+    </row>
+    <row r="5239" spans="1:1">
+      <c r="A5239" s="1"/>
+    </row>
+    <row r="5240" spans="1:1">
+      <c r="A5240" s="1"/>
+    </row>
+    <row r="5241" spans="1:1">
+      <c r="A5241" s="1"/>
+    </row>
+    <row r="5242" spans="1:1">
+      <c r="A5242" s="1"/>
+    </row>
+    <row r="5243" spans="1:1">
+      <c r="A5243" s="1"/>
+    </row>
+    <row r="5244" spans="1:1">
+      <c r="A5244" s="1"/>
+    </row>
+    <row r="5245" spans="1:1">
+      <c r="A5245" s="1"/>
+    </row>
+    <row r="5246" spans="1:1">
+      <c r="A5246" s="1"/>
+    </row>
+    <row r="5247" spans="1:1">
+      <c r="A5247" s="1"/>
+    </row>
+    <row r="5248" spans="1:1">
+      <c r="A5248" s="1"/>
+    </row>
+    <row r="5249" spans="1:1">
+      <c r="A5249" s="1"/>
+    </row>
+    <row r="5250" spans="1:1">
+      <c r="A5250" s="1"/>
+    </row>
+    <row r="5251" spans="1:1">
+      <c r="A5251" s="1"/>
+    </row>
+    <row r="5252" spans="1:1">
+      <c r="A5252" s="1"/>
+    </row>
+    <row r="5253" spans="1:1">
+      <c r="A5253" s="1"/>
+    </row>
+    <row r="5254" spans="1:1">
+      <c r="A5254" s="1"/>
+    </row>
+    <row r="5255" spans="1:1">
+      <c r="A5255" s="1"/>
+    </row>
+    <row r="5256" spans="1:1">
+      <c r="A5256" s="1"/>
+    </row>
+    <row r="5257" spans="1:1">
+      <c r="A5257" s="1"/>
+    </row>
+    <row r="5258" spans="1:1">
+      <c r="A5258" s="1"/>
+    </row>
+    <row r="5259" spans="1:1">
+      <c r="A5259" s="1"/>
+    </row>
+    <row r="5260" spans="1:1">
+      <c r="A5260" s="1"/>
+    </row>
+    <row r="5261" spans="1:1">
+      <c r="A5261" s="1"/>
+    </row>
+    <row r="5262" spans="1:1">
+      <c r="A5262" s="1"/>
+    </row>
+    <row r="5263" spans="1:1">
+      <c r="A5263" s="1"/>
+    </row>
+    <row r="5264" spans="1:1">
+      <c r="A5264" s="1"/>
+    </row>
+    <row r="5265" spans="1:1">
+      <c r="A5265" s="1"/>
+    </row>
+    <row r="5266" spans="1:1">
+      <c r="A5266" s="1"/>
+    </row>
+    <row r="5267" spans="1:1">
+      <c r="A5267" s="1"/>
+    </row>
+    <row r="5268" spans="1:1">
+      <c r="A5268" s="1"/>
+    </row>
+    <row r="5269" spans="1:1">
+      <c r="A5269" s="1"/>
+    </row>
+    <row r="5270" spans="1:1">
+      <c r="A5270" s="1"/>
+    </row>
+    <row r="5271" spans="1:1">
+      <c r="A5271" s="1"/>
+    </row>
+    <row r="5272" spans="1:1">
+      <c r="A5272" s="1"/>
+    </row>
+    <row r="5273" spans="1:1">
+      <c r="A5273" s="1"/>
+    </row>
+    <row r="5274" spans="1:1">
+      <c r="A5274" s="1"/>
+    </row>
+    <row r="5275" spans="1:1">
+      <c r="A5275" s="1"/>
+    </row>
+    <row r="5276" spans="1:1">
+      <c r="A5276" s="1"/>
+    </row>
+    <row r="5277" spans="1:1">
+      <c r="A5277" s="1"/>
+    </row>
+    <row r="5278" spans="1:1">
+      <c r="A5278" s="1"/>
+    </row>
+    <row r="5279" spans="1:1">
+      <c r="A5279" s="1"/>
+    </row>
+    <row r="5280" spans="1:1">
+      <c r="A5280" s="1"/>
+    </row>
+    <row r="5281" spans="1:1">
+      <c r="A5281" s="1"/>
+    </row>
+    <row r="5282" spans="1:1">
+      <c r="A5282" s="1"/>
+    </row>
+    <row r="5283" spans="1:1">
+      <c r="A5283" s="1"/>
+    </row>
+    <row r="5284" spans="1:1">
+      <c r="A5284" s="1"/>
+    </row>
+    <row r="5285" spans="1:1">
+      <c r="A5285" s="1"/>
+    </row>
+    <row r="5286" spans="1:1">
+      <c r="A5286" s="1"/>
+    </row>
+    <row r="5287" spans="1:1">
+      <c r="A5287" s="1"/>
+    </row>
+    <row r="5288" spans="1:1">
+      <c r="A5288" s="1"/>
+    </row>
+    <row r="5289" spans="1:1">
+      <c r="A5289" s="1"/>
+    </row>
+    <row r="5290" spans="1:1">
+      <c r="A5290" s="1"/>
+    </row>
+    <row r="5291" spans="1:1">
+      <c r="A5291" s="1"/>
+    </row>
+    <row r="5292" spans="1:1">
+      <c r="A5292" s="1"/>
+    </row>
+    <row r="5293" spans="1:1">
+      <c r="A5293" s="1"/>
+    </row>
+    <row r="5294" spans="1:1">
+      <c r="A5294" s="1"/>
+    </row>
+    <row r="5295" spans="1:1">
+      <c r="A5295" s="1"/>
+    </row>
+    <row r="5296" spans="1:1">
+      <c r="A5296" s="1"/>
+    </row>
+    <row r="5297" spans="1:1">
+      <c r="A5297" s="1"/>
+    </row>
+    <row r="5298" spans="1:1">
+      <c r="A5298" s="1"/>
+    </row>
+    <row r="5299" spans="1:1">
+      <c r="A5299" s="1"/>
+    </row>
+    <row r="5300" spans="1:1">
+      <c r="A5300" s="1"/>
+    </row>
+    <row r="5301" spans="1:1">
+      <c r="A5301" s="1"/>
+    </row>
+    <row r="5302" spans="1:1">
+      <c r="A5302" s="1"/>
+    </row>
+    <row r="5303" spans="1:1">
+      <c r="A5303" s="1"/>
+    </row>
+    <row r="5304" spans="1:1">
+      <c r="A5304" s="1"/>
+    </row>
+    <row r="5305" spans="1:1">
+      <c r="A5305" s="1"/>
+    </row>
+    <row r="5306" spans="1:1">
+      <c r="A5306" s="1"/>
+    </row>
+    <row r="5307" spans="1:1">
+      <c r="A5307" s="1"/>
+    </row>
+    <row r="5308" spans="1:1">
+      <c r="A5308" s="1"/>
+    </row>
+    <row r="5309" spans="1:1">
+      <c r="A5309" s="1"/>
+    </row>
+    <row r="5310" spans="1:1">
+      <c r="A5310" s="1"/>
+    </row>
+    <row r="5311" spans="1:1">
+      <c r="A5311" s="1"/>
+    </row>
+    <row r="5312" spans="1:1">
+      <c r="A5312" s="1"/>
+    </row>
+    <row r="5313" spans="1:1">
+      <c r="A5313" s="1"/>
+    </row>
+    <row r="5314" spans="1:1">
+      <c r="A5314" s="1"/>
+    </row>
+    <row r="5315" spans="1:1">
+      <c r="A5315" s="1"/>
+    </row>
+    <row r="5316" spans="1:1">
+      <c r="A5316" s="1"/>
+    </row>
+    <row r="5317" spans="1:1">
+      <c r="A5317" s="1"/>
+    </row>
+    <row r="5318" spans="1:1">
+      <c r="A5318" s="1"/>
+    </row>
+    <row r="5319" spans="1:1">
+      <c r="A5319" s="1"/>
+    </row>
+    <row r="5320" spans="1:1">
+      <c r="A5320" s="1"/>
+    </row>
+    <row r="5321" spans="1:1">
+      <c r="A5321" s="1"/>
+    </row>
+    <row r="5322" spans="1:1">
+      <c r="A5322" s="1"/>
+    </row>
+    <row r="5323" spans="1:1">
+      <c r="A5323" s="1"/>
+    </row>
+    <row r="5324" spans="1:1">
+      <c r="A5324" s="1"/>
+    </row>
+    <row r="5325" spans="1:1">
+      <c r="A5325" s="1"/>
+    </row>
+    <row r="5326" spans="1:1">
+      <c r="A5326" s="1"/>
+    </row>
+    <row r="5327" spans="1:1">
+      <c r="A5327" s="1"/>
+    </row>
+    <row r="5328" spans="1:1">
+      <c r="A5328" s="1"/>
+    </row>
+    <row r="5329" spans="1:1">
+      <c r="A5329" s="1"/>
+    </row>
+    <row r="5330" spans="1:1">
+      <c r="A5330" s="1"/>
+    </row>
+    <row r="5331" spans="1:1">
+      <c r="A5331" s="1"/>
+    </row>
+    <row r="5332" spans="1:1">
+      <c r="A5332" s="1"/>
+    </row>
+    <row r="5333" spans="1:1">
+      <c r="A5333" s="1"/>
+    </row>
+    <row r="5334" spans="1:1">
+      <c r="A5334" s="1"/>
+    </row>
+    <row r="5335" spans="1:1">
+      <c r="A5335" s="1"/>
+    </row>
+    <row r="5336" spans="1:1">
+      <c r="A5336" s="1"/>
+    </row>
+    <row r="5337" spans="1:1">
+      <c r="A5337" s="1"/>
+    </row>
+    <row r="5338" spans="1:1">
+      <c r="A5338" s="1"/>
+    </row>
+    <row r="5339" spans="1:1">
+      <c r="A5339" s="1"/>
+    </row>
+    <row r="5340" spans="1:1">
+      <c r="A5340" s="1"/>
+    </row>
+    <row r="5341" spans="1:1">
+      <c r="A5341" s="1"/>
+    </row>
+    <row r="5342" spans="1:1">
+      <c r="A5342" s="1"/>
+    </row>
+    <row r="5343" spans="1:1">
+      <c r="A5343" s="1"/>
+    </row>
+    <row r="5344" spans="1:1">
+      <c r="A5344" s="1"/>
+    </row>
+    <row r="5345" spans="1:1">
+      <c r="A5345" s="1"/>
+    </row>
+    <row r="5346" spans="1:1">
+      <c r="A5346" s="1"/>
+    </row>
+    <row r="5347" spans="1:1">
+      <c r="A5347" s="1"/>
+    </row>
+    <row r="5348" spans="1:1">
+      <c r="A5348" s="1"/>
+    </row>
+    <row r="5349" spans="1:1">
+      <c r="A5349" s="1"/>
+    </row>
+    <row r="5350" spans="1:1">
+      <c r="A5350" s="1"/>
+    </row>
+    <row r="5351" spans="1:1">
+      <c r="A5351" s="1"/>
+    </row>
+    <row r="5352" spans="1:1">
+      <c r="A5352" s="1"/>
+    </row>
+    <row r="5353" spans="1:1">
+      <c r="A5353" s="1"/>
+    </row>
+    <row r="5354" spans="1:1">
+      <c r="A5354" s="1"/>
+    </row>
+    <row r="5355" spans="1:1">
+      <c r="A5355" s="1"/>
+    </row>
+    <row r="5356" spans="1:1">
+      <c r="A5356" s="1"/>
+    </row>
+    <row r="5357" spans="1:1">
+      <c r="A5357" s="1"/>
+    </row>
+    <row r="5358" spans="1:1">
+      <c r="A5358" s="1"/>
+    </row>
+    <row r="5359" spans="1:1">
+      <c r="A5359" s="1"/>
+    </row>
+    <row r="5360" spans="1:1">
+      <c r="A5360" s="1"/>
+    </row>
+    <row r="5361" spans="1:1">
+      <c r="A5361" s="1"/>
+    </row>
+    <row r="5362" spans="1:1">
+      <c r="A5362" s="1"/>
+    </row>
+    <row r="5363" spans="1:1">
+      <c r="A5363" s="1"/>
+    </row>
+    <row r="5364" spans="1:1">
+      <c r="A5364" s="1"/>
+    </row>
+    <row r="5365" spans="1:1">
+      <c r="A5365" s="1"/>
+    </row>
+    <row r="5366" spans="1:1">
+      <c r="A5366" s="1"/>
+    </row>
+    <row r="5367" spans="1:1">
+      <c r="A5367" s="1"/>
+    </row>
+    <row r="5368" spans="1:1">
+      <c r="A5368" s="1"/>
+    </row>
+    <row r="5369" spans="1:1">
+      <c r="A5369" s="1"/>
+    </row>
+    <row r="5370" spans="1:1">
+      <c r="A5370" s="1"/>
+    </row>
+    <row r="5371" spans="1:1">
+      <c r="A5371" s="1"/>
+    </row>
+    <row r="5372" spans="1:1">
+      <c r="A5372" s="1"/>
+    </row>
+    <row r="5373" spans="1:1">
+      <c r="A5373" s="1"/>
+    </row>
+    <row r="5374" spans="1:1">
+      <c r="A5374" s="1"/>
+    </row>
+    <row r="5375" spans="1:1">
+      <c r="A5375" s="1"/>
+    </row>
+    <row r="5376" spans="1:1">
+      <c r="A5376" s="1"/>
+    </row>
+    <row r="5377" spans="1:1">
+      <c r="A5377" s="1"/>
+    </row>
+    <row r="5378" spans="1:1">
+      <c r="A5378" s="1"/>
+    </row>
+    <row r="5379" spans="1:1">
+      <c r="A5379" s="1"/>
+    </row>
+    <row r="5380" spans="1:1">
+      <c r="A5380" s="1"/>
+    </row>
+    <row r="5381" spans="1:1">
+      <c r="A5381" s="1"/>
+    </row>
+    <row r="5382" spans="1:1">
+      <c r="A5382" s="1"/>
+    </row>
+    <row r="5383" spans="1:1">
+      <c r="A5383" s="1"/>
+    </row>
+    <row r="5384" spans="1:1">
+      <c r="A5384" s="1"/>
+    </row>
+    <row r="5385" spans="1:1">
+      <c r="A5385" s="1"/>
+    </row>
+    <row r="5386" spans="1:1">
+      <c r="A5386" s="1"/>
+    </row>
+    <row r="5387" spans="1:1">
+      <c r="A5387" s="1"/>
+    </row>
+    <row r="5388" spans="1:1">
+      <c r="A5388" s="1"/>
+    </row>
+    <row r="5389" spans="1:1">
+      <c r="A5389" s="1"/>
+    </row>
+    <row r="5390" spans="1:1">
+      <c r="A5390" s="1"/>
+    </row>
+    <row r="5391" spans="1:1">
+      <c r="A5391" s="1"/>
+    </row>
+    <row r="5392" spans="1:1">
+      <c r="A5392" s="1"/>
+    </row>
+    <row r="5393" spans="1:1">
+      <c r="A5393" s="1"/>
+    </row>
+    <row r="5394" spans="1:1">
+      <c r="A5394" s="1"/>
+    </row>
+    <row r="5395" spans="1:1">
+      <c r="A5395" s="1"/>
+    </row>
+    <row r="5396" spans="1:1">
+      <c r="A5396" s="1"/>
+    </row>
+    <row r="5397" spans="1:1">
+      <c r="A5397" s="1"/>
+    </row>
+    <row r="5398" spans="1:1">
+      <c r="A5398" s="1"/>
+    </row>
+    <row r="5399" spans="1:1">
+      <c r="A5399" s="1"/>
+    </row>
+    <row r="5400" spans="1:1">
+      <c r="A5400" s="1"/>
+    </row>
+    <row r="5401" spans="1:1">
+      <c r="A5401" s="1"/>
+    </row>
+    <row r="5402" spans="1:1">
+      <c r="A5402" s="1"/>
+    </row>
+    <row r="5403" spans="1:1">
+      <c r="A5403" s="1"/>
+    </row>
+    <row r="5404" spans="1:1">
+      <c r="A5404" s="1"/>
+    </row>
+    <row r="5405" spans="1:1">
+      <c r="A5405" s="1"/>
+    </row>
+    <row r="5406" spans="1:1">
+      <c r="A5406" s="1"/>
+    </row>
+    <row r="5407" spans="1:1">
+      <c r="A5407" s="1"/>
+    </row>
+    <row r="5408" spans="1:1">
+      <c r="A5408" s="1"/>
+    </row>
+    <row r="5409" spans="1:1">
+      <c r="A5409" s="1"/>
+    </row>
+    <row r="5410" spans="1:1">
+      <c r="A5410" s="1"/>
+    </row>
+    <row r="5411" spans="1:1">
+      <c r="A5411" s="1"/>
+    </row>
+    <row r="5412" spans="1:1">
+      <c r="A5412" s="1"/>
+    </row>
+    <row r="5413" spans="1:1">
+      <c r="A5413" s="1"/>
+    </row>
+    <row r="5414" spans="1:1">
+      <c r="A5414" s="1"/>
+    </row>
+    <row r="5415" spans="1:1">
+      <c r="A5415" s="1"/>
+    </row>
+    <row r="5416" spans="1:1">
+      <c r="A5416" s="1"/>
+    </row>
+    <row r="5417" spans="1:1">
+      <c r="A5417" s="1"/>
+    </row>
+    <row r="5418" spans="1:1">
+      <c r="A5418" s="1"/>
+    </row>
+    <row r="5419" spans="1:1">
+      <c r="A5419" s="1"/>
+    </row>
+    <row r="5420" spans="1:1">
+      <c r="A5420" s="1"/>
+    </row>
+    <row r="5421" spans="1:1">
+      <c r="A5421" s="1"/>
+    </row>
+    <row r="5422" spans="1:1">
+      <c r="A5422" s="1"/>
+    </row>
+    <row r="5423" spans="1:1">
+      <c r="A5423" s="1"/>
+    </row>
+    <row r="5424" spans="1:1">
+      <c r="A5424" s="1"/>
+    </row>
+    <row r="5425" spans="1:1">
+      <c r="A5425" s="1"/>
+    </row>
+    <row r="5426" spans="1:1">
+      <c r="A5426" s="1"/>
+    </row>
+    <row r="5427" spans="1:1">
+      <c r="A5427" s="1"/>
+    </row>
+    <row r="5428" spans="1:1">
+      <c r="A5428" s="1"/>
+    </row>
+    <row r="5429" spans="1:1">
+      <c r="A5429" s="1"/>
+    </row>
+    <row r="5430" spans="1:1">
+      <c r="A5430" s="1"/>
+    </row>
+    <row r="5431" spans="1:1">
+      <c r="A5431" s="1"/>
+    </row>
+    <row r="5432" spans="1:1">
+      <c r="A5432" s="1"/>
+    </row>
+    <row r="5433" spans="1:1">
+      <c r="A5433" s="1"/>
+    </row>
+    <row r="5434" spans="1:1">
+      <c r="A5434" s="1"/>
+    </row>
+    <row r="5435" spans="1:1">
+      <c r="A5435" s="1"/>
+    </row>
+    <row r="5436" spans="1:1">
+      <c r="A5436" s="1"/>
+    </row>
+    <row r="5437" spans="1:1">
+      <c r="A5437" s="1"/>
+    </row>
+    <row r="5438" spans="1:1">
+      <c r="A5438" s="1"/>
+    </row>
+    <row r="5439" spans="1:1">
+      <c r="A5439" s="1"/>
+    </row>
+    <row r="5440" spans="1:1">
+      <c r="A5440" s="1"/>
+    </row>
+    <row r="5441" spans="1:1">
+      <c r="A5441" s="1"/>
+    </row>
+    <row r="5442" spans="1:1">
+      <c r="A5442" s="1"/>
+    </row>
+    <row r="5443" spans="1:1">
+      <c r="A5443" s="1"/>
+    </row>
+    <row r="5444" spans="1:1">
+      <c r="A5444" s="1"/>
+    </row>
+    <row r="5445" spans="1:1">
+      <c r="A5445" s="1"/>
+    </row>
+    <row r="5446" spans="1:1">
+      <c r="A5446" s="1"/>
+    </row>
+    <row r="5447" spans="1:1">
+      <c r="A5447" s="1"/>
+    </row>
+    <row r="5448" spans="1:1">
+      <c r="A5448" s="1"/>
+    </row>
+    <row r="5449" spans="1:1">
+      <c r="A5449" s="1"/>
+    </row>
+    <row r="5450" spans="1:1">
+      <c r="A5450" s="1"/>
+    </row>
+    <row r="5451" spans="1:1">
+      <c r="A5451" s="1"/>
+    </row>
+    <row r="5452" spans="1:1">
+      <c r="A5452" s="1"/>
+    </row>
+    <row r="5453" spans="1:1">
+      <c r="A5453" s="1"/>
+    </row>
+    <row r="5454" spans="1:1">
+      <c r="A5454" s="1"/>
+    </row>
+    <row r="5455" spans="1:1">
+      <c r="A5455" s="1"/>
+    </row>
+    <row r="5456" spans="1:1">
+      <c r="A5456" s="1"/>
+    </row>
+    <row r="5457" spans="1:1">
+      <c r="A5457" s="1"/>
+    </row>
+    <row r="5458" spans="1:1">
+      <c r="A5458" s="1"/>
+    </row>
+    <row r="5459" spans="1:1">
+      <c r="A5459" s="1"/>
+    </row>
+    <row r="5460" spans="1:1">
+      <c r="A5460" s="1"/>
+    </row>
+    <row r="5461" spans="1:1">
+      <c r="A5461" s="1"/>
+    </row>
+    <row r="5462" spans="1:1">
+      <c r="A5462" s="1"/>
+    </row>
+    <row r="5463" spans="1:1">
+      <c r="A5463" s="1"/>
+    </row>
+    <row r="5464" spans="1:1">
+      <c r="A5464" s="1"/>
+    </row>
+    <row r="5465" spans="1:1">
+      <c r="A5465" s="1"/>
+    </row>
+    <row r="5466" spans="1:1">
+      <c r="A5466" s="1"/>
+    </row>
+    <row r="5467" spans="1:1">
+      <c r="A5467" s="1"/>
+    </row>
+    <row r="5468" spans="1:1">
+      <c r="A5468" s="1"/>
+    </row>
+    <row r="5469" spans="1:1">
+      <c r="A5469" s="1"/>
+    </row>
+    <row r="5470" spans="1:1">
+      <c r="A5470" s="1"/>
+    </row>
+    <row r="5471" spans="1:1">
+      <c r="A5471" s="1"/>
+    </row>
+    <row r="5472" spans="1:1">
+      <c r="A5472" s="1"/>
+    </row>
+    <row r="5473" spans="1:1">
+      <c r="A5473" s="1"/>
+    </row>
+    <row r="5474" spans="1:1">
+      <c r="A5474" s="1"/>
+    </row>
+    <row r="5475" spans="1:1">
+      <c r="A5475" s="1"/>
+    </row>
+    <row r="5476" spans="1:1">
+      <c r="A5476" s="1"/>
+    </row>
+    <row r="5477" spans="1:1">
+      <c r="A5477" s="1"/>
+    </row>
+    <row r="5478" spans="1:1">
+      <c r="A5478" s="1"/>
+    </row>
+    <row r="5479" spans="1:1">
+      <c r="A5479" s="1"/>
+    </row>
+    <row r="5480" spans="1:1">
+      <c r="A5480" s="1"/>
+    </row>
+    <row r="5481" spans="1:1">
+      <c r="A5481" s="1"/>
+    </row>
+    <row r="5482" spans="1:1">
+      <c r="A5482" s="1"/>
+    </row>
+    <row r="5483" spans="1:1">
+      <c r="A5483" s="1"/>
+    </row>
+    <row r="5484" spans="1:1">
+      <c r="A5484" s="1"/>
+    </row>
+    <row r="5485" spans="1:1">
+      <c r="A5485" s="1"/>
+    </row>
+    <row r="5486" spans="1:1">
+      <c r="A5486" s="1"/>
+    </row>
+    <row r="5487" spans="1:1">
+      <c r="A5487" s="1"/>
+    </row>
+    <row r="5488" spans="1:1">
+      <c r="A5488" s="1"/>
+    </row>
+    <row r="5489" spans="1:1">
+      <c r="A5489" s="1"/>
+    </row>
+    <row r="5490" spans="1:1">
+      <c r="A5490" s="1"/>
+    </row>
+    <row r="5491" spans="1:1">
+      <c r="A5491" s="1"/>
+    </row>
+    <row r="5492" spans="1:1">
+      <c r="A5492" s="1"/>
+    </row>
+    <row r="5493" spans="1:1">
+      <c r="A5493" s="1"/>
+    </row>
+    <row r="5494" spans="1:1">
+      <c r="A5494" s="1"/>
+    </row>
+    <row r="5495" spans="1:1">
+      <c r="A5495" s="1"/>
+    </row>
+    <row r="5496" spans="1:1">
+      <c r="A5496" s="1"/>
+    </row>
+    <row r="5497" spans="1:1">
+      <c r="A5497" s="1"/>
+    </row>
+    <row r="5498" spans="1:1">
+      <c r="A5498" s="1"/>
+    </row>
+    <row r="5499" spans="1:1">
+      <c r="A5499" s="1"/>
+    </row>
+    <row r="5500" spans="1:1">
+      <c r="A5500" s="1"/>
+    </row>
+    <row r="5501" spans="1:1">
+      <c r="A5501" s="1"/>
+    </row>
+    <row r="5502" spans="1:1">
+      <c r="A5502" s="1"/>
+    </row>
+    <row r="5503" spans="1:1">
+      <c r="A5503" s="1"/>
+    </row>
+    <row r="5504" spans="1:1">
+      <c r="A5504" s="1"/>
+    </row>
+    <row r="5505" spans="1:1">
+      <c r="A5505" s="1"/>
+    </row>
+    <row r="5506" spans="1:1">
+      <c r="A5506" s="1"/>
+    </row>
+    <row r="5507" spans="1:1">
+      <c r="A5507" s="1"/>
+    </row>
+    <row r="5508" spans="1:1">
+      <c r="A5508" s="1"/>
+    </row>
+    <row r="5509" spans="1:1">
+      <c r="A5509" s="1"/>
+    </row>
+    <row r="5510" spans="1:1">
+      <c r="A5510" s="1"/>
+    </row>
+    <row r="5511" spans="1:1">
+      <c r="A5511" s="1"/>
+    </row>
+    <row r="5512" spans="1:1">
+      <c r="A5512" s="1"/>
+    </row>
+    <row r="5513" spans="1:1">
+      <c r="A5513" s="1"/>
+    </row>
+    <row r="5514" spans="1:1">
+      <c r="A5514" s="1"/>
+    </row>
+    <row r="5515" spans="1:1">
+      <c r="A5515" s="1"/>
+    </row>
+    <row r="5516" spans="1:1">
+      <c r="A5516" s="1"/>
+    </row>
+    <row r="5517" spans="1:1">
+      <c r="A5517" s="1"/>
+    </row>
+    <row r="5518" spans="1:1">
+      <c r="A5518" s="1"/>
+    </row>
+    <row r="5519" spans="1:1">
+      <c r="A5519" s="1"/>
+    </row>
+    <row r="5520" spans="1:1">
+      <c r="A5520" s="1"/>
+    </row>
+    <row r="5521" spans="1:1">
+      <c r="A5521" s="1"/>
+    </row>
+    <row r="5522" spans="1:1">
+      <c r="A5522" s="1"/>
+    </row>
+    <row r="5523" spans="1:1">
+      <c r="A5523" s="1"/>
+    </row>
+    <row r="5524" spans="1:1">
+      <c r="A5524" s="1"/>
+    </row>
+    <row r="5525" spans="1:1">
+      <c r="A5525" s="1"/>
+    </row>
+    <row r="5526" spans="1:1">
+      <c r="A5526" s="1"/>
+    </row>
+    <row r="5527" spans="1:1">
+      <c r="A5527" s="1"/>
+    </row>
+    <row r="5528" spans="1:1">
+      <c r="A5528" s="1"/>
+    </row>
+    <row r="5529" spans="1:1">
+      <c r="A5529" s="1"/>
+    </row>
+    <row r="5530" spans="1:1">
+      <c r="A5530" s="1"/>
+    </row>
+    <row r="5531" spans="1:1">
+      <c r="A5531" s="1"/>
+    </row>
+    <row r="5532" spans="1:1">
+      <c r="A5532" s="1"/>
+    </row>
+    <row r="5533" spans="1:1">
+      <c r="A5533" s="1"/>
+    </row>
+    <row r="5534" spans="1:1">
+      <c r="A5534" s="1"/>
+    </row>
+    <row r="5535" spans="1:1">
+      <c r="A5535" s="1"/>
+    </row>
+    <row r="5536" spans="1:1">
+      <c r="A5536" s="1"/>
+    </row>
+    <row r="5537" spans="1:1">
+      <c r="A5537" s="1"/>
+    </row>
+    <row r="5538" spans="1:1">
+      <c r="A5538" s="1"/>
+    </row>
+    <row r="5539" spans="1:1">
+      <c r="A5539" s="1"/>
+    </row>
+    <row r="5540" spans="1:1">
+      <c r="A5540" s="1"/>
+    </row>
+    <row r="5541" spans="1:1">
+      <c r="A5541" s="1"/>
+    </row>
+    <row r="5542" spans="1:1">
+      <c r="A5542" s="1"/>
+    </row>
+    <row r="5543" spans="1:1">
+      <c r="A5543" s="1"/>
+    </row>
+    <row r="5544" spans="1:1">
+      <c r="A5544" s="1"/>
+    </row>
+    <row r="5545" spans="1:1">
+      <c r="A5545" s="1"/>
+    </row>
+    <row r="5546" spans="1:1">
+      <c r="A5546" s="1"/>
+    </row>
+    <row r="5547" spans="1:1">
+      <c r="A5547" s="1"/>
+    </row>
+    <row r="5548" spans="1:1">
+      <c r="A5548" s="1"/>
+    </row>
+    <row r="5549" spans="1:1">
+      <c r="A5549" s="1"/>
+    </row>
+    <row r="5550" spans="1:1">
+      <c r="A5550" s="1"/>
+    </row>
+    <row r="5551" spans="1:1">
+      <c r="A5551" s="1"/>
+    </row>
+    <row r="5552" spans="1:1">
+      <c r="A5552" s="1"/>
+    </row>
+    <row r="5553" spans="1:1">
+      <c r="A5553" s="1"/>
+    </row>
+    <row r="5554" spans="1:1">
+      <c r="A5554" s="1"/>
+    </row>
+    <row r="5555" spans="1:1">
+      <c r="A5555" s="1"/>
+    </row>
+    <row r="5556" spans="1:1">
+      <c r="A5556" s="1"/>
+    </row>
+    <row r="5557" spans="1:1">
+      <c r="A5557" s="1"/>
+    </row>
+    <row r="5558" spans="1:1">
+      <c r="A5558" s="1"/>
+    </row>
+    <row r="5559" spans="1:1">
+      <c r="A5559" s="1"/>
+    </row>
+    <row r="5560" spans="1:1">
+      <c r="A5560" s="1"/>
+    </row>
+    <row r="5561" spans="1:1">
+      <c r="A5561" s="1"/>
+    </row>
+    <row r="5562" spans="1:1">
+      <c r="A5562" s="1"/>
+    </row>
+    <row r="5563" spans="1:1">
+      <c r="A5563" s="1"/>
+    </row>
+    <row r="5564" spans="1:1">
+      <c r="A5564" s="1"/>
+    </row>
+    <row r="5565" spans="1:1">
+      <c r="A5565" s="1"/>
+    </row>
+    <row r="5566" spans="1:1">
+      <c r="A5566" s="1"/>
+    </row>
+    <row r="5567" spans="1:1">
+      <c r="A5567" s="1"/>
+    </row>
+    <row r="5568" spans="1:1">
+      <c r="A5568" s="1"/>
+    </row>
+    <row r="5569" spans="1:1">
+      <c r="A5569" s="1"/>
+    </row>
+    <row r="5570" spans="1:1">
+      <c r="A5570" s="1"/>
+    </row>
+    <row r="5571" spans="1:1">
+      <c r="A5571" s="1"/>
+    </row>
+    <row r="5572" spans="1:1">
+      <c r="A5572" s="1"/>
+    </row>
+    <row r="5573" spans="1:1">
+      <c r="A5573" s="1"/>
+    </row>
+    <row r="5574" spans="1:1">
+      <c r="A5574" s="1"/>
+    </row>
+    <row r="5575" spans="1:1">
+      <c r="A5575" s="1"/>
+    </row>
+    <row r="5576" spans="1:1">
+      <c r="A5576" s="1"/>
+    </row>
+    <row r="5577" spans="1:1">
+      <c r="A5577" s="1"/>
+    </row>
+    <row r="5578" spans="1:1">
+      <c r="A5578" s="1"/>
+    </row>
+    <row r="5579" spans="1:1">
+      <c r="A5579" s="1"/>
+    </row>
+    <row r="5580" spans="1:1">
+      <c r="A5580" s="1"/>
+    </row>
+    <row r="5581" spans="1:1">
+      <c r="A5581" s="1"/>
+    </row>
+    <row r="5582" spans="1:1">
+      <c r="A5582" s="1"/>
+    </row>
+    <row r="5583" spans="1:1">
+      <c r="A5583" s="1"/>
+    </row>
+    <row r="5584" spans="1:1">
+      <c r="A5584" s="1"/>
+    </row>
+    <row r="5585" spans="1:1">
+      <c r="A5585" s="1"/>
+    </row>
+    <row r="5586" spans="1:1">
+      <c r="A5586" s="1"/>
+    </row>
+    <row r="5587" spans="1:1">
+      <c r="A5587" s="1"/>
+    </row>
+    <row r="5588" spans="1:1">
+      <c r="A5588" s="1"/>
+    </row>
+    <row r="5589" spans="1:1">
+      <c r="A5589" s="1"/>
+    </row>
+    <row r="5590" spans="1:1">
+      <c r="A5590" s="1"/>
+    </row>
+    <row r="5591" spans="1:1">
+      <c r="A5591" s="1"/>
+    </row>
+    <row r="5592" spans="1:1">
+      <c r="A5592" s="1"/>
+    </row>
+    <row r="5593" spans="1:1">
+      <c r="A5593" s="1"/>
+    </row>
+    <row r="5594" spans="1:1">
+      <c r="A5594" s="1"/>
+    </row>
+    <row r="5595" spans="1:1">
+      <c r="A5595" s="1"/>
+    </row>
+    <row r="5596" spans="1:1">
+      <c r="A5596" s="1"/>
+    </row>
+    <row r="5597" spans="1:1">
+      <c r="A5597" s="1"/>
+    </row>
+    <row r="5598" spans="1:1">
+      <c r="A5598" s="1"/>
+    </row>
+    <row r="5599" spans="1:1">
+      <c r="A5599" s="1"/>
+    </row>
+    <row r="5600" spans="1:1">
+      <c r="A5600" s="1"/>
+    </row>
+    <row r="5601" spans="1:1">
+      <c r="A5601" s="1"/>
+    </row>
+    <row r="5602" spans="1:1">
+      <c r="A5602" s="1"/>
+    </row>
+    <row r="5603" spans="1:1">
+      <c r="A5603" s="1"/>
+    </row>
+    <row r="5604" spans="1:1">
+      <c r="A5604" s="1"/>
+    </row>
+    <row r="5605" spans="1:1">
+      <c r="A5605" s="1"/>
+    </row>
+    <row r="5606" spans="1:1">
+      <c r="A5606" s="1"/>
+    </row>
+    <row r="5607" spans="1:1">
+      <c r="A5607" s="1"/>
+    </row>
+    <row r="5608" spans="1:1">
+      <c r="A5608" s="1"/>
+    </row>
+    <row r="5609" spans="1:1">
+      <c r="A5609" s="1"/>
+    </row>
+    <row r="5610" spans="1:1">
+      <c r="A5610" s="1"/>
+    </row>
+    <row r="5611" spans="1:1">
+      <c r="A5611" s="1"/>
+    </row>
+    <row r="5612" spans="1:1">
+      <c r="A5612" s="1"/>
+    </row>
+    <row r="5613" spans="1:1">
+      <c r="A5613" s="1"/>
+    </row>
+    <row r="5614" spans="1:1">
+      <c r="A5614" s="1"/>
+    </row>
+    <row r="5615" spans="1:1">
+      <c r="A5615" s="1"/>
+    </row>
+    <row r="5616" spans="1:1">
+      <c r="A5616" s="1"/>
+    </row>
+    <row r="5617" spans="1:1">
+      <c r="A5617" s="1"/>
+    </row>
+    <row r="5618" spans="1:1">
+      <c r="A5618" s="1"/>
+    </row>
+    <row r="5619" spans="1:1">
+      <c r="A5619" s="1"/>
+    </row>
+    <row r="5620" spans="1:1">
+      <c r="A5620" s="1"/>
+    </row>
+    <row r="5621" spans="1:1">
+      <c r="A5621" s="1"/>
+    </row>
+    <row r="5622" spans="1:1">
+      <c r="A5622" s="1"/>
+    </row>
+    <row r="5623" spans="1:1">
+      <c r="A5623" s="1"/>
+    </row>
+    <row r="5624" spans="1:1">
+      <c r="A5624" s="1"/>
+    </row>
+    <row r="5625" spans="1:1">
+      <c r="A5625" s="1"/>
+    </row>
+    <row r="5626" spans="1:1">
+      <c r="A5626" s="1"/>
+    </row>
+    <row r="5627" spans="1:1">
+      <c r="A5627" s="1"/>
+    </row>
+    <row r="5628" spans="1:1">
+      <c r="A5628" s="1"/>
+    </row>
+    <row r="5629" spans="1:1">
+      <c r="A5629" s="1"/>
+    </row>
+    <row r="5630" spans="1:1">
+      <c r="A5630" s="1"/>
+    </row>
+    <row r="5631" spans="1:1">
+      <c r="A5631" s="1"/>
+    </row>
+    <row r="5632" spans="1:1">
+      <c r="A5632" s="1"/>
+    </row>
+    <row r="5633" spans="1:1">
+      <c r="A5633" s="1"/>
+    </row>
+    <row r="5634" spans="1:1">
+      <c r="A5634" s="1"/>
+    </row>
+    <row r="5635" spans="1:1">
+      <c r="A5635" s="1"/>
+    </row>
+    <row r="5636" spans="1:1">
+      <c r="A5636" s="1"/>
+    </row>
+    <row r="5637" spans="1:1">
+      <c r="A5637" s="1"/>
+    </row>
+    <row r="5638" spans="1:1">
+      <c r="A5638" s="1"/>
+    </row>
+    <row r="5639" spans="1:1">
+      <c r="A5639" s="1"/>
+    </row>
+    <row r="5640" spans="1:1">
+      <c r="A5640" s="1"/>
+    </row>
+    <row r="5641" spans="1:1">
+      <c r="A5641" s="1"/>
+    </row>
+    <row r="5642" spans="1:1">
+      <c r="A5642" s="1"/>
+    </row>
+    <row r="5643" spans="1:1">
+      <c r="A5643" s="1"/>
+    </row>
+    <row r="5644" spans="1:1">
+      <c r="A5644" s="1"/>
+    </row>
+    <row r="5645" spans="1:1">
+      <c r="A5645" s="1"/>
+    </row>
+    <row r="5646" spans="1:1">
+      <c r="A5646" s="1"/>
+    </row>
+    <row r="5647" spans="1:1">
+      <c r="A5647" s="1"/>
+    </row>
+    <row r="5648" spans="1:1">
+      <c r="A5648" s="1"/>
+    </row>
+    <row r="5649" spans="1:1">
+      <c r="A5649" s="1"/>
+    </row>
+    <row r="5650" spans="1:1">
+      <c r="A5650" s="1"/>
+    </row>
+    <row r="5651" spans="1:1">
+      <c r="A5651" s="1"/>
+    </row>
+    <row r="5652" spans="1:1">
+      <c r="A5652" s="1"/>
+    </row>
+    <row r="5653" spans="1:1">
+      <c r="A5653" s="1"/>
+    </row>
+    <row r="5654" spans="1:1">
+      <c r="A5654" s="1"/>
+    </row>
+    <row r="5655" spans="1:1">
+      <c r="A5655" s="1"/>
+    </row>
+    <row r="5656" spans="1:1">
+      <c r="A5656" s="1"/>
+    </row>
+    <row r="5657" spans="1:1">
+      <c r="A5657" s="1"/>
+    </row>
+    <row r="5658" spans="1:1">
+      <c r="A5658" s="1"/>
+    </row>
+    <row r="5659" spans="1:1">
+      <c r="A5659" s="1"/>
+    </row>
+    <row r="5660" spans="1:1">
+      <c r="A5660" s="1"/>
+    </row>
+    <row r="5661" spans="1:1">
+      <c r="A5661" s="1"/>
+    </row>
+    <row r="5662" spans="1:1">
+      <c r="A5662" s="1"/>
+    </row>
+    <row r="5663" spans="1:1">
+      <c r="A5663" s="1"/>
+    </row>
+    <row r="5664" spans="1:1">
+      <c r="A5664" s="1"/>
+    </row>
+    <row r="5665" spans="1:1">
+      <c r="A5665" s="1"/>
+    </row>
+    <row r="5666" spans="1:1">
+      <c r="A5666" s="1"/>
+    </row>
+    <row r="5667" spans="1:1">
+      <c r="A5667" s="1"/>
+    </row>
+    <row r="5668" spans="1:1">
+      <c r="A5668" s="1"/>
+    </row>
+    <row r="5669" spans="1:1">
+      <c r="A5669" s="1"/>
+    </row>
+    <row r="5670" spans="1:1">
+      <c r="A5670" s="1"/>
+    </row>
+    <row r="5671" spans="1:1">
+      <c r="A5671" s="1"/>
+    </row>
+    <row r="5672" spans="1:1">
+      <c r="A5672" s="1"/>
+    </row>
+    <row r="5673" spans="1:1">
+      <c r="A5673" s="1"/>
+    </row>
+    <row r="5674" spans="1:1">
+      <c r="A5674" s="1"/>
+    </row>
+    <row r="5675" spans="1:1">
+      <c r="A5675" s="1"/>
+    </row>
+    <row r="5676" spans="1:1">
+      <c r="A5676" s="1"/>
+    </row>
+    <row r="5677" spans="1:1">
+      <c r="A5677" s="1"/>
+    </row>
+    <row r="5678" spans="1:1">
+      <c r="A5678" s="1"/>
+    </row>
+    <row r="5679" spans="1:1">
+      <c r="A5679" s="1"/>
+    </row>
+    <row r="5680" spans="1:1">
+      <c r="A5680" s="1"/>
+    </row>
+    <row r="5681" spans="1:1">
+      <c r="A5681" s="1"/>
+    </row>
+    <row r="5682" spans="1:1">
+      <c r="A5682" s="1"/>
+    </row>
+    <row r="5683" spans="1:1">
+      <c r="A5683" s="1"/>
+    </row>
+    <row r="5684" spans="1:1">
+      <c r="A5684" s="1"/>
+    </row>
+    <row r="5685" spans="1:1">
+      <c r="A5685" s="1"/>
+    </row>
+    <row r="5686" spans="1:1">
+      <c r="A5686" s="1"/>
+    </row>
+    <row r="5687" spans="1:1">
+      <c r="A5687" s="1"/>
+    </row>
+    <row r="5688" spans="1:1">
+      <c r="A5688" s="1"/>
+    </row>
+    <row r="5689" spans="1:1">
+      <c r="A5689" s="1"/>
+    </row>
+    <row r="5690" spans="1:1">
+      <c r="A5690" s="1"/>
+    </row>
+    <row r="5691" spans="1:1">
+      <c r="A5691" s="1"/>
+    </row>
+    <row r="5692" spans="1:1">
+      <c r="A5692" s="1"/>
+    </row>
+    <row r="5693" spans="1:1">
+      <c r="A5693" s="1"/>
+    </row>
+    <row r="5694" spans="1:1">
+      <c r="A5694" s="1"/>
+    </row>
+    <row r="5695" spans="1:1">
+      <c r="A5695" s="1"/>
+    </row>
+    <row r="5696" spans="1:1">
+      <c r="A5696" s="1"/>
+    </row>
+    <row r="5697" spans="1:1">
+      <c r="A5697" s="1"/>
+    </row>
+    <row r="5698" spans="1:1">
+      <c r="A5698" s="1"/>
+    </row>
+    <row r="5699" spans="1:1">
+      <c r="A5699" s="1"/>
+    </row>
+    <row r="5700" spans="1:1">
+      <c r="A5700" s="1"/>
+    </row>
+    <row r="5701" spans="1:1">
+      <c r="A5701" s="1"/>
+    </row>
+    <row r="5702" spans="1:1">
+      <c r="A5702" s="1"/>
+    </row>
+    <row r="5703" spans="1:1">
+      <c r="A5703" s="1"/>
+    </row>
+    <row r="5704" spans="1:1">
+      <c r="A5704" s="1"/>
+    </row>
+    <row r="5705" spans="1:1">
+      <c r="A5705" s="1"/>
+    </row>
+    <row r="5706" spans="1:1">
+      <c r="A5706" s="1"/>
+    </row>
+    <row r="5707" spans="1:1">
+      <c r="A5707" s="1"/>
+    </row>
+    <row r="5708" spans="1:1">
+      <c r="A5708" s="1"/>
+    </row>
+    <row r="5709" spans="1:1">
+      <c r="A5709" s="1"/>
+    </row>
+    <row r="5710" spans="1:1">
+      <c r="A5710" s="1"/>
+    </row>
+    <row r="5711" spans="1:1">
+      <c r="A5711" s="1"/>
+    </row>
+    <row r="5712" spans="1:1">
+      <c r="A5712" s="1"/>
+    </row>
+    <row r="5713" spans="1:1">
+      <c r="A5713" s="1"/>
+    </row>
+    <row r="5714" spans="1:1">
+      <c r="A5714" s="1"/>
+    </row>
+    <row r="5715" spans="1:1">
+      <c r="A5715" s="1"/>
+    </row>
+    <row r="5716" spans="1:1">
+      <c r="A5716" s="1"/>
+    </row>
+    <row r="5717" spans="1:1">
+      <c r="A5717" s="1"/>
+    </row>
+    <row r="5718" spans="1:1">
+      <c r="A5718" s="1"/>
+    </row>
+    <row r="5719" spans="1:1">
+      <c r="A5719" s="1"/>
+    </row>
+    <row r="5720" spans="1:1">
+      <c r="A5720" s="1"/>
+    </row>
+    <row r="5721" spans="1:1">
+      <c r="A5721" s="1"/>
+    </row>
+    <row r="5722" spans="1:1">
+      <c r="A5722" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -69726,11 +74213,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -70335,6 +74820,14 @@
       </c>
       <c r="B75">
         <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B76">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/dataPackages/dataPackagesInDryad.xlsx
+++ b/dataPackages/dataPackagesInDryad.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16900" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SubmissionDates" sheetId="2" r:id="rId1"/>
@@ -13,9 +13,7 @@
     <sheet name="PerMonthChart" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="dryadSubmitDates" localSheetId="0">SubmissionDates!#REF!</definedName>
-    <definedName name="dryadSubmitDates_1" localSheetId="0">SubmissionDates!$A$1:$A$5075</definedName>
-    <definedName name="x" localSheetId="0">SubmissionDates!$A$5340:$A$5529</definedName>
+    <definedName name="dryadSubmitDates_2" localSheetId="0">SubmissionDates!$A$1:$A$5325</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -36,13 +34,20 @@
     </textPr>
   </connection>
   <connection id="2" name="dryadSubmitDates.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:ryan:lib:dryad-data:dataPackages:dryadSubmitDates.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="dryadSubmitDates.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:ryan:lib:dryad-data:dataPackages:dryadSubmitDates.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="x.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="x.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ryan:lib:dryad-data:dataPackages:x.txt">
       <textFields>
         <textField/>
@@ -63,7 +68,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,10 +167,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SubmissionDates!$A$1:$A$5075</c:f>
+              <c:f>SubmissionDates!$A$1:$A$5325</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="5075"/>
+                <c:ptCount val="5325"/>
                 <c:pt idx="0">
                   <c:v>39422.0</c:v>
                 </c:pt>
@@ -13227,7 +13231,7 @@
                   <c:v>41605.0</c:v>
                 </c:pt>
                 <c:pt idx="4353">
-                  <c:v>41605.0</c:v>
+                  <c:v>41607.0</c:v>
                 </c:pt>
                 <c:pt idx="4354">
                   <c:v>41607.0</c:v>
@@ -13236,7 +13240,7 @@
                   <c:v>41607.0</c:v>
                 </c:pt>
                 <c:pt idx="4356">
-                  <c:v>41607.0</c:v>
+                  <c:v>41610.0</c:v>
                 </c:pt>
                 <c:pt idx="4357">
                   <c:v>41610.0</c:v>
@@ -13248,7 +13252,7 @@
                   <c:v>41610.0</c:v>
                 </c:pt>
                 <c:pt idx="4360">
-                  <c:v>41610.0</c:v>
+                  <c:v>41611.0</c:v>
                 </c:pt>
                 <c:pt idx="4361">
                   <c:v>41611.0</c:v>
@@ -13275,7 +13279,7 @@
                   <c:v>41611.0</c:v>
                 </c:pt>
                 <c:pt idx="4369">
-                  <c:v>41611.0</c:v>
+                  <c:v>41612.0</c:v>
                 </c:pt>
                 <c:pt idx="4370">
                   <c:v>41612.0</c:v>
@@ -13287,7 +13291,7 @@
                   <c:v>41612.0</c:v>
                 </c:pt>
                 <c:pt idx="4373">
-                  <c:v>41612.0</c:v>
+                  <c:v>41613.0</c:v>
                 </c:pt>
                 <c:pt idx="4374">
                   <c:v>41613.0</c:v>
@@ -13332,13 +13336,13 @@
                   <c:v>41613.0</c:v>
                 </c:pt>
                 <c:pt idx="4388">
-                  <c:v>41613.0</c:v>
+                  <c:v>41614.0</c:v>
                 </c:pt>
                 <c:pt idx="4389">
                   <c:v>41614.0</c:v>
                 </c:pt>
                 <c:pt idx="4390">
-                  <c:v>41614.0</c:v>
+                  <c:v>41617.0</c:v>
                 </c:pt>
                 <c:pt idx="4391">
                   <c:v>41617.0</c:v>
@@ -13386,7 +13390,7 @@
                   <c:v>41617.0</c:v>
                 </c:pt>
                 <c:pt idx="4406">
-                  <c:v>41617.0</c:v>
+                  <c:v>41618.0</c:v>
                 </c:pt>
                 <c:pt idx="4407">
                   <c:v>41618.0</c:v>
@@ -13452,7 +13456,7 @@
                   <c:v>41618.0</c:v>
                 </c:pt>
                 <c:pt idx="4428">
-                  <c:v>41618.0</c:v>
+                  <c:v>41619.0</c:v>
                 </c:pt>
                 <c:pt idx="4429">
                   <c:v>41619.0</c:v>
@@ -13476,7 +13480,7 @@
                   <c:v>41619.0</c:v>
                 </c:pt>
                 <c:pt idx="4436">
-                  <c:v>41619.0</c:v>
+                  <c:v>41620.0</c:v>
                 </c:pt>
                 <c:pt idx="4437">
                   <c:v>41620.0</c:v>
@@ -13491,7 +13495,7 @@
                   <c:v>41620.0</c:v>
                 </c:pt>
                 <c:pt idx="4441">
-                  <c:v>41620.0</c:v>
+                  <c:v>41621.0</c:v>
                 </c:pt>
                 <c:pt idx="4442">
                   <c:v>41621.0</c:v>
@@ -13515,7 +13519,7 @@
                   <c:v>41621.0</c:v>
                 </c:pt>
                 <c:pt idx="4449">
-                  <c:v>41621.0</c:v>
+                  <c:v>41625.0</c:v>
                 </c:pt>
                 <c:pt idx="4450">
                   <c:v>41625.0</c:v>
@@ -13551,7 +13555,7 @@
                   <c:v>41625.0</c:v>
                 </c:pt>
                 <c:pt idx="4461">
-                  <c:v>41625.0</c:v>
+                  <c:v>41626.0</c:v>
                 </c:pt>
                 <c:pt idx="4462">
                   <c:v>41626.0</c:v>
@@ -13572,7 +13576,7 @@
                   <c:v>41626.0</c:v>
                 </c:pt>
                 <c:pt idx="4468">
-                  <c:v>41626.0</c:v>
+                  <c:v>41627.0</c:v>
                 </c:pt>
                 <c:pt idx="4469">
                   <c:v>41627.0</c:v>
@@ -13584,7 +13588,7 @@
                   <c:v>41627.0</c:v>
                 </c:pt>
                 <c:pt idx="4472">
-                  <c:v>41627.0</c:v>
+                  <c:v>41628.0</c:v>
                 </c:pt>
                 <c:pt idx="4473">
                   <c:v>41628.0</c:v>
@@ -13605,13 +13609,13 @@
                   <c:v>41628.0</c:v>
                 </c:pt>
                 <c:pt idx="4479">
-                  <c:v>41628.0</c:v>
+                  <c:v>41631.0</c:v>
                 </c:pt>
                 <c:pt idx="4480">
                   <c:v>41631.0</c:v>
                 </c:pt>
                 <c:pt idx="4481">
-                  <c:v>41631.0</c:v>
+                  <c:v>41635.0</c:v>
                 </c:pt>
                 <c:pt idx="4482">
                   <c:v>41635.0</c:v>
@@ -13626,13 +13630,13 @@
                   <c:v>41635.0</c:v>
                 </c:pt>
                 <c:pt idx="4486">
-                  <c:v>41635.0</c:v>
+                  <c:v>41638.0</c:v>
                 </c:pt>
                 <c:pt idx="4487">
-                  <c:v>41638.0</c:v>
+                  <c:v>41640.0</c:v>
                 </c:pt>
                 <c:pt idx="4488">
-                  <c:v>41640.0</c:v>
+                  <c:v>41641.0</c:v>
                 </c:pt>
                 <c:pt idx="4489">
                   <c:v>41641.0</c:v>
@@ -13665,7 +13669,7 @@
                   <c:v>41641.0</c:v>
                 </c:pt>
                 <c:pt idx="4499">
-                  <c:v>41641.0</c:v>
+                  <c:v>41642.0</c:v>
                 </c:pt>
                 <c:pt idx="4500">
                   <c:v>41642.0</c:v>
@@ -13680,7 +13684,7 @@
                   <c:v>41642.0</c:v>
                 </c:pt>
                 <c:pt idx="4504">
-                  <c:v>41642.0</c:v>
+                  <c:v>41645.0</c:v>
                 </c:pt>
                 <c:pt idx="4505">
                   <c:v>41645.0</c:v>
@@ -13722,7 +13726,7 @@
                   <c:v>41645.0</c:v>
                 </c:pt>
                 <c:pt idx="4518">
-                  <c:v>41645.0</c:v>
+                  <c:v>41646.0</c:v>
                 </c:pt>
                 <c:pt idx="4519">
                   <c:v>41646.0</c:v>
@@ -13764,7 +13768,7 @@
                   <c:v>41646.0</c:v>
                 </c:pt>
                 <c:pt idx="4532">
-                  <c:v>41646.0</c:v>
+                  <c:v>41647.0</c:v>
                 </c:pt>
                 <c:pt idx="4533">
                   <c:v>41647.0</c:v>
@@ -13794,7 +13798,7 @@
                   <c:v>41647.0</c:v>
                 </c:pt>
                 <c:pt idx="4542">
-                  <c:v>41647.0</c:v>
+                  <c:v>41648.0</c:v>
                 </c:pt>
                 <c:pt idx="4543">
                   <c:v>41648.0</c:v>
@@ -13815,7 +13819,7 @@
                   <c:v>41648.0</c:v>
                 </c:pt>
                 <c:pt idx="4549">
-                  <c:v>41648.0</c:v>
+                  <c:v>41649.0</c:v>
                 </c:pt>
                 <c:pt idx="4550">
                   <c:v>41649.0</c:v>
@@ -13836,7 +13840,7 @@
                   <c:v>41649.0</c:v>
                 </c:pt>
                 <c:pt idx="4556">
-                  <c:v>41649.0</c:v>
+                  <c:v>41652.0</c:v>
                 </c:pt>
                 <c:pt idx="4557">
                   <c:v>41652.0</c:v>
@@ -13851,7 +13855,7 @@
                   <c:v>41652.0</c:v>
                 </c:pt>
                 <c:pt idx="4561">
-                  <c:v>41652.0</c:v>
+                  <c:v>41653.0</c:v>
                 </c:pt>
                 <c:pt idx="4562">
                   <c:v>41653.0</c:v>
@@ -13905,7 +13909,7 @@
                   <c:v>41653.0</c:v>
                 </c:pt>
                 <c:pt idx="4579">
-                  <c:v>41653.0</c:v>
+                  <c:v>41654.0</c:v>
                 </c:pt>
                 <c:pt idx="4580">
                   <c:v>41654.0</c:v>
@@ -13944,7 +13948,7 @@
                   <c:v>41654.0</c:v>
                 </c:pt>
                 <c:pt idx="4592">
-                  <c:v>41654.0</c:v>
+                  <c:v>41655.0</c:v>
                 </c:pt>
                 <c:pt idx="4593">
                   <c:v>41655.0</c:v>
@@ -13956,7 +13960,7 @@
                   <c:v>41655.0</c:v>
                 </c:pt>
                 <c:pt idx="4596">
-                  <c:v>41655.0</c:v>
+                  <c:v>41656.0</c:v>
                 </c:pt>
                 <c:pt idx="4597">
                   <c:v>41656.0</c:v>
@@ -13968,7 +13972,7 @@
                   <c:v>41656.0</c:v>
                 </c:pt>
                 <c:pt idx="4600">
-                  <c:v>41656.0</c:v>
+                  <c:v>41660.0</c:v>
                 </c:pt>
                 <c:pt idx="4601">
                   <c:v>41660.0</c:v>
@@ -14028,7 +14032,7 @@
                   <c:v>41660.0</c:v>
                 </c:pt>
                 <c:pt idx="4620">
-                  <c:v>41660.0</c:v>
+                  <c:v>41661.0</c:v>
                 </c:pt>
                 <c:pt idx="4621">
                   <c:v>41661.0</c:v>
@@ -14067,7 +14071,7 @@
                   <c:v>41661.0</c:v>
                 </c:pt>
                 <c:pt idx="4633">
-                  <c:v>41661.0</c:v>
+                  <c:v>41662.0</c:v>
                 </c:pt>
                 <c:pt idx="4634">
                   <c:v>41662.0</c:v>
@@ -14085,7 +14089,7 @@
                   <c:v>41662.0</c:v>
                 </c:pt>
                 <c:pt idx="4639">
-                  <c:v>41662.0</c:v>
+                  <c:v>41663.0</c:v>
                 </c:pt>
                 <c:pt idx="4640">
                   <c:v>41663.0</c:v>
@@ -14097,7 +14101,7 @@
                   <c:v>41663.0</c:v>
                 </c:pt>
                 <c:pt idx="4643">
-                  <c:v>41663.0</c:v>
+                  <c:v>41666.0</c:v>
                 </c:pt>
                 <c:pt idx="4644">
                   <c:v>41666.0</c:v>
@@ -14157,7 +14161,7 @@
                   <c:v>41666.0</c:v>
                 </c:pt>
                 <c:pt idx="4663">
-                  <c:v>41666.0</c:v>
+                  <c:v>41667.0</c:v>
                 </c:pt>
                 <c:pt idx="4664">
                   <c:v>41667.0</c:v>
@@ -14190,7 +14194,7 @@
                   <c:v>41667.0</c:v>
                 </c:pt>
                 <c:pt idx="4674">
-                  <c:v>41667.0</c:v>
+                  <c:v>41668.0</c:v>
                 </c:pt>
                 <c:pt idx="4675">
                   <c:v>41668.0</c:v>
@@ -14220,7 +14224,7 @@
                   <c:v>41668.0</c:v>
                 </c:pt>
                 <c:pt idx="4684">
-                  <c:v>41668.0</c:v>
+                  <c:v>41669.0</c:v>
                 </c:pt>
                 <c:pt idx="4685">
                   <c:v>41669.0</c:v>
@@ -14235,7 +14239,7 @@
                   <c:v>41669.0</c:v>
                 </c:pt>
                 <c:pt idx="4689">
-                  <c:v>41669.0</c:v>
+                  <c:v>41670.0</c:v>
                 </c:pt>
                 <c:pt idx="4690">
                   <c:v>41670.0</c:v>
@@ -14247,7 +14251,7 @@
                   <c:v>41670.0</c:v>
                 </c:pt>
                 <c:pt idx="4693">
-                  <c:v>41670.0</c:v>
+                  <c:v>41673.0</c:v>
                 </c:pt>
                 <c:pt idx="4694">
                   <c:v>41673.0</c:v>
@@ -14295,7 +14299,7 @@
                   <c:v>41673.0</c:v>
                 </c:pt>
                 <c:pt idx="4709">
-                  <c:v>41673.0</c:v>
+                  <c:v>41674.0</c:v>
                 </c:pt>
                 <c:pt idx="4710">
                   <c:v>41674.0</c:v>
@@ -14316,7 +14320,7 @@
                   <c:v>41674.0</c:v>
                 </c:pt>
                 <c:pt idx="4716">
-                  <c:v>41674.0</c:v>
+                  <c:v>41675.0</c:v>
                 </c:pt>
                 <c:pt idx="4717">
                   <c:v>41675.0</c:v>
@@ -14370,7 +14374,7 @@
                   <c:v>41675.0</c:v>
                 </c:pt>
                 <c:pt idx="4734">
-                  <c:v>41675.0</c:v>
+                  <c:v>41676.0</c:v>
                 </c:pt>
                 <c:pt idx="4735">
                   <c:v>41676.0</c:v>
@@ -14418,7 +14422,7 @@
                   <c:v>41676.0</c:v>
                 </c:pt>
                 <c:pt idx="4750">
-                  <c:v>41676.0</c:v>
+                  <c:v>41677.0</c:v>
                 </c:pt>
                 <c:pt idx="4751">
                   <c:v>41677.0</c:v>
@@ -14436,7 +14440,7 @@
                   <c:v>41677.0</c:v>
                 </c:pt>
                 <c:pt idx="4756">
-                  <c:v>41677.0</c:v>
+                  <c:v>41680.0</c:v>
                 </c:pt>
                 <c:pt idx="4757">
                   <c:v>41680.0</c:v>
@@ -14478,7 +14482,7 @@
                   <c:v>41680.0</c:v>
                 </c:pt>
                 <c:pt idx="4770">
-                  <c:v>41680.0</c:v>
+                  <c:v>41681.0</c:v>
                 </c:pt>
                 <c:pt idx="4771">
                   <c:v>41681.0</c:v>
@@ -14514,13 +14518,13 @@
                   <c:v>41681.0</c:v>
                 </c:pt>
                 <c:pt idx="4782">
-                  <c:v>41681.0</c:v>
+                  <c:v>41682.0</c:v>
                 </c:pt>
                 <c:pt idx="4783">
                   <c:v>41682.0</c:v>
                 </c:pt>
                 <c:pt idx="4784">
-                  <c:v>41682.0</c:v>
+                  <c:v>41683.0</c:v>
                 </c:pt>
                 <c:pt idx="4785">
                   <c:v>41683.0</c:v>
@@ -14541,7 +14545,7 @@
                   <c:v>41683.0</c:v>
                 </c:pt>
                 <c:pt idx="4791">
-                  <c:v>41683.0</c:v>
+                  <c:v>41684.0</c:v>
                 </c:pt>
                 <c:pt idx="4792">
                   <c:v>41684.0</c:v>
@@ -14550,7 +14554,7 @@
                   <c:v>41684.0</c:v>
                 </c:pt>
                 <c:pt idx="4794">
-                  <c:v>41684.0</c:v>
+                  <c:v>41687.0</c:v>
                 </c:pt>
                 <c:pt idx="4795">
                   <c:v>41687.0</c:v>
@@ -14580,7 +14584,7 @@
                   <c:v>41687.0</c:v>
                 </c:pt>
                 <c:pt idx="4804">
-                  <c:v>41687.0</c:v>
+                  <c:v>41688.0</c:v>
                 </c:pt>
                 <c:pt idx="4805">
                   <c:v>41688.0</c:v>
@@ -14613,7 +14617,7 @@
                   <c:v>41688.0</c:v>
                 </c:pt>
                 <c:pt idx="4815">
-                  <c:v>41688.0</c:v>
+                  <c:v>41689.0</c:v>
                 </c:pt>
                 <c:pt idx="4816">
                   <c:v>41689.0</c:v>
@@ -14661,7 +14665,7 @@
                   <c:v>41689.0</c:v>
                 </c:pt>
                 <c:pt idx="4831">
-                  <c:v>41689.0</c:v>
+                  <c:v>41690.0</c:v>
                 </c:pt>
                 <c:pt idx="4832">
                   <c:v>41690.0</c:v>
@@ -14679,7 +14683,7 @@
                   <c:v>41690.0</c:v>
                 </c:pt>
                 <c:pt idx="4837">
-                  <c:v>41690.0</c:v>
+                  <c:v>41691.0</c:v>
                 </c:pt>
                 <c:pt idx="4838">
                   <c:v>41691.0</c:v>
@@ -14694,7 +14698,7 @@
                   <c:v>41691.0</c:v>
                 </c:pt>
                 <c:pt idx="4842">
-                  <c:v>41691.0</c:v>
+                  <c:v>41694.0</c:v>
                 </c:pt>
                 <c:pt idx="4843">
                   <c:v>41694.0</c:v>
@@ -14748,7 +14752,7 @@
                   <c:v>41694.0</c:v>
                 </c:pt>
                 <c:pt idx="4860">
-                  <c:v>41694.0</c:v>
+                  <c:v>41695.0</c:v>
                 </c:pt>
                 <c:pt idx="4861">
                   <c:v>41695.0</c:v>
@@ -14772,7 +14776,7 @@
                   <c:v>41695.0</c:v>
                 </c:pt>
                 <c:pt idx="4868">
-                  <c:v>41695.0</c:v>
+                  <c:v>41696.0</c:v>
                 </c:pt>
                 <c:pt idx="4869">
                   <c:v>41696.0</c:v>
@@ -14802,7 +14806,7 @@
                   <c:v>41696.0</c:v>
                 </c:pt>
                 <c:pt idx="4878">
-                  <c:v>41696.0</c:v>
+                  <c:v>41697.0</c:v>
                 </c:pt>
                 <c:pt idx="4879">
                   <c:v>41697.0</c:v>
@@ -14811,7 +14815,7 @@
                   <c:v>41697.0</c:v>
                 </c:pt>
                 <c:pt idx="4881">
-                  <c:v>41697.0</c:v>
+                  <c:v>41698.0</c:v>
                 </c:pt>
                 <c:pt idx="4882">
                   <c:v>41698.0</c:v>
@@ -14826,7 +14830,7 @@
                   <c:v>41698.0</c:v>
                 </c:pt>
                 <c:pt idx="4886">
-                  <c:v>41698.0</c:v>
+                  <c:v>41701.0</c:v>
                 </c:pt>
                 <c:pt idx="4887">
                   <c:v>41701.0</c:v>
@@ -14841,7 +14845,7 @@
                   <c:v>41701.0</c:v>
                 </c:pt>
                 <c:pt idx="4891">
-                  <c:v>41701.0</c:v>
+                  <c:v>41702.0</c:v>
                 </c:pt>
                 <c:pt idx="4892">
                   <c:v>41702.0</c:v>
@@ -14892,7 +14896,7 @@
                   <c:v>41702.0</c:v>
                 </c:pt>
                 <c:pt idx="4908">
-                  <c:v>41702.0</c:v>
+                  <c:v>41703.0</c:v>
                 </c:pt>
                 <c:pt idx="4909">
                   <c:v>41703.0</c:v>
@@ -14919,7 +14923,7 @@
                   <c:v>41703.0</c:v>
                 </c:pt>
                 <c:pt idx="4917">
-                  <c:v>41703.0</c:v>
+                  <c:v>41704.0</c:v>
                 </c:pt>
                 <c:pt idx="4918">
                   <c:v>41704.0</c:v>
@@ -14940,7 +14944,7 @@
                   <c:v>41704.0</c:v>
                 </c:pt>
                 <c:pt idx="4924">
-                  <c:v>41704.0</c:v>
+                  <c:v>41705.0</c:v>
                 </c:pt>
                 <c:pt idx="4925">
                   <c:v>41705.0</c:v>
@@ -14955,7 +14959,7 @@
                   <c:v>41705.0</c:v>
                 </c:pt>
                 <c:pt idx="4929">
-                  <c:v>41705.0</c:v>
+                  <c:v>41708.0</c:v>
                 </c:pt>
                 <c:pt idx="4930">
                   <c:v>41708.0</c:v>
@@ -14994,7 +14998,7 @@
                   <c:v>41708.0</c:v>
                 </c:pt>
                 <c:pt idx="4942">
-                  <c:v>41708.0</c:v>
+                  <c:v>41709.0</c:v>
                 </c:pt>
                 <c:pt idx="4943">
                   <c:v>41709.0</c:v>
@@ -15024,7 +15028,7 @@
                   <c:v>41709.0</c:v>
                 </c:pt>
                 <c:pt idx="4952">
-                  <c:v>41709.0</c:v>
+                  <c:v>41710.0</c:v>
                 </c:pt>
                 <c:pt idx="4953">
                   <c:v>41710.0</c:v>
@@ -15033,7 +15037,7 @@
                   <c:v>41710.0</c:v>
                 </c:pt>
                 <c:pt idx="4955">
-                  <c:v>41710.0</c:v>
+                  <c:v>41711.0</c:v>
                 </c:pt>
                 <c:pt idx="4956">
                   <c:v>41711.0</c:v>
@@ -15051,7 +15055,7 @@
                   <c:v>41711.0</c:v>
                 </c:pt>
                 <c:pt idx="4961">
-                  <c:v>41711.0</c:v>
+                  <c:v>41712.0</c:v>
                 </c:pt>
                 <c:pt idx="4962">
                   <c:v>41712.0</c:v>
@@ -15060,7 +15064,7 @@
                   <c:v>41712.0</c:v>
                 </c:pt>
                 <c:pt idx="4964">
-                  <c:v>41712.0</c:v>
+                  <c:v>41715.0</c:v>
                 </c:pt>
                 <c:pt idx="4965">
                   <c:v>41715.0</c:v>
@@ -15093,7 +15097,7 @@
                   <c:v>41715.0</c:v>
                 </c:pt>
                 <c:pt idx="4975">
-                  <c:v>41715.0</c:v>
+                  <c:v>41716.0</c:v>
                 </c:pt>
                 <c:pt idx="4976">
                   <c:v>41716.0</c:v>
@@ -15111,7 +15115,7 @@
                   <c:v>41716.0</c:v>
                 </c:pt>
                 <c:pt idx="4981">
-                  <c:v>41716.0</c:v>
+                  <c:v>41717.0</c:v>
                 </c:pt>
                 <c:pt idx="4982">
                   <c:v>41717.0</c:v>
@@ -15156,7 +15160,7 @@
                   <c:v>41717.0</c:v>
                 </c:pt>
                 <c:pt idx="4996">
-                  <c:v>41717.0</c:v>
+                  <c:v>41718.0</c:v>
                 </c:pt>
                 <c:pt idx="4997">
                   <c:v>41718.0</c:v>
@@ -15195,7 +15199,7 @@
                   <c:v>41718.0</c:v>
                 </c:pt>
                 <c:pt idx="5009">
-                  <c:v>41718.0</c:v>
+                  <c:v>41719.0</c:v>
                 </c:pt>
                 <c:pt idx="5010">
                   <c:v>41719.0</c:v>
@@ -15210,7 +15214,7 @@
                   <c:v>41719.0</c:v>
                 </c:pt>
                 <c:pt idx="5014">
-                  <c:v>41719.0</c:v>
+                  <c:v>41722.0</c:v>
                 </c:pt>
                 <c:pt idx="5015">
                   <c:v>41722.0</c:v>
@@ -15243,7 +15247,7 @@
                   <c:v>41722.0</c:v>
                 </c:pt>
                 <c:pt idx="5025">
-                  <c:v>41722.0</c:v>
+                  <c:v>41723.0</c:v>
                 </c:pt>
                 <c:pt idx="5026">
                   <c:v>41723.0</c:v>
@@ -15282,7 +15286,7 @@
                   <c:v>41723.0</c:v>
                 </c:pt>
                 <c:pt idx="5038">
-                  <c:v>41723.0</c:v>
+                  <c:v>41724.0</c:v>
                 </c:pt>
                 <c:pt idx="5039">
                   <c:v>41724.0</c:v>
@@ -15297,7 +15301,7 @@
                   <c:v>41724.0</c:v>
                 </c:pt>
                 <c:pt idx="5043">
-                  <c:v>41724.0</c:v>
+                  <c:v>41725.0</c:v>
                 </c:pt>
                 <c:pt idx="5044">
                   <c:v>41725.0</c:v>
@@ -15339,7 +15343,7 @@
                   <c:v>41725.0</c:v>
                 </c:pt>
                 <c:pt idx="5057">
-                  <c:v>41725.0</c:v>
+                  <c:v>41726.0</c:v>
                 </c:pt>
                 <c:pt idx="5058">
                   <c:v>41726.0</c:v>
@@ -15360,7 +15364,7 @@
                   <c:v>41726.0</c:v>
                 </c:pt>
                 <c:pt idx="5064">
-                  <c:v>41726.0</c:v>
+                  <c:v>41729.0</c:v>
                 </c:pt>
                 <c:pt idx="5065">
                   <c:v>41729.0</c:v>
@@ -15390,17 +15394,767 @@
                   <c:v>41729.0</c:v>
                 </c:pt>
                 <c:pt idx="5074">
-                  <c:v>41729.0</c:v>
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5075">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5076">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5077">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5078">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5079">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5080">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5081">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5082">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="5083">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5084">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5085">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5086">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5087">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5088">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5089">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5090">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5091">
+                  <c:v>41731.0</c:v>
+                </c:pt>
+                <c:pt idx="5092">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5093">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5094">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5095">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5096">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5097">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5098">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5099">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5100">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5101">
+                  <c:v>41732.0</c:v>
+                </c:pt>
+                <c:pt idx="5102">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5103">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5104">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5105">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5106">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5107">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5108">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5109">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5110">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5111">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5112">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5113">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5114">
+                  <c:v>41733.0</c:v>
+                </c:pt>
+                <c:pt idx="5115">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5116">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5117">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5118">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5119">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5120">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5121">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5122">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5123">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5124">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5125">
+                  <c:v>41736.0</c:v>
+                </c:pt>
+                <c:pt idx="5126">
+                  <c:v>41737.0</c:v>
+                </c:pt>
+                <c:pt idx="5127">
+                  <c:v>41737.0</c:v>
+                </c:pt>
+                <c:pt idx="5128">
+                  <c:v>41737.0</c:v>
+                </c:pt>
+                <c:pt idx="5129">
+                  <c:v>41737.0</c:v>
+                </c:pt>
+                <c:pt idx="5130">
+                  <c:v>41738.0</c:v>
+                </c:pt>
+                <c:pt idx="5131">
+                  <c:v>41738.0</c:v>
+                </c:pt>
+                <c:pt idx="5132">
+                  <c:v>41738.0</c:v>
+                </c:pt>
+                <c:pt idx="5133">
+                  <c:v>41738.0</c:v>
+                </c:pt>
+                <c:pt idx="5134">
+                  <c:v>41739.0</c:v>
+                </c:pt>
+                <c:pt idx="5135">
+                  <c:v>41739.0</c:v>
+                </c:pt>
+                <c:pt idx="5136">
+                  <c:v>41739.0</c:v>
+                </c:pt>
+                <c:pt idx="5137">
+                  <c:v>41739.0</c:v>
+                </c:pt>
+                <c:pt idx="5138">
+                  <c:v>41739.0</c:v>
+                </c:pt>
+                <c:pt idx="5139">
+                  <c:v>41740.0</c:v>
+                </c:pt>
+                <c:pt idx="5140">
+                  <c:v>41740.0</c:v>
+                </c:pt>
+                <c:pt idx="5141">
+                  <c:v>41740.0</c:v>
+                </c:pt>
+                <c:pt idx="5142">
+                  <c:v>41740.0</c:v>
+                </c:pt>
+                <c:pt idx="5143">
+                  <c:v>41740.0</c:v>
+                </c:pt>
+                <c:pt idx="5144">
+                  <c:v>41740.0</c:v>
+                </c:pt>
+                <c:pt idx="5145">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5146">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5147">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5148">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5149">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5150">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5151">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5152">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5153">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5154">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5155">
+                  <c:v>41743.0</c:v>
+                </c:pt>
+                <c:pt idx="5156">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5157">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5158">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5159">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5160">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5161">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5162">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5163">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5164">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5165">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5166">
+                  <c:v>41744.0</c:v>
+                </c:pt>
+                <c:pt idx="5167">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5168">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5169">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5170">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5171">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5172">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5173">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5174">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5175">
+                  <c:v>41745.0</c:v>
+                </c:pt>
+                <c:pt idx="5176">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5177">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5178">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5179">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5180">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5181">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5182">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5183">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5184">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5185">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5186">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5187">
+                  <c:v>41746.0</c:v>
+                </c:pt>
+                <c:pt idx="5188">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5189">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5190">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5191">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5192">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5193">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5194">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5195">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5196">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5197">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5198">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5199">
+                  <c:v>41747.0</c:v>
+                </c:pt>
+                <c:pt idx="5200">
+                  <c:v>41750.0</c:v>
+                </c:pt>
+                <c:pt idx="5201">
+                  <c:v>41750.0</c:v>
+                </c:pt>
+                <c:pt idx="5202">
+                  <c:v>41750.0</c:v>
+                </c:pt>
+                <c:pt idx="5203">
+                  <c:v>41750.0</c:v>
+                </c:pt>
+                <c:pt idx="5204">
+                  <c:v>41750.0</c:v>
+                </c:pt>
+                <c:pt idx="5205">
+                  <c:v>41750.0</c:v>
+                </c:pt>
+                <c:pt idx="5206">
+                  <c:v>41750.0</c:v>
+                </c:pt>
+                <c:pt idx="5207">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5208">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5209">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5210">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5211">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5212">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5213">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5214">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5215">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5216">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5217">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5218">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5219">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5220">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5221">
+                  <c:v>41751.0</c:v>
+                </c:pt>
+                <c:pt idx="5222">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5223">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5224">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5225">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5226">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5227">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5228">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5229">
+                  <c:v>41752.0</c:v>
+                </c:pt>
+                <c:pt idx="5230">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5231">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5232">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5233">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5234">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5235">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5236">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5237">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5238">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5239">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5240">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5241">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5242">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5243">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5244">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5245">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5246">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5247">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5248">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5249">
+                  <c:v>41753.0</c:v>
+                </c:pt>
+                <c:pt idx="5250">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5251">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5252">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5253">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5254">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5255">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5256">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5257">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5258">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5259">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5260">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5261">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5262">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5263">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5264">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5265">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5266">
+                  <c:v>41754.0</c:v>
+                </c:pt>
+                <c:pt idx="5267">
+                  <c:v>41755.0</c:v>
+                </c:pt>
+                <c:pt idx="5268">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5269">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5270">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5271">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5272">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5273">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5274">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5275">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5276">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5277">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5278">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5279">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5280">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5281">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5282">
+                  <c:v>41757.0</c:v>
+                </c:pt>
+                <c:pt idx="5283">
+                  <c:v>41758.0</c:v>
+                </c:pt>
+                <c:pt idx="5284">
+                  <c:v>41758.0</c:v>
+                </c:pt>
+                <c:pt idx="5285">
+                  <c:v>41758.0</c:v>
+                </c:pt>
+                <c:pt idx="5286">
+                  <c:v>41758.0</c:v>
+                </c:pt>
+                <c:pt idx="5287">
+                  <c:v>41758.0</c:v>
+                </c:pt>
+                <c:pt idx="5288">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5289">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5290">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5291">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5292">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5293">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5294">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5295">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5296">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5297">
+                  <c:v>41759.0</c:v>
+                </c:pt>
+                <c:pt idx="5298">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5299">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5300">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5301">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5302">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5303">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5304">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5305">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="5306">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5307">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5308">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5309">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5310">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5311">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5312">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5313">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5314">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5315">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5316">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5317">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5318">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5319">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5320">
+                  <c:v>41761.0</c:v>
+                </c:pt>
+                <c:pt idx="5321">
+                  <c:v>41764.0</c:v>
+                </c:pt>
+                <c:pt idx="5322">
+                  <c:v>41764.0</c:v>
+                </c:pt>
+                <c:pt idx="5323">
+                  <c:v>41764.0</c:v>
+                </c:pt>
+                <c:pt idx="5324">
+                  <c:v>41764.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SubmissionDates!$B$1:$B$5075</c:f>
+              <c:f>SubmissionDates!$B$1:$B$5325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5075"/>
+                <c:ptCount val="5325"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -30625,6 +31379,756 @@
                 </c:pt>
                 <c:pt idx="5074">
                   <c:v>5075.0</c:v>
+                </c:pt>
+                <c:pt idx="5075">
+                  <c:v>5076.0</c:v>
+                </c:pt>
+                <c:pt idx="5076">
+                  <c:v>5077.0</c:v>
+                </c:pt>
+                <c:pt idx="5077">
+                  <c:v>5078.0</c:v>
+                </c:pt>
+                <c:pt idx="5078">
+                  <c:v>5079.0</c:v>
+                </c:pt>
+                <c:pt idx="5079">
+                  <c:v>5080.0</c:v>
+                </c:pt>
+                <c:pt idx="5080">
+                  <c:v>5081.0</c:v>
+                </c:pt>
+                <c:pt idx="5081">
+                  <c:v>5082.0</c:v>
+                </c:pt>
+                <c:pt idx="5082">
+                  <c:v>5083.0</c:v>
+                </c:pt>
+                <c:pt idx="5083">
+                  <c:v>5084.0</c:v>
+                </c:pt>
+                <c:pt idx="5084">
+                  <c:v>5085.0</c:v>
+                </c:pt>
+                <c:pt idx="5085">
+                  <c:v>5086.0</c:v>
+                </c:pt>
+                <c:pt idx="5086">
+                  <c:v>5087.0</c:v>
+                </c:pt>
+                <c:pt idx="5087">
+                  <c:v>5088.0</c:v>
+                </c:pt>
+                <c:pt idx="5088">
+                  <c:v>5089.0</c:v>
+                </c:pt>
+                <c:pt idx="5089">
+                  <c:v>5090.0</c:v>
+                </c:pt>
+                <c:pt idx="5090">
+                  <c:v>5091.0</c:v>
+                </c:pt>
+                <c:pt idx="5091">
+                  <c:v>5092.0</c:v>
+                </c:pt>
+                <c:pt idx="5092">
+                  <c:v>5093.0</c:v>
+                </c:pt>
+                <c:pt idx="5093">
+                  <c:v>5094.0</c:v>
+                </c:pt>
+                <c:pt idx="5094">
+                  <c:v>5095.0</c:v>
+                </c:pt>
+                <c:pt idx="5095">
+                  <c:v>5096.0</c:v>
+                </c:pt>
+                <c:pt idx="5096">
+                  <c:v>5097.0</c:v>
+                </c:pt>
+                <c:pt idx="5097">
+                  <c:v>5098.0</c:v>
+                </c:pt>
+                <c:pt idx="5098">
+                  <c:v>5099.0</c:v>
+                </c:pt>
+                <c:pt idx="5099">
+                  <c:v>5100.0</c:v>
+                </c:pt>
+                <c:pt idx="5100">
+                  <c:v>5101.0</c:v>
+                </c:pt>
+                <c:pt idx="5101">
+                  <c:v>5102.0</c:v>
+                </c:pt>
+                <c:pt idx="5102">
+                  <c:v>5103.0</c:v>
+                </c:pt>
+                <c:pt idx="5103">
+                  <c:v>5104.0</c:v>
+                </c:pt>
+                <c:pt idx="5104">
+                  <c:v>5105.0</c:v>
+                </c:pt>
+                <c:pt idx="5105">
+                  <c:v>5106.0</c:v>
+                </c:pt>
+                <c:pt idx="5106">
+                  <c:v>5107.0</c:v>
+                </c:pt>
+                <c:pt idx="5107">
+                  <c:v>5108.0</c:v>
+                </c:pt>
+                <c:pt idx="5108">
+                  <c:v>5109.0</c:v>
+                </c:pt>
+                <c:pt idx="5109">
+                  <c:v>5110.0</c:v>
+                </c:pt>
+                <c:pt idx="5110">
+                  <c:v>5111.0</c:v>
+                </c:pt>
+                <c:pt idx="5111">
+                  <c:v>5112.0</c:v>
+                </c:pt>
+                <c:pt idx="5112">
+                  <c:v>5113.0</c:v>
+                </c:pt>
+                <c:pt idx="5113">
+                  <c:v>5114.0</c:v>
+                </c:pt>
+                <c:pt idx="5114">
+                  <c:v>5115.0</c:v>
+                </c:pt>
+                <c:pt idx="5115">
+                  <c:v>5116.0</c:v>
+                </c:pt>
+                <c:pt idx="5116">
+                  <c:v>5117.0</c:v>
+                </c:pt>
+                <c:pt idx="5117">
+                  <c:v>5118.0</c:v>
+                </c:pt>
+                <c:pt idx="5118">
+                  <c:v>5119.0</c:v>
+                </c:pt>
+                <c:pt idx="5119">
+                  <c:v>5120.0</c:v>
+                </c:pt>
+                <c:pt idx="5120">
+                  <c:v>5121.0</c:v>
+                </c:pt>
+                <c:pt idx="5121">
+                  <c:v>5122.0</c:v>
+                </c:pt>
+                <c:pt idx="5122">
+                  <c:v>5123.0</c:v>
+                </c:pt>
+                <c:pt idx="5123">
+                  <c:v>5124.0</c:v>
+                </c:pt>
+                <c:pt idx="5124">
+                  <c:v>5125.0</c:v>
+                </c:pt>
+                <c:pt idx="5125">
+                  <c:v>5126.0</c:v>
+                </c:pt>
+                <c:pt idx="5126">
+                  <c:v>5127.0</c:v>
+                </c:pt>
+                <c:pt idx="5127">
+                  <c:v>5128.0</c:v>
+                </c:pt>
+                <c:pt idx="5128">
+                  <c:v>5129.0</c:v>
+                </c:pt>
+                <c:pt idx="5129">
+                  <c:v>5130.0</c:v>
+                </c:pt>
+                <c:pt idx="5130">
+                  <c:v>5131.0</c:v>
+                </c:pt>
+                <c:pt idx="5131">
+                  <c:v>5132.0</c:v>
+                </c:pt>
+                <c:pt idx="5132">
+                  <c:v>5133.0</c:v>
+                </c:pt>
+                <c:pt idx="5133">
+                  <c:v>5134.0</c:v>
+                </c:pt>
+                <c:pt idx="5134">
+                  <c:v>5135.0</c:v>
+                </c:pt>
+                <c:pt idx="5135">
+                  <c:v>5136.0</c:v>
+                </c:pt>
+                <c:pt idx="5136">
+                  <c:v>5137.0</c:v>
+                </c:pt>
+                <c:pt idx="5137">
+                  <c:v>5138.0</c:v>
+                </c:pt>
+                <c:pt idx="5138">
+                  <c:v>5139.0</c:v>
+                </c:pt>
+                <c:pt idx="5139">
+                  <c:v>5140.0</c:v>
+                </c:pt>
+                <c:pt idx="5140">
+                  <c:v>5141.0</c:v>
+                </c:pt>
+                <c:pt idx="5141">
+                  <c:v>5142.0</c:v>
+                </c:pt>
+                <c:pt idx="5142">
+                  <c:v>5143.0</c:v>
+                </c:pt>
+                <c:pt idx="5143">
+                  <c:v>5144.0</c:v>
+                </c:pt>
+                <c:pt idx="5144">
+                  <c:v>5145.0</c:v>
+                </c:pt>
+                <c:pt idx="5145">
+                  <c:v>5146.0</c:v>
+                </c:pt>
+                <c:pt idx="5146">
+                  <c:v>5147.0</c:v>
+                </c:pt>
+                <c:pt idx="5147">
+                  <c:v>5148.0</c:v>
+                </c:pt>
+                <c:pt idx="5148">
+                  <c:v>5149.0</c:v>
+                </c:pt>
+                <c:pt idx="5149">
+                  <c:v>5150.0</c:v>
+                </c:pt>
+                <c:pt idx="5150">
+                  <c:v>5151.0</c:v>
+                </c:pt>
+                <c:pt idx="5151">
+                  <c:v>5152.0</c:v>
+                </c:pt>
+                <c:pt idx="5152">
+                  <c:v>5153.0</c:v>
+                </c:pt>
+                <c:pt idx="5153">
+                  <c:v>5154.0</c:v>
+                </c:pt>
+                <c:pt idx="5154">
+                  <c:v>5155.0</c:v>
+                </c:pt>
+                <c:pt idx="5155">
+                  <c:v>5156.0</c:v>
+                </c:pt>
+                <c:pt idx="5156">
+                  <c:v>5157.0</c:v>
+                </c:pt>
+                <c:pt idx="5157">
+                  <c:v>5158.0</c:v>
+                </c:pt>
+                <c:pt idx="5158">
+                  <c:v>5159.0</c:v>
+                </c:pt>
+                <c:pt idx="5159">
+                  <c:v>5160.0</c:v>
+                </c:pt>
+                <c:pt idx="5160">
+                  <c:v>5161.0</c:v>
+                </c:pt>
+                <c:pt idx="5161">
+                  <c:v>5162.0</c:v>
+                </c:pt>
+                <c:pt idx="5162">
+                  <c:v>5163.0</c:v>
+                </c:pt>
+                <c:pt idx="5163">
+                  <c:v>5164.0</c:v>
+                </c:pt>
+                <c:pt idx="5164">
+                  <c:v>5165.0</c:v>
+                </c:pt>
+                <c:pt idx="5165">
+                  <c:v>5166.0</c:v>
+                </c:pt>
+                <c:pt idx="5166">
+                  <c:v>5167.0</c:v>
+                </c:pt>
+                <c:pt idx="5167">
+                  <c:v>5168.0</c:v>
+                </c:pt>
+                <c:pt idx="5168">
+                  <c:v>5169.0</c:v>
+                </c:pt>
+                <c:pt idx="5169">
+                  <c:v>5170.0</c:v>
+                </c:pt>
+                <c:pt idx="5170">
+                  <c:v>5171.0</c:v>
+                </c:pt>
+                <c:pt idx="5171">
+                  <c:v>5172.0</c:v>
+                </c:pt>
+                <c:pt idx="5172">
+                  <c:v>5173.0</c:v>
+                </c:pt>
+                <c:pt idx="5173">
+                  <c:v>5174.0</c:v>
+                </c:pt>
+                <c:pt idx="5174">
+                  <c:v>5175.0</c:v>
+                </c:pt>
+                <c:pt idx="5175">
+                  <c:v>5176.0</c:v>
+                </c:pt>
+                <c:pt idx="5176">
+                  <c:v>5177.0</c:v>
+                </c:pt>
+                <c:pt idx="5177">
+                  <c:v>5178.0</c:v>
+                </c:pt>
+                <c:pt idx="5178">
+                  <c:v>5179.0</c:v>
+                </c:pt>
+                <c:pt idx="5179">
+                  <c:v>5180.0</c:v>
+                </c:pt>
+                <c:pt idx="5180">
+                  <c:v>5181.0</c:v>
+                </c:pt>
+                <c:pt idx="5181">
+                  <c:v>5182.0</c:v>
+                </c:pt>
+                <c:pt idx="5182">
+                  <c:v>5183.0</c:v>
+                </c:pt>
+                <c:pt idx="5183">
+                  <c:v>5184.0</c:v>
+                </c:pt>
+                <c:pt idx="5184">
+                  <c:v>5185.0</c:v>
+                </c:pt>
+                <c:pt idx="5185">
+                  <c:v>5186.0</c:v>
+                </c:pt>
+                <c:pt idx="5186">
+                  <c:v>5187.0</c:v>
+                </c:pt>
+                <c:pt idx="5187">
+                  <c:v>5188.0</c:v>
+                </c:pt>
+                <c:pt idx="5188">
+                  <c:v>5189.0</c:v>
+                </c:pt>
+                <c:pt idx="5189">
+                  <c:v>5190.0</c:v>
+                </c:pt>
+                <c:pt idx="5190">
+                  <c:v>5191.0</c:v>
+                </c:pt>
+                <c:pt idx="5191">
+                  <c:v>5192.0</c:v>
+                </c:pt>
+                <c:pt idx="5192">
+                  <c:v>5193.0</c:v>
+                </c:pt>
+                <c:pt idx="5193">
+                  <c:v>5194.0</c:v>
+                </c:pt>
+                <c:pt idx="5194">
+                  <c:v>5195.0</c:v>
+                </c:pt>
+                <c:pt idx="5195">
+                  <c:v>5196.0</c:v>
+                </c:pt>
+                <c:pt idx="5196">
+                  <c:v>5197.0</c:v>
+                </c:pt>
+                <c:pt idx="5197">
+                  <c:v>5198.0</c:v>
+                </c:pt>
+                <c:pt idx="5198">
+                  <c:v>5199.0</c:v>
+                </c:pt>
+                <c:pt idx="5199">
+                  <c:v>5200.0</c:v>
+                </c:pt>
+                <c:pt idx="5200">
+                  <c:v>5201.0</c:v>
+                </c:pt>
+                <c:pt idx="5201">
+                  <c:v>5202.0</c:v>
+                </c:pt>
+                <c:pt idx="5202">
+                  <c:v>5203.0</c:v>
+                </c:pt>
+                <c:pt idx="5203">
+                  <c:v>5204.0</c:v>
+                </c:pt>
+                <c:pt idx="5204">
+                  <c:v>5205.0</c:v>
+                </c:pt>
+                <c:pt idx="5205">
+                  <c:v>5206.0</c:v>
+                </c:pt>
+                <c:pt idx="5206">
+                  <c:v>5207.0</c:v>
+                </c:pt>
+                <c:pt idx="5207">
+                  <c:v>5208.0</c:v>
+                </c:pt>
+                <c:pt idx="5208">
+                  <c:v>5209.0</c:v>
+                </c:pt>
+                <c:pt idx="5209">
+                  <c:v>5210.0</c:v>
+                </c:pt>
+                <c:pt idx="5210">
+                  <c:v>5211.0</c:v>
+                </c:pt>
+                <c:pt idx="5211">
+                  <c:v>5212.0</c:v>
+                </c:pt>
+                <c:pt idx="5212">
+                  <c:v>5213.0</c:v>
+                </c:pt>
+                <c:pt idx="5213">
+                  <c:v>5214.0</c:v>
+                </c:pt>
+                <c:pt idx="5214">
+                  <c:v>5215.0</c:v>
+                </c:pt>
+                <c:pt idx="5215">
+                  <c:v>5216.0</c:v>
+                </c:pt>
+                <c:pt idx="5216">
+                  <c:v>5217.0</c:v>
+                </c:pt>
+                <c:pt idx="5217">
+                  <c:v>5218.0</c:v>
+                </c:pt>
+                <c:pt idx="5218">
+                  <c:v>5219.0</c:v>
+                </c:pt>
+                <c:pt idx="5219">
+                  <c:v>5220.0</c:v>
+                </c:pt>
+                <c:pt idx="5220">
+                  <c:v>5221.0</c:v>
+                </c:pt>
+                <c:pt idx="5221">
+                  <c:v>5222.0</c:v>
+                </c:pt>
+                <c:pt idx="5222">
+                  <c:v>5223.0</c:v>
+                </c:pt>
+                <c:pt idx="5223">
+                  <c:v>5224.0</c:v>
+                </c:pt>
+                <c:pt idx="5224">
+                  <c:v>5225.0</c:v>
+                </c:pt>
+                <c:pt idx="5225">
+                  <c:v>5226.0</c:v>
+                </c:pt>
+                <c:pt idx="5226">
+                  <c:v>5227.0</c:v>
+                </c:pt>
+                <c:pt idx="5227">
+                  <c:v>5228.0</c:v>
+                </c:pt>
+                <c:pt idx="5228">
+                  <c:v>5229.0</c:v>
+                </c:pt>
+                <c:pt idx="5229">
+                  <c:v>5230.0</c:v>
+                </c:pt>
+                <c:pt idx="5230">
+                  <c:v>5231.0</c:v>
+                </c:pt>
+                <c:pt idx="5231">
+                  <c:v>5232.0</c:v>
+                </c:pt>
+                <c:pt idx="5232">
+                  <c:v>5233.0</c:v>
+                </c:pt>
+                <c:pt idx="5233">
+                  <c:v>5234.0</c:v>
+                </c:pt>
+                <c:pt idx="5234">
+                  <c:v>5235.0</c:v>
+                </c:pt>
+                <c:pt idx="5235">
+                  <c:v>5236.0</c:v>
+                </c:pt>
+                <c:pt idx="5236">
+                  <c:v>5237.0</c:v>
+                </c:pt>
+                <c:pt idx="5237">
+                  <c:v>5238.0</c:v>
+                </c:pt>
+                <c:pt idx="5238">
+                  <c:v>5239.0</c:v>
+                </c:pt>
+                <c:pt idx="5239">
+                  <c:v>5240.0</c:v>
+                </c:pt>
+                <c:pt idx="5240">
+                  <c:v>5241.0</c:v>
+                </c:pt>
+                <c:pt idx="5241">
+                  <c:v>5242.0</c:v>
+                </c:pt>
+                <c:pt idx="5242">
+                  <c:v>5243.0</c:v>
+                </c:pt>
+                <c:pt idx="5243">
+                  <c:v>5244.0</c:v>
+                </c:pt>
+                <c:pt idx="5244">
+                  <c:v>5245.0</c:v>
+                </c:pt>
+                <c:pt idx="5245">
+                  <c:v>5246.0</c:v>
+                </c:pt>
+                <c:pt idx="5246">
+                  <c:v>5247.0</c:v>
+                </c:pt>
+                <c:pt idx="5247">
+                  <c:v>5248.0</c:v>
+                </c:pt>
+                <c:pt idx="5248">
+                  <c:v>5249.0</c:v>
+                </c:pt>
+                <c:pt idx="5249">
+                  <c:v>5250.0</c:v>
+                </c:pt>
+                <c:pt idx="5250">
+                  <c:v>5251.0</c:v>
+                </c:pt>
+                <c:pt idx="5251">
+                  <c:v>5252.0</c:v>
+                </c:pt>
+                <c:pt idx="5252">
+                  <c:v>5253.0</c:v>
+                </c:pt>
+                <c:pt idx="5253">
+                  <c:v>5254.0</c:v>
+                </c:pt>
+                <c:pt idx="5254">
+                  <c:v>5255.0</c:v>
+                </c:pt>
+                <c:pt idx="5255">
+                  <c:v>5256.0</c:v>
+                </c:pt>
+                <c:pt idx="5256">
+                  <c:v>5257.0</c:v>
+                </c:pt>
+                <c:pt idx="5257">
+                  <c:v>5258.0</c:v>
+                </c:pt>
+                <c:pt idx="5258">
+                  <c:v>5259.0</c:v>
+                </c:pt>
+                <c:pt idx="5259">
+                  <c:v>5260.0</c:v>
+                </c:pt>
+                <c:pt idx="5260">
+                  <c:v>5261.0</c:v>
+                </c:pt>
+                <c:pt idx="5261">
+                  <c:v>5262.0</c:v>
+                </c:pt>
+                <c:pt idx="5262">
+                  <c:v>5263.0</c:v>
+                </c:pt>
+                <c:pt idx="5263">
+                  <c:v>5264.0</c:v>
+                </c:pt>
+                <c:pt idx="5264">
+                  <c:v>5265.0</c:v>
+                </c:pt>
+                <c:pt idx="5265">
+                  <c:v>5266.0</c:v>
+                </c:pt>
+                <c:pt idx="5266">
+                  <c:v>5267.0</c:v>
+                </c:pt>
+                <c:pt idx="5267">
+                  <c:v>5268.0</c:v>
+                </c:pt>
+                <c:pt idx="5268">
+                  <c:v>5269.0</c:v>
+                </c:pt>
+                <c:pt idx="5269">
+                  <c:v>5270.0</c:v>
+                </c:pt>
+                <c:pt idx="5270">
+                  <c:v>5271.0</c:v>
+                </c:pt>
+                <c:pt idx="5271">
+                  <c:v>5272.0</c:v>
+                </c:pt>
+                <c:pt idx="5272">
+                  <c:v>5273.0</c:v>
+                </c:pt>
+                <c:pt idx="5273">
+                  <c:v>5274.0</c:v>
+                </c:pt>
+                <c:pt idx="5274">
+                  <c:v>5275.0</c:v>
+                </c:pt>
+                <c:pt idx="5275">
+                  <c:v>5276.0</c:v>
+                </c:pt>
+                <c:pt idx="5276">
+                  <c:v>5277.0</c:v>
+                </c:pt>
+                <c:pt idx="5277">
+                  <c:v>5278.0</c:v>
+                </c:pt>
+                <c:pt idx="5278">
+                  <c:v>5279.0</c:v>
+                </c:pt>
+                <c:pt idx="5279">
+                  <c:v>5280.0</c:v>
+                </c:pt>
+                <c:pt idx="5280">
+                  <c:v>5281.0</c:v>
+                </c:pt>
+                <c:pt idx="5281">
+                  <c:v>5282.0</c:v>
+                </c:pt>
+                <c:pt idx="5282">
+                  <c:v>5283.0</c:v>
+                </c:pt>
+                <c:pt idx="5283">
+                  <c:v>5284.0</c:v>
+                </c:pt>
+                <c:pt idx="5284">
+                  <c:v>5285.0</c:v>
+                </c:pt>
+                <c:pt idx="5285">
+                  <c:v>5286.0</c:v>
+                </c:pt>
+                <c:pt idx="5286">
+                  <c:v>5287.0</c:v>
+                </c:pt>
+                <c:pt idx="5287">
+                  <c:v>5288.0</c:v>
+                </c:pt>
+                <c:pt idx="5288">
+                  <c:v>5289.0</c:v>
+                </c:pt>
+                <c:pt idx="5289">
+                  <c:v>5290.0</c:v>
+                </c:pt>
+                <c:pt idx="5290">
+                  <c:v>5291.0</c:v>
+                </c:pt>
+                <c:pt idx="5291">
+                  <c:v>5292.0</c:v>
+                </c:pt>
+                <c:pt idx="5292">
+                  <c:v>5293.0</c:v>
+                </c:pt>
+                <c:pt idx="5293">
+                  <c:v>5294.0</c:v>
+                </c:pt>
+                <c:pt idx="5294">
+                  <c:v>5295.0</c:v>
+                </c:pt>
+                <c:pt idx="5295">
+                  <c:v>5296.0</c:v>
+                </c:pt>
+                <c:pt idx="5296">
+                  <c:v>5297.0</c:v>
+                </c:pt>
+                <c:pt idx="5297">
+                  <c:v>5298.0</c:v>
+                </c:pt>
+                <c:pt idx="5298">
+                  <c:v>5299.0</c:v>
+                </c:pt>
+                <c:pt idx="5299">
+                  <c:v>5300.0</c:v>
+                </c:pt>
+                <c:pt idx="5300">
+                  <c:v>5301.0</c:v>
+                </c:pt>
+                <c:pt idx="5301">
+                  <c:v>5302.0</c:v>
+                </c:pt>
+                <c:pt idx="5302">
+                  <c:v>5303.0</c:v>
+                </c:pt>
+                <c:pt idx="5303">
+                  <c:v>5304.0</c:v>
+                </c:pt>
+                <c:pt idx="5304">
+                  <c:v>5305.0</c:v>
+                </c:pt>
+                <c:pt idx="5305">
+                  <c:v>5306.0</c:v>
+                </c:pt>
+                <c:pt idx="5306">
+                  <c:v>5307.0</c:v>
+                </c:pt>
+                <c:pt idx="5307">
+                  <c:v>5308.0</c:v>
+                </c:pt>
+                <c:pt idx="5308">
+                  <c:v>5309.0</c:v>
+                </c:pt>
+                <c:pt idx="5309">
+                  <c:v>5310.0</c:v>
+                </c:pt>
+                <c:pt idx="5310">
+                  <c:v>5311.0</c:v>
+                </c:pt>
+                <c:pt idx="5311">
+                  <c:v>5312.0</c:v>
+                </c:pt>
+                <c:pt idx="5312">
+                  <c:v>5313.0</c:v>
+                </c:pt>
+                <c:pt idx="5313">
+                  <c:v>5314.0</c:v>
+                </c:pt>
+                <c:pt idx="5314">
+                  <c:v>5315.0</c:v>
+                </c:pt>
+                <c:pt idx="5315">
+                  <c:v>5316.0</c:v>
+                </c:pt>
+                <c:pt idx="5316">
+                  <c:v>5317.0</c:v>
+                </c:pt>
+                <c:pt idx="5317">
+                  <c:v>5318.0</c:v>
+                </c:pt>
+                <c:pt idx="5318">
+                  <c:v>5319.0</c:v>
+                </c:pt>
+                <c:pt idx="5319">
+                  <c:v>5320.0</c:v>
+                </c:pt>
+                <c:pt idx="5320">
+                  <c:v>5321.0</c:v>
+                </c:pt>
+                <c:pt idx="5321">
+                  <c:v>5322.0</c:v>
+                </c:pt>
+                <c:pt idx="5322">
+                  <c:v>5323.0</c:v>
+                </c:pt>
+                <c:pt idx="5323">
+                  <c:v>5324.0</c:v>
+                </c:pt>
+                <c:pt idx="5324">
+                  <c:v>5325.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30641,11 +32145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2068787016"/>
-        <c:axId val="-2068784008"/>
+        <c:axId val="2096538200"/>
+        <c:axId val="2094145240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2068787016"/>
+        <c:axId val="2096538200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30655,7 +32159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068784008"/>
+        <c:crossAx val="2094145240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -30664,7 +32168,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2068784008"/>
+        <c:axId val="2094145240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30675,7 +32179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068787016"/>
+        <c:crossAx val="2096538200"/>
         <c:crossesAt val="39448.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30714,10 +32218,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>SubmissionsPerMonth!$A$1:$A$76</c:f>
+              <c:f>SubmissionsPerMonth!$A$1:$A$77</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>39417.0</c:v>
                 </c:pt>
@@ -30945,16 +32449,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>41699.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41730.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SubmissionsPerMonth!$B$1:$B$76</c:f>
+              <c:f>SubmissionsPerMonth!$B$1:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -31182,6 +32689,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>224.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31196,11 +32706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2130006872"/>
-        <c:axId val="-2130003832"/>
+        <c:axId val="2123132024"/>
+        <c:axId val="2123135064"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-2130006872"/>
+        <c:axId val="2123132024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31210,14 +32720,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130003832"/>
+        <c:crossAx val="2123135064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2130003832"/>
+        <c:axId val="2123135064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31228,7 +32738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130006872"/>
+        <c:crossAx val="2123132024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31255,7 +32765,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -31294,7 +32804,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582121" cy="5830455"/>
+    <xdr:ext cx="8584088" cy="5840146"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -31318,11 +32828,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dryadSubmitDates_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="x" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dryadSubmitDates_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31649,8 +33155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5722"/>
   <sheetViews>
-    <sheetView topLeftCell="A5047" workbookViewId="0">
-      <selection activeCell="A5073" sqref="A5073"/>
+    <sheetView topLeftCell="A5072" workbookViewId="0">
+      <selection activeCell="A5075" sqref="A5075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -66484,7 +67990,7 @@
     </row>
     <row r="4354" spans="1:2">
       <c r="A4354" s="1">
-        <v>41605</v>
+        <v>41607</v>
       </c>
       <c r="B4354">
         <v>4354</v>
@@ -66508,7 +68014,7 @@
     </row>
     <row r="4357" spans="1:2">
       <c r="A4357" s="1">
-        <v>41607</v>
+        <v>41610</v>
       </c>
       <c r="B4357">
         <v>4357</v>
@@ -66540,7 +68046,7 @@
     </row>
     <row r="4361" spans="1:2">
       <c r="A4361" s="1">
-        <v>41610</v>
+        <v>41611</v>
       </c>
       <c r="B4361">
         <v>4361</v>
@@ -66612,7 +68118,7 @@
     </row>
     <row r="4370" spans="1:2">
       <c r="A4370" s="1">
-        <v>41611</v>
+        <v>41612</v>
       </c>
       <c r="B4370">
         <v>4370</v>
@@ -66644,7 +68150,7 @@
     </row>
     <row r="4374" spans="1:2">
       <c r="A4374" s="1">
-        <v>41612</v>
+        <v>41613</v>
       </c>
       <c r="B4374">
         <v>4374</v>
@@ -66764,7 +68270,7 @@
     </row>
     <row r="4389" spans="1:2">
       <c r="A4389" s="1">
-        <v>41613</v>
+        <v>41614</v>
       </c>
       <c r="B4389">
         <v>4389</v>
@@ -66780,7 +68286,7 @@
     </row>
     <row r="4391" spans="1:2">
       <c r="A4391" s="1">
-        <v>41614</v>
+        <v>41617</v>
       </c>
       <c r="B4391">
         <v>4391</v>
@@ -66908,7 +68414,7 @@
     </row>
     <row r="4407" spans="1:2">
       <c r="A4407" s="1">
-        <v>41617</v>
+        <v>41618</v>
       </c>
       <c r="B4407">
         <v>4407</v>
@@ -67084,7 +68590,7 @@
     </row>
     <row r="4429" spans="1:2">
       <c r="A4429" s="1">
-        <v>41618</v>
+        <v>41619</v>
       </c>
       <c r="B4429">
         <v>4429</v>
@@ -67148,7 +68654,7 @@
     </row>
     <row r="4437" spans="1:2">
       <c r="A4437" s="1">
-        <v>41619</v>
+        <v>41620</v>
       </c>
       <c r="B4437">
         <v>4437</v>
@@ -67188,7 +68694,7 @@
     </row>
     <row r="4442" spans="1:2">
       <c r="A4442" s="1">
-        <v>41620</v>
+        <v>41621</v>
       </c>
       <c r="B4442">
         <v>4442</v>
@@ -67252,7 +68758,7 @@
     </row>
     <row r="4450" spans="1:2">
       <c r="A4450" s="1">
-        <v>41621</v>
+        <v>41625</v>
       </c>
       <c r="B4450">
         <v>4450</v>
@@ -67348,7 +68854,7 @@
     </row>
     <row r="4462" spans="1:2">
       <c r="A4462" s="1">
-        <v>41625</v>
+        <v>41626</v>
       </c>
       <c r="B4462">
         <v>4462</v>
@@ -67404,7 +68910,7 @@
     </row>
     <row r="4469" spans="1:2">
       <c r="A4469" s="1">
-        <v>41626</v>
+        <v>41627</v>
       </c>
       <c r="B4469">
         <v>4469</v>
@@ -67436,7 +68942,7 @@
     </row>
     <row r="4473" spans="1:2">
       <c r="A4473" s="1">
-        <v>41627</v>
+        <v>41628</v>
       </c>
       <c r="B4473">
         <v>4473</v>
@@ -67492,7 +68998,7 @@
     </row>
     <row r="4480" spans="1:2">
       <c r="A4480" s="1">
-        <v>41628</v>
+        <v>41631</v>
       </c>
       <c r="B4480">
         <v>4480</v>
@@ -67508,7 +69014,7 @@
     </row>
     <row r="4482" spans="1:2">
       <c r="A4482" s="1">
-        <v>41631</v>
+        <v>41635</v>
       </c>
       <c r="B4482">
         <v>4482</v>
@@ -67548,7 +69054,7 @@
     </row>
     <row r="4487" spans="1:2">
       <c r="A4487" s="1">
-        <v>41635</v>
+        <v>41638</v>
       </c>
       <c r="B4487">
         <v>4487</v>
@@ -67556,7 +69062,7 @@
     </row>
     <row r="4488" spans="1:2">
       <c r="A4488" s="1">
-        <v>41638</v>
+        <v>41640</v>
       </c>
       <c r="B4488">
         <v>4488</v>
@@ -67564,7 +69070,7 @@
     </row>
     <row r="4489" spans="1:2">
       <c r="A4489" s="1">
-        <v>41640</v>
+        <v>41641</v>
       </c>
       <c r="B4489">
         <v>4489</v>
@@ -67652,7 +69158,7 @@
     </row>
     <row r="4500" spans="1:2">
       <c r="A4500" s="1">
-        <v>41641</v>
+        <v>41642</v>
       </c>
       <c r="B4500">
         <v>4500</v>
@@ -67692,7 +69198,7 @@
     </row>
     <row r="4505" spans="1:2">
       <c r="A4505" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B4505">
         <v>4505</v>
@@ -67804,7 +69310,7 @@
     </row>
     <row r="4519" spans="1:2">
       <c r="A4519" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B4519">
         <v>4519</v>
@@ -67916,7 +69422,7 @@
     </row>
     <row r="4533" spans="1:2">
       <c r="A4533" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B4533">
         <v>4533</v>
@@ -67996,7 +69502,7 @@
     </row>
     <row r="4543" spans="1:2">
       <c r="A4543" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B4543">
         <v>4543</v>
@@ -68052,7 +69558,7 @@
     </row>
     <row r="4550" spans="1:2">
       <c r="A4550" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B4550">
         <v>4550</v>
@@ -68108,7 +69614,7 @@
     </row>
     <row r="4557" spans="1:2">
       <c r="A4557" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B4557">
         <v>4557</v>
@@ -68148,7 +69654,7 @@
     </row>
     <row r="4562" spans="1:2">
       <c r="A4562" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B4562">
         <v>4562</v>
@@ -68292,7 +69798,7 @@
     </row>
     <row r="4580" spans="1:2">
       <c r="A4580" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B4580">
         <v>4580</v>
@@ -68396,7 +69902,7 @@
     </row>
     <row r="4593" spans="1:2">
       <c r="A4593" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B4593">
         <v>4593</v>
@@ -68428,7 +69934,7 @@
     </row>
     <row r="4597" spans="1:2">
       <c r="A4597" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B4597">
         <v>4597</v>
@@ -68460,7 +69966,7 @@
     </row>
     <row r="4601" spans="1:2">
       <c r="A4601" s="1">
-        <v>41656</v>
+        <v>41660</v>
       </c>
       <c r="B4601">
         <v>4601</v>
@@ -68620,7 +70126,7 @@
     </row>
     <row r="4621" spans="1:2">
       <c r="A4621" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B4621">
         <v>4621</v>
@@ -68724,7 +70230,7 @@
     </row>
     <row r="4634" spans="1:2">
       <c r="A4634" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B4634">
         <v>4634</v>
@@ -68772,7 +70278,7 @@
     </row>
     <row r="4640" spans="1:2">
       <c r="A4640" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B4640">
         <v>4640</v>
@@ -68804,7 +70310,7 @@
     </row>
     <row r="4644" spans="1:2">
       <c r="A4644" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B4644">
         <v>4644</v>
@@ -68964,7 +70470,7 @@
     </row>
     <row r="4664" spans="1:2">
       <c r="A4664" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B4664">
         <v>4664</v>
@@ -69052,7 +70558,7 @@
     </row>
     <row r="4675" spans="1:2">
       <c r="A4675" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B4675">
         <v>4675</v>
@@ -69132,7 +70638,7 @@
     </row>
     <row r="4685" spans="1:2">
       <c r="A4685" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B4685">
         <v>4685</v>
@@ -69172,7 +70678,7 @@
     </row>
     <row r="4690" spans="1:2">
       <c r="A4690" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B4690">
         <v>4690</v>
@@ -69204,7 +70710,7 @@
     </row>
     <row r="4694" spans="1:2">
       <c r="A4694" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B4694">
         <v>4694</v>
@@ -69332,7 +70838,7 @@
     </row>
     <row r="4710" spans="1:2">
       <c r="A4710" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B4710">
         <v>4710</v>
@@ -69388,7 +70894,7 @@
     </row>
     <row r="4717" spans="1:2">
       <c r="A4717" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B4717">
         <v>4717</v>
@@ -69532,7 +71038,7 @@
     </row>
     <row r="4735" spans="1:2">
       <c r="A4735" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B4735">
         <v>4735</v>
@@ -69660,7 +71166,7 @@
     </row>
     <row r="4751" spans="1:2">
       <c r="A4751" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B4751">
         <v>4751</v>
@@ -69708,7 +71214,7 @@
     </row>
     <row r="4757" spans="1:2">
       <c r="A4757" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B4757">
         <v>4757</v>
@@ -69820,7 +71326,7 @@
     </row>
     <row r="4771" spans="1:2">
       <c r="A4771" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B4771">
         <v>4771</v>
@@ -69916,7 +71422,7 @@
     </row>
     <row r="4783" spans="1:2">
       <c r="A4783" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B4783">
         <v>4783</v>
@@ -69932,7 +71438,7 @@
     </row>
     <row r="4785" spans="1:2">
       <c r="A4785" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B4785">
         <v>4785</v>
@@ -69988,7 +71494,7 @@
     </row>
     <row r="4792" spans="1:2">
       <c r="A4792" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B4792">
         <v>4792</v>
@@ -70012,7 +71518,7 @@
     </row>
     <row r="4795" spans="1:2">
       <c r="A4795" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B4795">
         <v>4795</v>
@@ -70092,7 +71598,7 @@
     </row>
     <row r="4805" spans="1:2">
       <c r="A4805" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B4805">
         <v>4805</v>
@@ -70180,7 +71686,7 @@
     </row>
     <row r="4816" spans="1:2">
       <c r="A4816" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B4816">
         <v>4816</v>
@@ -70308,7 +71814,7 @@
     </row>
     <row r="4832" spans="1:2">
       <c r="A4832" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B4832">
         <v>4832</v>
@@ -70356,7 +71862,7 @@
     </row>
     <row r="4838" spans="1:2">
       <c r="A4838" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B4838">
         <v>4838</v>
@@ -70396,7 +71902,7 @@
     </row>
     <row r="4843" spans="1:2">
       <c r="A4843" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B4843">
         <v>4843</v>
@@ -70540,7 +72046,7 @@
     </row>
     <row r="4861" spans="1:2">
       <c r="A4861" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B4861">
         <v>4861</v>
@@ -70604,7 +72110,7 @@
     </row>
     <row r="4869" spans="1:2">
       <c r="A4869" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B4869">
         <v>4869</v>
@@ -70684,7 +72190,7 @@
     </row>
     <row r="4879" spans="1:2">
       <c r="A4879" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B4879">
         <v>4879</v>
@@ -70708,7 +72214,7 @@
     </row>
     <row r="4882" spans="1:2">
       <c r="A4882" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B4882">
         <v>4882</v>
@@ -70748,7 +72254,7 @@
     </row>
     <row r="4887" spans="1:2">
       <c r="A4887" s="1">
-        <v>41698</v>
+        <v>41701</v>
       </c>
       <c r="B4887">
         <v>4887</v>
@@ -70788,7 +72294,7 @@
     </row>
     <row r="4892" spans="1:2">
       <c r="A4892" s="1">
-        <v>41701</v>
+        <v>41702</v>
       </c>
       <c r="B4892">
         <v>4892</v>
@@ -70924,7 +72430,7 @@
     </row>
     <row r="4909" spans="1:2">
       <c r="A4909" s="1">
-        <v>41702</v>
+        <v>41703</v>
       </c>
       <c r="B4909">
         <v>4909</v>
@@ -70996,7 +72502,7 @@
     </row>
     <row r="4918" spans="1:2">
       <c r="A4918" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B4918">
         <v>4918</v>
@@ -71052,7 +72558,7 @@
     </row>
     <row r="4925" spans="1:2">
       <c r="A4925" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B4925">
         <v>4925</v>
@@ -71092,7 +72598,7 @@
     </row>
     <row r="4930" spans="1:2">
       <c r="A4930" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B4930">
         <v>4930</v>
@@ -71196,7 +72702,7 @@
     </row>
     <row r="4943" spans="1:2">
       <c r="A4943" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B4943">
         <v>4943</v>
@@ -71276,7 +72782,7 @@
     </row>
     <row r="4953" spans="1:2">
       <c r="A4953" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B4953">
         <v>4953</v>
@@ -71300,7 +72806,7 @@
     </row>
     <row r="4956" spans="1:2">
       <c r="A4956" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B4956">
         <v>4956</v>
@@ -71348,7 +72854,7 @@
     </row>
     <row r="4962" spans="1:2">
       <c r="A4962" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B4962">
         <v>4962</v>
@@ -71372,7 +72878,7 @@
     </row>
     <row r="4965" spans="1:2">
       <c r="A4965" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B4965">
         <v>4965</v>
@@ -71460,7 +72966,7 @@
     </row>
     <row r="4976" spans="1:2">
       <c r="A4976" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B4976">
         <v>4976</v>
@@ -71508,7 +73014,7 @@
     </row>
     <row r="4982" spans="1:2">
       <c r="A4982" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B4982">
         <v>4982</v>
@@ -71628,7 +73134,7 @@
     </row>
     <row r="4997" spans="1:2">
       <c r="A4997" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B4997">
         <v>4997</v>
@@ -71732,7 +73238,7 @@
     </row>
     <row r="5010" spans="1:2">
       <c r="A5010" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B5010">
         <v>5010</v>
@@ -71772,7 +73278,7 @@
     </row>
     <row r="5015" spans="1:2">
       <c r="A5015" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B5015">
         <v>5015</v>
@@ -71860,7 +73366,7 @@
     </row>
     <row r="5026" spans="1:2">
       <c r="A5026" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B5026">
         <v>5026</v>
@@ -71964,7 +73470,7 @@
     </row>
     <row r="5039" spans="1:2">
       <c r="A5039" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B5039">
         <v>5039</v>
@@ -72004,7 +73510,7 @@
     </row>
     <row r="5044" spans="1:2">
       <c r="A5044" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B5044">
         <v>5044</v>
@@ -72116,7 +73622,7 @@
     </row>
     <row r="5058" spans="1:2">
       <c r="A5058" s="1">
-        <v>41725</v>
+        <v>41726</v>
       </c>
       <c r="B5058">
         <v>5058</v>
@@ -72172,7 +73678,7 @@
     </row>
     <row r="5065" spans="1:2">
       <c r="A5065" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B5065">
         <v>5065</v>
@@ -72252,769 +73758,2019 @@
     </row>
     <row r="5075" spans="1:2">
       <c r="A5075" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B5075">
         <v>5075</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
-      <c r="A5076" s="1"/>
+      <c r="A5076" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5076">
+        <v>5076</v>
+      </c>
     </row>
     <row r="5077" spans="1:2">
-      <c r="A5077" s="1"/>
+      <c r="A5077" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5077">
+        <v>5077</v>
+      </c>
     </row>
     <row r="5078" spans="1:2">
-      <c r="A5078" s="1"/>
+      <c r="A5078" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5078">
+        <v>5078</v>
+      </c>
     </row>
     <row r="5079" spans="1:2">
-      <c r="A5079" s="1"/>
+      <c r="A5079" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5079">
+        <v>5079</v>
+      </c>
     </row>
     <row r="5080" spans="1:2">
-      <c r="A5080" s="1"/>
+      <c r="A5080" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5080">
+        <v>5080</v>
+      </c>
     </row>
     <row r="5081" spans="1:2">
-      <c r="A5081" s="1"/>
+      <c r="A5081" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5081">
+        <v>5081</v>
+      </c>
     </row>
     <row r="5082" spans="1:2">
-      <c r="A5082" s="1"/>
+      <c r="A5082" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5082">
+        <v>5082</v>
+      </c>
     </row>
     <row r="5083" spans="1:2">
-      <c r="A5083" s="1"/>
+      <c r="A5083" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B5083">
+        <v>5083</v>
+      </c>
     </row>
     <row r="5084" spans="1:2">
-      <c r="A5084" s="1"/>
+      <c r="A5084" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5084">
+        <v>5084</v>
+      </c>
     </row>
     <row r="5085" spans="1:2">
-      <c r="A5085" s="1"/>
+      <c r="A5085" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5085">
+        <v>5085</v>
+      </c>
     </row>
     <row r="5086" spans="1:2">
-      <c r="A5086" s="1"/>
+      <c r="A5086" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5086">
+        <v>5086</v>
+      </c>
     </row>
     <row r="5087" spans="1:2">
-      <c r="A5087" s="1"/>
+      <c r="A5087" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5087">
+        <v>5087</v>
+      </c>
     </row>
     <row r="5088" spans="1:2">
-      <c r="A5088" s="1"/>
-    </row>
-    <row r="5089" spans="1:1">
-      <c r="A5089" s="1"/>
-    </row>
-    <row r="5090" spans="1:1">
-      <c r="A5090" s="1"/>
-    </row>
-    <row r="5091" spans="1:1">
-      <c r="A5091" s="1"/>
-    </row>
-    <row r="5092" spans="1:1">
-      <c r="A5092" s="1"/>
-    </row>
-    <row r="5093" spans="1:1">
-      <c r="A5093" s="1"/>
-    </row>
-    <row r="5094" spans="1:1">
-      <c r="A5094" s="1"/>
-    </row>
-    <row r="5095" spans="1:1">
-      <c r="A5095" s="1"/>
-    </row>
-    <row r="5096" spans="1:1">
-      <c r="A5096" s="1"/>
-    </row>
-    <row r="5097" spans="1:1">
-      <c r="A5097" s="1"/>
-    </row>
-    <row r="5098" spans="1:1">
-      <c r="A5098" s="1"/>
-    </row>
-    <row r="5099" spans="1:1">
-      <c r="A5099" s="1"/>
-    </row>
-    <row r="5100" spans="1:1">
-      <c r="A5100" s="1"/>
-    </row>
-    <row r="5101" spans="1:1">
-      <c r="A5101" s="1"/>
-    </row>
-    <row r="5102" spans="1:1">
-      <c r="A5102" s="1"/>
-    </row>
-    <row r="5103" spans="1:1">
-      <c r="A5103" s="1"/>
-    </row>
-    <row r="5104" spans="1:1">
-      <c r="A5104" s="1"/>
-    </row>
-    <row r="5105" spans="1:1">
-      <c r="A5105" s="1"/>
-    </row>
-    <row r="5106" spans="1:1">
-      <c r="A5106" s="1"/>
-    </row>
-    <row r="5107" spans="1:1">
-      <c r="A5107" s="1"/>
-    </row>
-    <row r="5108" spans="1:1">
-      <c r="A5108" s="1"/>
-    </row>
-    <row r="5109" spans="1:1">
-      <c r="A5109" s="1"/>
-    </row>
-    <row r="5110" spans="1:1">
-      <c r="A5110" s="1"/>
-    </row>
-    <row r="5111" spans="1:1">
-      <c r="A5111" s="1"/>
-    </row>
-    <row r="5112" spans="1:1">
-      <c r="A5112" s="1"/>
-    </row>
-    <row r="5113" spans="1:1">
-      <c r="A5113" s="1"/>
-    </row>
-    <row r="5114" spans="1:1">
-      <c r="A5114" s="1"/>
-    </row>
-    <row r="5115" spans="1:1">
-      <c r="A5115" s="1"/>
-    </row>
-    <row r="5116" spans="1:1">
-      <c r="A5116" s="1"/>
-    </row>
-    <row r="5117" spans="1:1">
-      <c r="A5117" s="1"/>
-    </row>
-    <row r="5118" spans="1:1">
-      <c r="A5118" s="1"/>
-    </row>
-    <row r="5119" spans="1:1">
-      <c r="A5119" s="1"/>
-    </row>
-    <row r="5120" spans="1:1">
-      <c r="A5120" s="1"/>
-    </row>
-    <row r="5121" spans="1:1">
-      <c r="A5121" s="1"/>
-    </row>
-    <row r="5122" spans="1:1">
-      <c r="A5122" s="1"/>
-    </row>
-    <row r="5123" spans="1:1">
-      <c r="A5123" s="1"/>
-    </row>
-    <row r="5124" spans="1:1">
-      <c r="A5124" s="1"/>
-    </row>
-    <row r="5125" spans="1:1">
-      <c r="A5125" s="1"/>
-    </row>
-    <row r="5126" spans="1:1">
-      <c r="A5126" s="1"/>
-    </row>
-    <row r="5127" spans="1:1">
-      <c r="A5127" s="1"/>
-    </row>
-    <row r="5128" spans="1:1">
-      <c r="A5128" s="1"/>
-    </row>
-    <row r="5129" spans="1:1">
-      <c r="A5129" s="1"/>
-    </row>
-    <row r="5130" spans="1:1">
-      <c r="A5130" s="1"/>
-    </row>
-    <row r="5131" spans="1:1">
-      <c r="A5131" s="1"/>
-    </row>
-    <row r="5132" spans="1:1">
-      <c r="A5132" s="1"/>
-    </row>
-    <row r="5133" spans="1:1">
-      <c r="A5133" s="1"/>
-    </row>
-    <row r="5134" spans="1:1">
-      <c r="A5134" s="1"/>
-    </row>
-    <row r="5135" spans="1:1">
-      <c r="A5135" s="1"/>
-    </row>
-    <row r="5136" spans="1:1">
-      <c r="A5136" s="1"/>
-    </row>
-    <row r="5137" spans="1:1">
-      <c r="A5137" s="1"/>
-    </row>
-    <row r="5138" spans="1:1">
-      <c r="A5138" s="1"/>
-    </row>
-    <row r="5139" spans="1:1">
-      <c r="A5139" s="1"/>
-    </row>
-    <row r="5140" spans="1:1">
-      <c r="A5140" s="1"/>
-    </row>
-    <row r="5141" spans="1:1">
-      <c r="A5141" s="1"/>
-    </row>
-    <row r="5142" spans="1:1">
-      <c r="A5142" s="1"/>
-    </row>
-    <row r="5143" spans="1:1">
-      <c r="A5143" s="1"/>
-    </row>
-    <row r="5144" spans="1:1">
-      <c r="A5144" s="1"/>
-    </row>
-    <row r="5145" spans="1:1">
-      <c r="A5145" s="1"/>
-    </row>
-    <row r="5146" spans="1:1">
-      <c r="A5146" s="1"/>
-    </row>
-    <row r="5147" spans="1:1">
-      <c r="A5147" s="1"/>
-    </row>
-    <row r="5148" spans="1:1">
-      <c r="A5148" s="1"/>
-    </row>
-    <row r="5149" spans="1:1">
-      <c r="A5149" s="1"/>
-    </row>
-    <row r="5150" spans="1:1">
-      <c r="A5150" s="1"/>
-    </row>
-    <row r="5151" spans="1:1">
-      <c r="A5151" s="1"/>
-    </row>
-    <row r="5152" spans="1:1">
-      <c r="A5152" s="1"/>
-    </row>
-    <row r="5153" spans="1:1">
-      <c r="A5153" s="1"/>
-    </row>
-    <row r="5154" spans="1:1">
-      <c r="A5154" s="1"/>
-    </row>
-    <row r="5155" spans="1:1">
-      <c r="A5155" s="1"/>
-    </row>
-    <row r="5156" spans="1:1">
-      <c r="A5156" s="1"/>
-    </row>
-    <row r="5157" spans="1:1">
-      <c r="A5157" s="1"/>
-    </row>
-    <row r="5158" spans="1:1">
-      <c r="A5158" s="1"/>
-    </row>
-    <row r="5159" spans="1:1">
-      <c r="A5159" s="1"/>
-    </row>
-    <row r="5160" spans="1:1">
-      <c r="A5160" s="1"/>
-    </row>
-    <row r="5161" spans="1:1">
-      <c r="A5161" s="1"/>
-    </row>
-    <row r="5162" spans="1:1">
-      <c r="A5162" s="1"/>
-    </row>
-    <row r="5163" spans="1:1">
-      <c r="A5163" s="1"/>
-    </row>
-    <row r="5164" spans="1:1">
-      <c r="A5164" s="1"/>
-    </row>
-    <row r="5165" spans="1:1">
-      <c r="A5165" s="1"/>
-    </row>
-    <row r="5166" spans="1:1">
-      <c r="A5166" s="1"/>
-    </row>
-    <row r="5167" spans="1:1">
-      <c r="A5167" s="1"/>
-    </row>
-    <row r="5168" spans="1:1">
-      <c r="A5168" s="1"/>
-    </row>
-    <row r="5169" spans="1:1">
-      <c r="A5169" s="1"/>
-    </row>
-    <row r="5170" spans="1:1">
-      <c r="A5170" s="1"/>
-    </row>
-    <row r="5171" spans="1:1">
-      <c r="A5171" s="1"/>
-    </row>
-    <row r="5172" spans="1:1">
-      <c r="A5172" s="1"/>
-    </row>
-    <row r="5173" spans="1:1">
-      <c r="A5173" s="1"/>
-    </row>
-    <row r="5174" spans="1:1">
-      <c r="A5174" s="1"/>
-    </row>
-    <row r="5175" spans="1:1">
-      <c r="A5175" s="1"/>
-    </row>
-    <row r="5176" spans="1:1">
-      <c r="A5176" s="1"/>
-    </row>
-    <row r="5177" spans="1:1">
-      <c r="A5177" s="1"/>
-    </row>
-    <row r="5178" spans="1:1">
-      <c r="A5178" s="1"/>
-    </row>
-    <row r="5179" spans="1:1">
-      <c r="A5179" s="1"/>
-    </row>
-    <row r="5180" spans="1:1">
-      <c r="A5180" s="1"/>
-    </row>
-    <row r="5181" spans="1:1">
-      <c r="A5181" s="1"/>
-    </row>
-    <row r="5182" spans="1:1">
-      <c r="A5182" s="1"/>
-    </row>
-    <row r="5183" spans="1:1">
-      <c r="A5183" s="1"/>
-    </row>
-    <row r="5184" spans="1:1">
-      <c r="A5184" s="1"/>
-    </row>
-    <row r="5185" spans="1:1">
-      <c r="A5185" s="1"/>
-    </row>
-    <row r="5186" spans="1:1">
-      <c r="A5186" s="1"/>
-    </row>
-    <row r="5187" spans="1:1">
-      <c r="A5187" s="1"/>
-    </row>
-    <row r="5188" spans="1:1">
-      <c r="A5188" s="1"/>
-    </row>
-    <row r="5189" spans="1:1">
-      <c r="A5189" s="1"/>
-    </row>
-    <row r="5190" spans="1:1">
-      <c r="A5190" s="1"/>
-    </row>
-    <row r="5191" spans="1:1">
-      <c r="A5191" s="1"/>
-    </row>
-    <row r="5192" spans="1:1">
-      <c r="A5192" s="1"/>
-    </row>
-    <row r="5193" spans="1:1">
-      <c r="A5193" s="1"/>
-    </row>
-    <row r="5194" spans="1:1">
-      <c r="A5194" s="1"/>
-    </row>
-    <row r="5195" spans="1:1">
-      <c r="A5195" s="1"/>
-    </row>
-    <row r="5196" spans="1:1">
-      <c r="A5196" s="1"/>
-    </row>
-    <row r="5197" spans="1:1">
-      <c r="A5197" s="1"/>
-    </row>
-    <row r="5198" spans="1:1">
-      <c r="A5198" s="1"/>
-    </row>
-    <row r="5199" spans="1:1">
-      <c r="A5199" s="1"/>
-    </row>
-    <row r="5200" spans="1:1">
-      <c r="A5200" s="1"/>
-    </row>
-    <row r="5201" spans="1:1">
-      <c r="A5201" s="1"/>
-    </row>
-    <row r="5202" spans="1:1">
-      <c r="A5202" s="1"/>
-    </row>
-    <row r="5203" spans="1:1">
-      <c r="A5203" s="1"/>
-    </row>
-    <row r="5204" spans="1:1">
-      <c r="A5204" s="1"/>
-    </row>
-    <row r="5205" spans="1:1">
-      <c r="A5205" s="1"/>
-    </row>
-    <row r="5206" spans="1:1">
-      <c r="A5206" s="1"/>
-    </row>
-    <row r="5207" spans="1:1">
-      <c r="A5207" s="1"/>
-    </row>
-    <row r="5208" spans="1:1">
-      <c r="A5208" s="1"/>
-    </row>
-    <row r="5209" spans="1:1">
-      <c r="A5209" s="1"/>
-    </row>
-    <row r="5210" spans="1:1">
-      <c r="A5210" s="1"/>
-    </row>
-    <row r="5211" spans="1:1">
-      <c r="A5211" s="1"/>
-    </row>
-    <row r="5212" spans="1:1">
-      <c r="A5212" s="1"/>
-    </row>
-    <row r="5213" spans="1:1">
-      <c r="A5213" s="1"/>
-    </row>
-    <row r="5214" spans="1:1">
-      <c r="A5214" s="1"/>
-    </row>
-    <row r="5215" spans="1:1">
-      <c r="A5215" s="1"/>
-    </row>
-    <row r="5216" spans="1:1">
-      <c r="A5216" s="1"/>
-    </row>
-    <row r="5217" spans="1:1">
-      <c r="A5217" s="1"/>
-    </row>
-    <row r="5218" spans="1:1">
-      <c r="A5218" s="1"/>
-    </row>
-    <row r="5219" spans="1:1">
-      <c r="A5219" s="1"/>
-    </row>
-    <row r="5220" spans="1:1">
-      <c r="A5220" s="1"/>
-    </row>
-    <row r="5221" spans="1:1">
-      <c r="A5221" s="1"/>
-    </row>
-    <row r="5222" spans="1:1">
-      <c r="A5222" s="1"/>
-    </row>
-    <row r="5223" spans="1:1">
-      <c r="A5223" s="1"/>
-    </row>
-    <row r="5224" spans="1:1">
-      <c r="A5224" s="1"/>
-    </row>
-    <row r="5225" spans="1:1">
-      <c r="A5225" s="1"/>
-    </row>
-    <row r="5226" spans="1:1">
-      <c r="A5226" s="1"/>
-    </row>
-    <row r="5227" spans="1:1">
-      <c r="A5227" s="1"/>
-    </row>
-    <row r="5228" spans="1:1">
-      <c r="A5228" s="1"/>
-    </row>
-    <row r="5229" spans="1:1">
-      <c r="A5229" s="1"/>
-    </row>
-    <row r="5230" spans="1:1">
-      <c r="A5230" s="1"/>
-    </row>
-    <row r="5231" spans="1:1">
-      <c r="A5231" s="1"/>
-    </row>
-    <row r="5232" spans="1:1">
-      <c r="A5232" s="1"/>
-    </row>
-    <row r="5233" spans="1:1">
-      <c r="A5233" s="1"/>
-    </row>
-    <row r="5234" spans="1:1">
-      <c r="A5234" s="1"/>
-    </row>
-    <row r="5235" spans="1:1">
-      <c r="A5235" s="1"/>
-    </row>
-    <row r="5236" spans="1:1">
-      <c r="A5236" s="1"/>
-    </row>
-    <row r="5237" spans="1:1">
-      <c r="A5237" s="1"/>
-    </row>
-    <row r="5238" spans="1:1">
-      <c r="A5238" s="1"/>
-    </row>
-    <row r="5239" spans="1:1">
-      <c r="A5239" s="1"/>
-    </row>
-    <row r="5240" spans="1:1">
-      <c r="A5240" s="1"/>
-    </row>
-    <row r="5241" spans="1:1">
-      <c r="A5241" s="1"/>
-    </row>
-    <row r="5242" spans="1:1">
-      <c r="A5242" s="1"/>
-    </row>
-    <row r="5243" spans="1:1">
-      <c r="A5243" s="1"/>
-    </row>
-    <row r="5244" spans="1:1">
-      <c r="A5244" s="1"/>
-    </row>
-    <row r="5245" spans="1:1">
-      <c r="A5245" s="1"/>
-    </row>
-    <row r="5246" spans="1:1">
-      <c r="A5246" s="1"/>
-    </row>
-    <row r="5247" spans="1:1">
-      <c r="A5247" s="1"/>
-    </row>
-    <row r="5248" spans="1:1">
-      <c r="A5248" s="1"/>
-    </row>
-    <row r="5249" spans="1:1">
-      <c r="A5249" s="1"/>
-    </row>
-    <row r="5250" spans="1:1">
-      <c r="A5250" s="1"/>
-    </row>
-    <row r="5251" spans="1:1">
-      <c r="A5251" s="1"/>
-    </row>
-    <row r="5252" spans="1:1">
-      <c r="A5252" s="1"/>
-    </row>
-    <row r="5253" spans="1:1">
-      <c r="A5253" s="1"/>
-    </row>
-    <row r="5254" spans="1:1">
-      <c r="A5254" s="1"/>
-    </row>
-    <row r="5255" spans="1:1">
-      <c r="A5255" s="1"/>
-    </row>
-    <row r="5256" spans="1:1">
-      <c r="A5256" s="1"/>
-    </row>
-    <row r="5257" spans="1:1">
-      <c r="A5257" s="1"/>
-    </row>
-    <row r="5258" spans="1:1">
-      <c r="A5258" s="1"/>
-    </row>
-    <row r="5259" spans="1:1">
-      <c r="A5259" s="1"/>
-    </row>
-    <row r="5260" spans="1:1">
-      <c r="A5260" s="1"/>
-    </row>
-    <row r="5261" spans="1:1">
-      <c r="A5261" s="1"/>
-    </row>
-    <row r="5262" spans="1:1">
-      <c r="A5262" s="1"/>
-    </row>
-    <row r="5263" spans="1:1">
-      <c r="A5263" s="1"/>
-    </row>
-    <row r="5264" spans="1:1">
-      <c r="A5264" s="1"/>
-    </row>
-    <row r="5265" spans="1:1">
-      <c r="A5265" s="1"/>
-    </row>
-    <row r="5266" spans="1:1">
-      <c r="A5266" s="1"/>
-    </row>
-    <row r="5267" spans="1:1">
-      <c r="A5267" s="1"/>
-    </row>
-    <row r="5268" spans="1:1">
-      <c r="A5268" s="1"/>
-    </row>
-    <row r="5269" spans="1:1">
-      <c r="A5269" s="1"/>
-    </row>
-    <row r="5270" spans="1:1">
-      <c r="A5270" s="1"/>
-    </row>
-    <row r="5271" spans="1:1">
-      <c r="A5271" s="1"/>
-    </row>
-    <row r="5272" spans="1:1">
-      <c r="A5272" s="1"/>
-    </row>
-    <row r="5273" spans="1:1">
-      <c r="A5273" s="1"/>
-    </row>
-    <row r="5274" spans="1:1">
-      <c r="A5274" s="1"/>
-    </row>
-    <row r="5275" spans="1:1">
-      <c r="A5275" s="1"/>
-    </row>
-    <row r="5276" spans="1:1">
-      <c r="A5276" s="1"/>
-    </row>
-    <row r="5277" spans="1:1">
-      <c r="A5277" s="1"/>
-    </row>
-    <row r="5278" spans="1:1">
-      <c r="A5278" s="1"/>
-    </row>
-    <row r="5279" spans="1:1">
-      <c r="A5279" s="1"/>
-    </row>
-    <row r="5280" spans="1:1">
-      <c r="A5280" s="1"/>
-    </row>
-    <row r="5281" spans="1:1">
-      <c r="A5281" s="1"/>
-    </row>
-    <row r="5282" spans="1:1">
-      <c r="A5282" s="1"/>
-    </row>
-    <row r="5283" spans="1:1">
-      <c r="A5283" s="1"/>
-    </row>
-    <row r="5284" spans="1:1">
-      <c r="A5284" s="1"/>
-    </row>
-    <row r="5285" spans="1:1">
-      <c r="A5285" s="1"/>
-    </row>
-    <row r="5286" spans="1:1">
-      <c r="A5286" s="1"/>
-    </row>
-    <row r="5287" spans="1:1">
-      <c r="A5287" s="1"/>
-    </row>
-    <row r="5288" spans="1:1">
-      <c r="A5288" s="1"/>
-    </row>
-    <row r="5289" spans="1:1">
-      <c r="A5289" s="1"/>
-    </row>
-    <row r="5290" spans="1:1">
-      <c r="A5290" s="1"/>
-    </row>
-    <row r="5291" spans="1:1">
-      <c r="A5291" s="1"/>
-    </row>
-    <row r="5292" spans="1:1">
-      <c r="A5292" s="1"/>
-    </row>
-    <row r="5293" spans="1:1">
-      <c r="A5293" s="1"/>
-    </row>
-    <row r="5294" spans="1:1">
-      <c r="A5294" s="1"/>
-    </row>
-    <row r="5295" spans="1:1">
-      <c r="A5295" s="1"/>
-    </row>
-    <row r="5296" spans="1:1">
-      <c r="A5296" s="1"/>
-    </row>
-    <row r="5297" spans="1:1">
-      <c r="A5297" s="1"/>
-    </row>
-    <row r="5298" spans="1:1">
-      <c r="A5298" s="1"/>
-    </row>
-    <row r="5299" spans="1:1">
-      <c r="A5299" s="1"/>
-    </row>
-    <row r="5300" spans="1:1">
-      <c r="A5300" s="1"/>
-    </row>
-    <row r="5301" spans="1:1">
-      <c r="A5301" s="1"/>
-    </row>
-    <row r="5302" spans="1:1">
-      <c r="A5302" s="1"/>
-    </row>
-    <row r="5303" spans="1:1">
-      <c r="A5303" s="1"/>
-    </row>
-    <row r="5304" spans="1:1">
-      <c r="A5304" s="1"/>
-    </row>
-    <row r="5305" spans="1:1">
-      <c r="A5305" s="1"/>
-    </row>
-    <row r="5306" spans="1:1">
-      <c r="A5306" s="1"/>
-    </row>
-    <row r="5307" spans="1:1">
-      <c r="A5307" s="1"/>
-    </row>
-    <row r="5308" spans="1:1">
-      <c r="A5308" s="1"/>
-    </row>
-    <row r="5309" spans="1:1">
-      <c r="A5309" s="1"/>
-    </row>
-    <row r="5310" spans="1:1">
-      <c r="A5310" s="1"/>
-    </row>
-    <row r="5311" spans="1:1">
-      <c r="A5311" s="1"/>
-    </row>
-    <row r="5312" spans="1:1">
-      <c r="A5312" s="1"/>
-    </row>
-    <row r="5313" spans="1:1">
-      <c r="A5313" s="1"/>
-    </row>
-    <row r="5314" spans="1:1">
-      <c r="A5314" s="1"/>
-    </row>
-    <row r="5315" spans="1:1">
-      <c r="A5315" s="1"/>
-    </row>
-    <row r="5316" spans="1:1">
-      <c r="A5316" s="1"/>
-    </row>
-    <row r="5317" spans="1:1">
-      <c r="A5317" s="1"/>
-    </row>
-    <row r="5318" spans="1:1">
-      <c r="A5318" s="1"/>
-    </row>
-    <row r="5319" spans="1:1">
-      <c r="A5319" s="1"/>
-    </row>
-    <row r="5320" spans="1:1">
-      <c r="A5320" s="1"/>
-    </row>
-    <row r="5321" spans="1:1">
-      <c r="A5321" s="1"/>
-    </row>
-    <row r="5322" spans="1:1">
-      <c r="A5322" s="1"/>
-    </row>
-    <row r="5323" spans="1:1">
-      <c r="A5323" s="1"/>
-    </row>
-    <row r="5324" spans="1:1">
-      <c r="A5324" s="1"/>
-    </row>
-    <row r="5325" spans="1:1">
-      <c r="A5325" s="1"/>
-    </row>
-    <row r="5326" spans="1:1">
+      <c r="A5088" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5088">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:2">
+      <c r="A5089" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5089">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:2">
+      <c r="A5090" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5090">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:2">
+      <c r="A5091" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5091">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:2">
+      <c r="A5092" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B5092">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:2">
+      <c r="A5093" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5093">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:2">
+      <c r="A5094" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5094">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:2">
+      <c r="A5095" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5095">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:2">
+      <c r="A5096" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5096">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:2">
+      <c r="A5097" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5097">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:2">
+      <c r="A5098" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5098">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:2">
+      <c r="A5099" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5099">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:2">
+      <c r="A5100" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5100">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:2">
+      <c r="A5101" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5101">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:2">
+      <c r="A5102" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B5102">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:2">
+      <c r="A5103" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5103">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:2">
+      <c r="A5104" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5104">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:2">
+      <c r="A5105" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5105">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:2">
+      <c r="A5106" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5106">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:2">
+      <c r="A5107" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5107">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:2">
+      <c r="A5108" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5108">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:2">
+      <c r="A5109" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5109">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:2">
+      <c r="A5110" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5110">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:2">
+      <c r="A5111" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5111">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:2">
+      <c r="A5112" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5112">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="5113" spans="1:2">
+      <c r="A5113" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5113">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="5114" spans="1:2">
+      <c r="A5114" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5114">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="5115" spans="1:2">
+      <c r="A5115" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B5115">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="5116" spans="1:2">
+      <c r="A5116" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5116">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:2">
+      <c r="A5117" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5117">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:2">
+      <c r="A5118" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5118">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:2">
+      <c r="A5119" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5119">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:2">
+      <c r="A5120" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5120">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:2">
+      <c r="A5121" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5121">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:2">
+      <c r="A5122" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5122">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:2">
+      <c r="A5123" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5123">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:2">
+      <c r="A5124" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5124">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:2">
+      <c r="A5125" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5125">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="5126" spans="1:2">
+      <c r="A5126" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B5126">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="5127" spans="1:2">
+      <c r="A5127" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B5127">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="5128" spans="1:2">
+      <c r="A5128" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B5128">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="5129" spans="1:2">
+      <c r="A5129" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B5129">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="5130" spans="1:2">
+      <c r="A5130" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B5130">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="5131" spans="1:2">
+      <c r="A5131" s="1">
+        <v>41738</v>
+      </c>
+      <c r="B5131">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="5132" spans="1:2">
+      <c r="A5132" s="1">
+        <v>41738</v>
+      </c>
+      <c r="B5132">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="5133" spans="1:2">
+      <c r="A5133" s="1">
+        <v>41738</v>
+      </c>
+      <c r="B5133">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="5134" spans="1:2">
+      <c r="A5134" s="1">
+        <v>41738</v>
+      </c>
+      <c r="B5134">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="5135" spans="1:2">
+      <c r="A5135" s="1">
+        <v>41739</v>
+      </c>
+      <c r="B5135">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="5136" spans="1:2">
+      <c r="A5136" s="1">
+        <v>41739</v>
+      </c>
+      <c r="B5136">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="5137" spans="1:2">
+      <c r="A5137" s="1">
+        <v>41739</v>
+      </c>
+      <c r="B5137">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="5138" spans="1:2">
+      <c r="A5138" s="1">
+        <v>41739</v>
+      </c>
+      <c r="B5138">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="5139" spans="1:2">
+      <c r="A5139" s="1">
+        <v>41739</v>
+      </c>
+      <c r="B5139">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="5140" spans="1:2">
+      <c r="A5140" s="1">
+        <v>41740</v>
+      </c>
+      <c r="B5140">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="5141" spans="1:2">
+      <c r="A5141" s="1">
+        <v>41740</v>
+      </c>
+      <c r="B5141">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="5142" spans="1:2">
+      <c r="A5142" s="1">
+        <v>41740</v>
+      </c>
+      <c r="B5142">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="5143" spans="1:2">
+      <c r="A5143" s="1">
+        <v>41740</v>
+      </c>
+      <c r="B5143">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="5144" spans="1:2">
+      <c r="A5144" s="1">
+        <v>41740</v>
+      </c>
+      <c r="B5144">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="5145" spans="1:2">
+      <c r="A5145" s="1">
+        <v>41740</v>
+      </c>
+      <c r="B5145">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:2">
+      <c r="A5146" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5146">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="5147" spans="1:2">
+      <c r="A5147" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5147">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="5148" spans="1:2">
+      <c r="A5148" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5148">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="5149" spans="1:2">
+      <c r="A5149" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5149">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="5150" spans="1:2">
+      <c r="A5150" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5150">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:2">
+      <c r="A5151" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5151">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="5152" spans="1:2">
+      <c r="A5152" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5152">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="5153" spans="1:2">
+      <c r="A5153" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5153">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="5154" spans="1:2">
+      <c r="A5154" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5154">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="5155" spans="1:2">
+      <c r="A5155" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5155">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="5156" spans="1:2">
+      <c r="A5156" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B5156">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="5157" spans="1:2">
+      <c r="A5157" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5157">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="5158" spans="1:2">
+      <c r="A5158" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5158">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="5159" spans="1:2">
+      <c r="A5159" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5159">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="5160" spans="1:2">
+      <c r="A5160" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5160">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="5161" spans="1:2">
+      <c r="A5161" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5161">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="5162" spans="1:2">
+      <c r="A5162" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5162">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="5163" spans="1:2">
+      <c r="A5163" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5163">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="5164" spans="1:2">
+      <c r="A5164" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5164">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="5165" spans="1:2">
+      <c r="A5165" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5165">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="5166" spans="1:2">
+      <c r="A5166" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5166">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="5167" spans="1:2">
+      <c r="A5167" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B5167">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="5168" spans="1:2">
+      <c r="A5168" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5168">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="5169" spans="1:2">
+      <c r="A5169" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5169">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="5170" spans="1:2">
+      <c r="A5170" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5170">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="5171" spans="1:2">
+      <c r="A5171" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5171">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="5172" spans="1:2">
+      <c r="A5172" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5172">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="5173" spans="1:2">
+      <c r="A5173" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5173">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="5174" spans="1:2">
+      <c r="A5174" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5174">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="5175" spans="1:2">
+      <c r="A5175" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5175">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="5176" spans="1:2">
+      <c r="A5176" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B5176">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="5177" spans="1:2">
+      <c r="A5177" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5177">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="5178" spans="1:2">
+      <c r="A5178" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5178">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="5179" spans="1:2">
+      <c r="A5179" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5179">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="5180" spans="1:2">
+      <c r="A5180" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5180">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:2">
+      <c r="A5181" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5181">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="5182" spans="1:2">
+      <c r="A5182" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5182">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="5183" spans="1:2">
+      <c r="A5183" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5183">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:2">
+      <c r="A5184" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5184">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:2">
+      <c r="A5185" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5185">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:2">
+      <c r="A5186" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5186">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:2">
+      <c r="A5187" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5187">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:2">
+      <c r="A5188" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B5188">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:2">
+      <c r="A5189" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5189">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:2">
+      <c r="A5190" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5190">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:2">
+      <c r="A5191" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5191">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:2">
+      <c r="A5192" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5192">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:2">
+      <c r="A5193" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5193">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:2">
+      <c r="A5194" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5194">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:2">
+      <c r="A5195" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5195">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:2">
+      <c r="A5196" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5196">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:2">
+      <c r="A5197" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5197">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:2">
+      <c r="A5198" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5198">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:2">
+      <c r="A5199" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5199">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:2">
+      <c r="A5200" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B5200">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:2">
+      <c r="A5201" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B5201">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:2">
+      <c r="A5202" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B5202">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:2">
+      <c r="A5203" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B5203">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:2">
+      <c r="A5204" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B5204">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:2">
+      <c r="A5205" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B5205">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:2">
+      <c r="A5206" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B5206">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:2">
+      <c r="A5207" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B5207">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:2">
+      <c r="A5208" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5208">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:2">
+      <c r="A5209" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5209">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:2">
+      <c r="A5210" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5210">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:2">
+      <c r="A5211" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5211">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:2">
+      <c r="A5212" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5212">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:2">
+      <c r="A5213" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5213">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:2">
+      <c r="A5214" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5214">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:2">
+      <c r="A5215" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5215">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:2">
+      <c r="A5216" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5216">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:2">
+      <c r="A5217" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5217">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:2">
+      <c r="A5218" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5218">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:2">
+      <c r="A5219" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5219">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:2">
+      <c r="A5220" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5220">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:2">
+      <c r="A5221" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5221">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:2">
+      <c r="A5222" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B5222">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:2">
+      <c r="A5223" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5223">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:2">
+      <c r="A5224" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5224">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:2">
+      <c r="A5225" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5225">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:2">
+      <c r="A5226" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5226">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:2">
+      <c r="A5227" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5227">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:2">
+      <c r="A5228" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5228">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:2">
+      <c r="A5229" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5229">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:2">
+      <c r="A5230" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B5230">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:2">
+      <c r="A5231" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5231">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:2">
+      <c r="A5232" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5232">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:2">
+      <c r="A5233" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5233">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:2">
+      <c r="A5234" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5234">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:2">
+      <c r="A5235" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5235">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:2">
+      <c r="A5236" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5236">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:2">
+      <c r="A5237" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5237">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:2">
+      <c r="A5238" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5238">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:2">
+      <c r="A5239" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5239">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:2">
+      <c r="A5240" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5240">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:2">
+      <c r="A5241" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5241">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:2">
+      <c r="A5242" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5242">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:2">
+      <c r="A5243" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5243">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:2">
+      <c r="A5244" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5244">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:2">
+      <c r="A5245" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5245">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:2">
+      <c r="A5246" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5246">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:2">
+      <c r="A5247" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5247">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:2">
+      <c r="A5248" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5248">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:2">
+      <c r="A5249" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5249">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:2">
+      <c r="A5250" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B5250">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:2">
+      <c r="A5251" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5251">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:2">
+      <c r="A5252" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5252">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:2">
+      <c r="A5253" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5253">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:2">
+      <c r="A5254" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5254">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:2">
+      <c r="A5255" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5255">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:2">
+      <c r="A5256" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5256">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:2">
+      <c r="A5257" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5257">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:2">
+      <c r="A5258" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5258">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:2">
+      <c r="A5259" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5259">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:2">
+      <c r="A5260" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5260">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:2">
+      <c r="A5261" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5261">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:2">
+      <c r="A5262" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5262">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:2">
+      <c r="A5263" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5263">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:2">
+      <c r="A5264" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5264">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:2">
+      <c r="A5265" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5265">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:2">
+      <c r="A5266" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5266">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:2">
+      <c r="A5267" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B5267">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:2">
+      <c r="A5268" s="1">
+        <v>41755</v>
+      </c>
+      <c r="B5268">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:2">
+      <c r="A5269" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5269">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:2">
+      <c r="A5270" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5270">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:2">
+      <c r="A5271" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5271">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:2">
+      <c r="A5272" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5272">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:2">
+      <c r="A5273" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5273">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:2">
+      <c r="A5274" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5274">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:2">
+      <c r="A5275" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5275">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:2">
+      <c r="A5276" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5276">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:2">
+      <c r="A5277" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5277">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:2">
+      <c r="A5278" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5278">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:2">
+      <c r="A5279" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5279">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:2">
+      <c r="A5280" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5280">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:2">
+      <c r="A5281" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5281">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:2">
+      <c r="A5282" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5282">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:2">
+      <c r="A5283" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B5283">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:2">
+      <c r="A5284" s="1">
+        <v>41758</v>
+      </c>
+      <c r="B5284">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:2">
+      <c r="A5285" s="1">
+        <v>41758</v>
+      </c>
+      <c r="B5285">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:2">
+      <c r="A5286" s="1">
+        <v>41758</v>
+      </c>
+      <c r="B5286">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:2">
+      <c r="A5287" s="1">
+        <v>41758</v>
+      </c>
+      <c r="B5287">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:2">
+      <c r="A5288" s="1">
+        <v>41758</v>
+      </c>
+      <c r="B5288">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:2">
+      <c r="A5289" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5289">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:2">
+      <c r="A5290" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5290">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:2">
+      <c r="A5291" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5291">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:2">
+      <c r="A5292" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5292">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:2">
+      <c r="A5293" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5293">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:2">
+      <c r="A5294" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5294">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:2">
+      <c r="A5295" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5295">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:2">
+      <c r="A5296" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5296">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:2">
+      <c r="A5297" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5297">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:2">
+      <c r="A5298" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B5298">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:2">
+      <c r="A5299" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5299">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:2">
+      <c r="A5300" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5300">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:2">
+      <c r="A5301" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5301">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:2">
+      <c r="A5302" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5302">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="5303" spans="1:2">
+      <c r="A5303" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5303">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:2">
+      <c r="A5304" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5304">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:2">
+      <c r="A5305" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5305">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:2">
+      <c r="A5306" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B5306">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:2">
+      <c r="A5307" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5307">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:2">
+      <c r="A5308" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5308">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:2">
+      <c r="A5309" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5309">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:2">
+      <c r="A5310" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5310">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:2">
+      <c r="A5311" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5311">
+        <v>5311</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:2">
+      <c r="A5312" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5312">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:2">
+      <c r="A5313" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5313">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:2">
+      <c r="A5314" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5314">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:2">
+      <c r="A5315" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5315">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:2">
+      <c r="A5316" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5316">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:2">
+      <c r="A5317" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5317">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:2">
+      <c r="A5318" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5318">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:2">
+      <c r="A5319" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5319">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:2">
+      <c r="A5320" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5320">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:2">
+      <c r="A5321" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B5321">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:2">
+      <c r="A5322" s="1">
+        <v>41764</v>
+      </c>
+      <c r="B5322">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:2">
+      <c r="A5323" s="1">
+        <v>41764</v>
+      </c>
+      <c r="B5323">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:2">
+      <c r="A5324" s="1">
+        <v>41764</v>
+      </c>
+      <c r="B5324">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:2">
+      <c r="A5325" s="1">
+        <v>41764</v>
+      </c>
+      <c r="B5325">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:2">
       <c r="A5326" s="1"/>
     </row>
-    <row r="5327" spans="1:1">
+    <row r="5327" spans="1:2">
       <c r="A5327" s="1"/>
     </row>
-    <row r="5328" spans="1:1">
+    <row r="5328" spans="1:2">
       <c r="A5328" s="1"/>
     </row>
     <row r="5329" spans="1:1">
@@ -74213,9 +76969,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -74828,6 +77586,14 @@
       </c>
       <c r="B76">
         <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B77">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
